--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27940,10 +27940,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="N181" sqref="N181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28303,7 +28303,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
@@ -28311,7 +28311,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -28320,6 +28320,9 @@
         <v>3</v>
       </c>
       <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="BB6" s="9">
@@ -28605,11 +28608,11 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
@@ -28621,6 +28624,9 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
       <c r="BB16" s="9">
         <f>'2015'!D16</f>
         <v>5</v>
@@ -28669,7 +28675,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
@@ -28677,7 +28683,10 @@
       </c>
       <c r="E18" s="17">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
       </c>
       <c r="BB18" s="9">
         <f>'2015'!D18</f>
@@ -29425,11 +29434,11 @@
       </c>
       <c r="C42" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="17">
         <f t="shared" si="1"/>
@@ -29438,6 +29447,9 @@
       <c r="K42" s="1">
         <v>2</v>
       </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
       <c r="BB42" s="9">
         <f>'2015'!D42</f>
         <v>2</v>
@@ -29486,16 +29498,19 @@
       </c>
       <c r="C44" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
       <c r="BB44" s="9">
         <f>'2015'!D44</f>
         <v>4</v>
@@ -29515,7 +29530,7 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="1"/>
@@ -29523,12 +29538,15 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
         <v>1</v>
       </c>
       <c r="BB45" s="9">
@@ -29608,16 +29626,19 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
       <c r="BB48" s="9">
         <f>'2015'!D48</f>
         <v>1</v>
@@ -29637,7 +29658,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="1"/>
@@ -29645,12 +29666,15 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
       </c>
       <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
         <v>1</v>
       </c>
       <c r="BB49" s="9">
@@ -29672,11 +29696,11 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
@@ -29688,6 +29712,9 @@
       <c r="K50" s="1">
         <v>2</v>
       </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
       <c r="BB50" s="9">
         <f>'2015'!D50</f>
         <v>6</v>
@@ -29983,7 +30010,7 @@
       </c>
       <c r="C60" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="1"/>
@@ -29991,9 +30018,12 @@
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
         <v>1</v>
       </c>
       <c r="BB60" s="9">
@@ -30389,16 +30419,19 @@
       </c>
       <c r="C72" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" s="17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="N72" s="1">
+        <v>2</v>
+      </c>
       <c r="BB72" s="9">
         <f>'2015'!D72</f>
         <v>6</v>
@@ -30537,15 +30570,24 @@
       </c>
       <c r="C77" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
       </c>
       <c r="BB77" s="9">
         <f>'2015'!D77</f>
@@ -32186,7 +32228,7 @@
       </c>
       <c r="C132" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" ref="D132:E195" si="7">SUM(BB132-F132-J132-N132-R132-V132-Z132-AD132-AH132-AL132-AP132-AT132-AX132)</f>
@@ -32194,9 +32236,12 @@
       </c>
       <c r="E132" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" s="1">
+        <v>1</v>
+      </c>
+      <c r="K132" s="1">
         <v>1</v>
       </c>
       <c r="BB132" s="9">
@@ -32218,7 +32263,7 @@
       </c>
       <c r="C133" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" s="17">
         <f t="shared" si="7"/>
@@ -32226,7 +32271,10 @@
       </c>
       <c r="E133" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="O133" s="1">
+        <v>1</v>
       </c>
       <c r="BB133" s="9">
         <f>'2015'!D133</f>
@@ -32305,11 +32353,11 @@
       </c>
       <c r="C136" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E136" s="7">
         <f t="shared" si="7"/>
@@ -32318,6 +32366,9 @@
       <c r="J136" s="1">
         <v>1</v>
       </c>
+      <c r="N136" s="1">
+        <v>1</v>
+      </c>
       <c r="BB136" s="9">
         <f>'2015'!D136</f>
         <v>7</v>
@@ -32729,20 +32780,26 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D150" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
       </c>
       <c r="J150" s="1">
+        <v>1</v>
+      </c>
+      <c r="N150" s="1">
+        <v>1</v>
+      </c>
+      <c r="O150" s="1">
         <v>1</v>
       </c>
       <c r="BB150" s="9">
@@ -32947,7 +33004,7 @@
       </c>
       <c r="C157" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="7"/>
@@ -32955,9 +33012,12 @@
       </c>
       <c r="E157" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J157" s="1">
+        <v>1</v>
+      </c>
+      <c r="O157" s="1">
         <v>1</v>
       </c>
       <c r="BB157" s="9">
@@ -33699,17 +33759,23 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J182" s="1">
+        <v>1</v>
+      </c>
+      <c r="N182" s="1">
+        <v>2</v>
+      </c>
+      <c r="O182" s="1">
         <v>1</v>
       </c>
       <c r="BB182" s="9">
@@ -34325,15 +34391,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34351,17 +34417,17 @@
       </c>
       <c r="K203" s="15">
         <f>SUM(K3:K201)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L203" s="13"/>
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P203" s="13"/>
       <c r="Q203" s="13"/>
@@ -34540,7 +34606,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2299</v>
+        <v>2276</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -34556,7 +34622,7 @@
       </c>
       <c r="K205" s="15">
         <f>SUM(J203:K203)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>
@@ -34565,7 +34631,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>
@@ -51351,12 +51417,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51365,6 +51425,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27940,10 +27940,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N181" sqref="N181"/>
+      <selection pane="bottomRight" activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28268,20 +28268,26 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="BB5" s="9">
@@ -28736,11 +28742,11 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="1"/>
@@ -28755,6 +28761,9 @@
       <c r="J20" s="1">
         <v>1</v>
       </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
       <c r="BB20" s="9">
         <f>'2015'!D20</f>
         <v>3</v>
@@ -29399,7 +29408,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -29407,12 +29416,15 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
         <v>1</v>
       </c>
       <c r="BB41" s="9">
@@ -29658,7 +29670,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="1"/>
@@ -29666,7 +29678,7 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -29675,7 +29687,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB49" s="9">
         <f>'2015'!D49</f>
@@ -29827,7 +29839,7 @@
       </c>
       <c r="C54" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54" s="12">
         <f t="shared" si="1"/>
@@ -29835,12 +29847,15 @@
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
         <v>2</v>
       </c>
       <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="O54" s="1">
         <v>2</v>
       </c>
       <c r="BB54" s="9">
@@ -29978,17 +29993,20 @@
       </c>
       <c r="C59" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
         <v>1</v>
       </c>
       <c r="BB59" s="9">
@@ -30172,11 +30190,11 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
@@ -30185,6 +30203,9 @@
       <c r="G64" s="1">
         <v>1</v>
       </c>
+      <c r="N64" s="1">
+        <v>2</v>
+      </c>
       <c r="BB64" s="9">
         <f>'2015'!D64</f>
         <v>6</v>
@@ -30759,7 +30780,7 @@
       </c>
       <c r="C83" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="4"/>
@@ -30767,7 +30788,10 @@
       </c>
       <c r="E83" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
       </c>
       <c r="BB83" s="9">
         <f>'2015'!D83</f>
@@ -30962,7 +30986,7 @@
       </c>
       <c r="C90" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" si="4"/>
@@ -30970,7 +30994,10 @@
       </c>
       <c r="E90" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1</v>
       </c>
       <c r="BB90" s="9">
         <f>'2015'!D90</f>
@@ -31116,7 +31143,7 @@
       </c>
       <c r="C95" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="4"/>
@@ -31124,7 +31151,10 @@
       </c>
       <c r="E95" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1</v>
       </c>
       <c r="BB95" s="9">
         <f>'2015'!D95</f>
@@ -31177,7 +31207,7 @@
       </c>
       <c r="C97" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="7">
         <f t="shared" si="4"/>
@@ -31185,7 +31215,10 @@
       </c>
       <c r="E97" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1</v>
       </c>
       <c r="BB97" s="9">
         <f>'2015'!D97</f>
@@ -31206,16 +31239,19 @@
       </c>
       <c r="C98" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
       <c r="BB98" s="9">
         <f>'2015'!D98</f>
         <v>6</v>
@@ -31502,7 +31538,7 @@
       </c>
       <c r="C108" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="7">
         <f t="shared" si="4"/>
@@ -31510,7 +31546,10 @@
       </c>
       <c r="E108" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
       </c>
       <c r="BB108" s="9">
         <f>'2015'!D108</f>
@@ -31746,7 +31785,7 @@
       </c>
       <c r="C116" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="17">
         <f t="shared" si="4"/>
@@ -31754,9 +31793,12 @@
       </c>
       <c r="E116" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="O116" s="1">
         <v>1</v>
       </c>
       <c r="BB116" s="9">
@@ -31923,7 +31965,7 @@
       </c>
       <c r="C122" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="7">
         <f t="shared" si="4"/>
@@ -31931,7 +31973,10 @@
       </c>
       <c r="E122" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="O122" s="1">
+        <v>1</v>
       </c>
       <c r="BB122" s="9">
         <f>'2015'!D122</f>
@@ -32170,7 +32215,7 @@
       </c>
       <c r="C130" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="7">
         <f t="shared" si="4"/>
@@ -32178,7 +32223,10 @@
       </c>
       <c r="E130" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="O130" s="1">
+        <v>1</v>
       </c>
       <c r="BB130" s="9">
         <f>'2015'!D130</f>
@@ -32449,7 +32497,7 @@
       </c>
       <c r="C139" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D139" s="17">
         <f t="shared" si="7"/>
@@ -32457,9 +32505,12 @@
       </c>
       <c r="E139" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J139" s="1">
+        <v>2</v>
+      </c>
+      <c r="O139" s="1">
         <v>2</v>
       </c>
       <c r="BB139" s="9">
@@ -32516,15 +32567,18 @@
       </c>
       <c r="C141" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141" s="7">
         <f t="shared" si="7"/>
         <v>5</v>
+      </c>
+      <c r="N141" s="1">
+        <v>1</v>
       </c>
       <c r="BB141" s="9">
         <f>'2015'!D141</f>
@@ -32664,16 +32718,19 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E146" s="7">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
+      <c r="N146" s="1">
+        <v>1</v>
+      </c>
       <c r="BB146" s="9">
         <f>'2015'!D146</f>
         <v>11</v>
@@ -32780,11 +32837,11 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D150" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
@@ -32797,7 +32854,7 @@
         <v>1</v>
       </c>
       <c r="N150" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O150" s="1">
         <v>1</v>
@@ -32885,16 +32942,19 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E153" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="N153" s="1">
+        <v>1</v>
+      </c>
       <c r="BB153" s="9">
         <f>'2015'!D153</f>
         <v>7</v>
@@ -33335,7 +33395,7 @@
       </c>
       <c r="C168" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" s="7">
         <f t="shared" si="7"/>
@@ -33343,7 +33403,10 @@
       </c>
       <c r="E168" s="7">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="O168" s="1">
+        <v>1</v>
       </c>
       <c r="BB168" s="9">
         <f>'2015'!D168</f>
@@ -33364,7 +33427,7 @@
       </c>
       <c r="C169" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="7"/>
@@ -33372,9 +33435,12 @@
       </c>
       <c r="E169" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J169" s="1">
+        <v>1</v>
+      </c>
+      <c r="O169" s="1">
         <v>1</v>
       </c>
       <c r="BB169" s="9">
@@ -33486,15 +33552,18 @@
       </c>
       <c r="C173" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E173" s="17">
         <f t="shared" si="7"/>
         <v>10</v>
+      </c>
+      <c r="N173" s="1">
+        <v>1</v>
       </c>
       <c r="BB173" s="9">
         <f>'2015'!D173</f>
@@ -34391,15 +34460,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34423,11 +34492,11 @@
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="P203" s="13"/>
       <c r="Q203" s="13"/>
@@ -34606,7 +34675,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2276</v>
+        <v>2247</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -34631,7 +34700,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>
@@ -51417,6 +51486,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51425,12 +51500,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27940,10 +27940,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O94" sqref="O94"/>
+      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29094,11 +29094,11 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
@@ -29108,6 +29108,9 @@
         <v>1</v>
       </c>
       <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
         <v>1</v>
       </c>
       <c r="BB31" s="9">
@@ -31570,11 +31573,11 @@
       </c>
       <c r="C109" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D109" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" s="12">
         <f t="shared" si="4"/>
@@ -31587,6 +31590,9 @@
         <v>1</v>
       </c>
       <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1">
         <v>1</v>
       </c>
       <c r="BB109" s="9">
@@ -34460,11 +34466,11 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
@@ -34492,7 +34498,7 @@
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
@@ -34675,7 +34681,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -34700,7 +34706,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>
@@ -51486,12 +51492,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51500,6 +51500,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27940,10 +27940,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28268,15 +28268,15 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -28288,6 +28288,9 @@
         <v>1</v>
       </c>
       <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>1</v>
       </c>
       <c r="BB5" s="9">
@@ -28681,16 +28684,19 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
@@ -29641,7 +29647,7 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="1"/>
@@ -29649,9 +29655,12 @@
       </c>
       <c r="E48" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48">
         <v>1</v>
       </c>
       <c r="BB48" s="9">
@@ -29749,16 +29758,19 @@
       </c>
       <c r="C51" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
       <c r="BB51" s="9">
         <f>'2015'!D51</f>
         <v>4</v>
@@ -29848,7 +29860,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -30037,7 +30049,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -30289,7 +30301,7 @@
       </c>
       <c r="C67" s="8">
         <f t="shared" ref="C67:C130" si="3">SUM(BD67-D67-E67)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" si="1"/>
@@ -30297,7 +30309,10 @@
       </c>
       <c r="E67" s="17">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
       </c>
       <c r="BB67" s="9">
         <f>'2015'!D67</f>
@@ -32032,7 +32047,7 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
@@ -32040,7 +32055,7 @@
       </c>
       <c r="E124" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -32049,6 +32064,9 @@
         <v>1</v>
       </c>
       <c r="K124" s="1">
+        <v>1</v>
+      </c>
+      <c r="O124" s="1">
         <v>1</v>
       </c>
       <c r="BB124" s="9">
@@ -32407,7 +32425,7 @@
       </c>
       <c r="C136" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="7"/>
@@ -32415,12 +32433,15 @@
       </c>
       <c r="E136" s="7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
       </c>
       <c r="N136" s="1">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1">
         <v>1</v>
       </c>
       <c r="BB136" s="9">
@@ -32724,7 +32745,7 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
@@ -32732,9 +32753,12 @@
       </c>
       <c r="E146" s="7">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N146" s="1">
+        <v>1</v>
+      </c>
+      <c r="S146">
         <v>1</v>
       </c>
       <c r="BB146" s="9">
@@ -32843,7 +32867,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="7">
         <f t="shared" si="7"/>
@@ -32851,7 +32875,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -32863,7 +32887,7 @@
         <v>3</v>
       </c>
       <c r="O150" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB150" s="9">
         <f>'2015'!D150</f>
@@ -33529,16 +33553,19 @@
       </c>
       <c r="C172" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E172" s="17">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
       <c r="BB172" s="9">
         <f>'2015'!D172</f>
         <v>7</v>
@@ -33712,16 +33739,19 @@
       </c>
       <c r="C178" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E178" s="7">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="N178" s="1">
+        <v>1</v>
+      </c>
       <c r="BB178" s="9">
         <f>'2015'!D178</f>
         <v>5</v>
@@ -34197,11 +34227,11 @@
       </c>
       <c r="C194" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" s="12">
         <f t="shared" si="7"/>
@@ -34210,6 +34240,9 @@
       <c r="F194" s="1">
         <v>1</v>
       </c>
+      <c r="N194" s="1">
+        <v>1</v>
+      </c>
       <c r="BB194" s="9">
         <f>'2015'!D194</f>
         <v>3</v>
@@ -34229,7 +34262,7 @@
       </c>
       <c r="C195" s="8">
         <f t="shared" ref="C195:C201" si="9">SUM(BD195-D195-E195)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" s="7">
         <f t="shared" si="7"/>
@@ -34237,7 +34270,10 @@
       </c>
       <c r="E195" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O195" s="1">
+        <v>1</v>
       </c>
       <c r="BB195" s="9">
         <f>'2015'!D195</f>
@@ -34466,15 +34502,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34498,21 +34534,21 @@
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P203" s="13"/>
       <c r="Q203" s="13"/>
       <c r="R203" s="13">
         <f>SUM(R3:R201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S203" s="13">
         <f>SUM(S3:S201)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
@@ -34681,7 +34717,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2245</v>
+        <v>2232</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -34706,7 +34742,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>
@@ -34715,7 +34751,7 @@
       </c>
       <c r="S205" s="13">
         <f>SUM(R203:S203)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T205" s="13"/>
       <c r="U205" s="13"/>
@@ -51492,6 +51528,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51500,12 +51542,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27940,10 +27940,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="P21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28272,11 +28272,11 @@
       </c>
       <c r="D5" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -28290,7 +28290,7 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="S5">
+      <c r="R5">
         <v>1</v>
       </c>
       <c r="BB5" s="9">
@@ -29065,11 +29065,11 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
@@ -29081,6 +29081,9 @@
       <c r="K30" s="1">
         <v>1</v>
       </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
       <c r="BB30" s="9">
         <f>'2015'!D30</f>
         <v>4</v>
@@ -29100,11 +29103,11 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
@@ -29119,6 +29122,9 @@
       <c r="N31" s="1">
         <v>1</v>
       </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
       <c r="BB31" s="9">
         <f>'2015'!D31</f>
         <v>5</v>
@@ -29979,7 +29985,7 @@
       </c>
       <c r="C58" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" si="1"/>
@@ -29987,7 +29993,10 @@
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
       </c>
       <c r="BB58" s="9">
         <f>'2015'!D58</f>
@@ -31318,7 +31327,7 @@
       </c>
       <c r="C100" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="4"/>
@@ -31326,7 +31335,10 @@
       </c>
       <c r="E100" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
       </c>
       <c r="BB100" s="9">
         <f>'2015'!D100</f>
@@ -32867,11 +32879,11 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="D150" s="7">
+        <v>10</v>
+      </c>
+      <c r="D150" s="12">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
@@ -32889,6 +32901,9 @@
       <c r="O150" s="1">
         <v>2</v>
       </c>
+      <c r="R150">
+        <v>1</v>
+      </c>
       <c r="BB150" s="9">
         <f>'2015'!D150</f>
         <v>9</v>
@@ -33803,15 +33818,18 @@
       </c>
       <c r="C180" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E180" s="17">
         <f t="shared" si="7"/>
         <v>10</v>
+      </c>
+      <c r="R180">
+        <v>1</v>
       </c>
       <c r="BB180" s="9">
         <f>'2015'!D180</f>
@@ -34502,15 +34520,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34544,11 +34562,11 @@
       <c r="Q203" s="13"/>
       <c r="R203" s="13">
         <f>SUM(R3:R201)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S203" s="13">
         <f>SUM(S3:S201)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
@@ -34717,7 +34735,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -34751,7 +34769,7 @@
       </c>
       <c r="S205" s="13">
         <f>SUM(R203:S203)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T205" s="13"/>
       <c r="U205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +295,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,10 +615,10 @@
   <dimension ref="A1:BM470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,100 +668,100 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="34"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="33"/>
+      <c r="J1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="34"/>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="33"/>
+      <c r="O1" s="34"/>
       <c r="P1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="33"/>
+      <c r="S1" s="34"/>
       <c r="T1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="33"/>
+      <c r="W1" s="34"/>
       <c r="X1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="33"/>
+      <c r="AA1" s="34"/>
       <c r="AB1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="34"/>
+      <c r="AE1" s="35"/>
       <c r="AF1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="33"/>
+      <c r="AI1" s="34"/>
       <c r="AJ1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="33"/>
+      <c r="AM1" s="34"/>
       <c r="AN1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AP1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AQ1" s="33"/>
+      <c r="AQ1" s="34"/>
       <c r="AR1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AT1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="33"/>
+      <c r="AU1" s="34"/>
       <c r="AV1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="33" t="s">
+      <c r="AX1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AY1" s="33"/>
+      <c r="AY1" s="34"/>
       <c r="AZ1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BB1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
       <c r="BE1" s="10"/>
       <c r="BF1" s="16"/>
       <c r="BG1" s="10"/>
@@ -27940,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="P21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="V125" sqref="V125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27993,100 +27994,100 @@
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="34"/>
       <c r="H1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="33"/>
+      <c r="J1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="34"/>
       <c r="L1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="33"/>
+      <c r="O1" s="34"/>
       <c r="P1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="33"/>
+      <c r="S1" s="34"/>
       <c r="T1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="33"/>
+      <c r="W1" s="34"/>
       <c r="X1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="33"/>
+      <c r="AA1" s="34"/>
       <c r="AB1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="34"/>
+      <c r="AE1" s="35"/>
       <c r="AF1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="33"/>
+      <c r="AI1" s="34"/>
       <c r="AJ1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="33"/>
+      <c r="AM1" s="34"/>
       <c r="AN1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AP1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AQ1" s="33"/>
+      <c r="AQ1" s="34"/>
       <c r="AR1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AT1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="33"/>
+      <c r="AU1" s="34"/>
       <c r="AV1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="33" t="s">
+      <c r="AX1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AY1" s="33"/>
+      <c r="AY1" s="34"/>
       <c r="AZ1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BB1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
       <c r="BL1" s="7"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
@@ -28210,16 +28211,19 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C66" si="0">SUM(BD3-D3-E3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(BB3-F3-J3-N3-R3-V3-Z3-AD3-AH3-AL3-AP3-AT3-AX3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="17">
         <f>SUM(BC3-G3-K3-O3-S3-W3-AA3-AE3-AI3-AM3-AQ3-AU3-AY3)</f>
         <v>10</v>
       </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
       <c r="BB3" s="9">
         <f>'2015'!D3</f>
         <v>3</v>
@@ -28469,7 +28473,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
@@ -28477,7 +28481,10 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
       </c>
       <c r="BB11" s="9">
         <f>'2015'!D11</f>
@@ -28617,11 +28624,11 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
@@ -28636,6 +28643,9 @@
       <c r="N16" s="1">
         <v>1</v>
       </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
       <c r="BB16" s="9">
         <f>'2015'!D16</f>
         <v>5</v>
@@ -28719,16 +28729,19 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
       <c r="BB19" s="9">
         <f>'2015'!D19</f>
         <v>8</v>
@@ -28748,7 +28761,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
@@ -28756,7 +28769,7 @@
       </c>
       <c r="E20" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -28768,6 +28781,9 @@
         <v>1</v>
       </c>
       <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20">
         <v>1</v>
       </c>
       <c r="BB20" s="9">
@@ -28818,7 +28834,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
@@ -28826,10 +28842,13 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
       </c>
       <c r="BB22" s="9">
         <f>'2015'!D22</f>
@@ -29144,15 +29163,18 @@
       </c>
       <c r="C32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
       </c>
       <c r="BB32" s="9">
         <f>'2015'!D32</f>
@@ -29173,16 +29195,19 @@
       </c>
       <c r="C33" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
       <c r="BB33" s="9">
         <f>'2015'!D33</f>
         <v>4</v>
@@ -29202,11 +29227,11 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
@@ -29215,6 +29240,9 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
       <c r="BB34" s="9">
         <f>'2015'!D34</f>
         <v>7</v>
@@ -29266,20 +29294,26 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
         <v>1</v>
       </c>
       <c r="BB36" s="9">
@@ -29301,11 +29335,11 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
@@ -29314,6 +29348,9 @@
       <c r="J37" s="1">
         <v>1</v>
       </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
       <c r="BB37" s="9">
         <f>'2015'!D37</f>
         <v>5</v>
@@ -29423,11 +29460,11 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
@@ -29442,6 +29479,9 @@
       <c r="O41" s="1">
         <v>1</v>
       </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
       <c r="BB41" s="9">
         <f>'2015'!D41</f>
         <v>7</v>
@@ -29496,7 +29536,7 @@
       </c>
       <c r="C43" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="1"/>
@@ -29504,7 +29544,10 @@
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
       </c>
       <c r="BB43" s="9">
         <f>'2015'!D43</f>
@@ -29525,11 +29568,11 @@
       </c>
       <c r="C44" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
@@ -29538,6 +29581,9 @@
       <c r="N44" s="1">
         <v>1</v>
       </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
       <c r="BB44" s="9">
         <f>'2015'!D44</f>
         <v>4</v>
@@ -29688,7 +29734,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="1"/>
@@ -29696,7 +29742,7 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -29706,6 +29752,9 @@
       </c>
       <c r="O49" s="1">
         <v>2</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
       </c>
       <c r="BB49" s="9">
         <f>'2015'!D49</f>
@@ -29726,7 +29775,7 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="1"/>
@@ -29734,7 +29783,7 @@
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -29744,6 +29793,9 @@
       </c>
       <c r="N50" s="1">
         <v>1</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
       </c>
       <c r="BB50" s="9">
         <f>'2015'!D50</f>
@@ -29764,11 +29816,11 @@
       </c>
       <c r="C51" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="17">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
@@ -29777,6 +29829,9 @@
       <c r="N51" s="1">
         <v>1</v>
       </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
       <c r="BB51" s="9">
         <f>'2015'!D51</f>
         <v>4</v>
@@ -29898,15 +29953,21 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
       </c>
       <c r="BB55" s="9">
         <f>'2015'!D55</f>
@@ -29956,7 +30017,7 @@
       </c>
       <c r="C57" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" si="1"/>
@@ -29964,7 +30025,10 @@
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
       </c>
       <c r="BB57" s="9">
         <f>'2015'!D57</f>
@@ -30146,15 +30210,15 @@
       <c r="B63" s="19"/>
       <c r="C63" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" s="27">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="30">
         <v>1</v>
@@ -30174,6 +30238,12 @@
       <c r="Q63" s="22"/>
       <c r="T63" s="21"/>
       <c r="U63" s="22"/>
+      <c r="V63" s="32">
+        <v>1</v>
+      </c>
+      <c r="W63" s="23">
+        <v>1</v>
+      </c>
       <c r="X63" s="21"/>
       <c r="Y63" s="22"/>
       <c r="AB63" s="21"/>
@@ -30214,11 +30284,11 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
@@ -30230,6 +30300,9 @@
       <c r="N64" s="1">
         <v>2</v>
       </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
       <c r="BB64" s="9">
         <f>'2015'!D64</f>
         <v>6</v>
@@ -30310,7 +30383,7 @@
       </c>
       <c r="C67" s="8">
         <f t="shared" ref="C67:C130" si="3">SUM(BD67-D67-E67)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" si="1"/>
@@ -30318,10 +30391,13 @@
       </c>
       <c r="E67" s="17">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
+      </c>
+      <c r="W67">
+        <v>3</v>
       </c>
       <c r="BB67" s="9">
         <f>'2015'!D67</f>
@@ -30371,16 +30447,19 @@
       </c>
       <c r="C69" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
       <c r="BB69" s="9">
         <f>'2015'!D69</f>
         <v>4</v>
@@ -30557,7 +30636,7 @@
       </c>
       <c r="C75" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" si="4"/>
@@ -30565,10 +30644,13 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J75" s="1">
         <v>2</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
       </c>
       <c r="BB75" s="9">
         <f>'2015'!D75</f>
@@ -30618,11 +30700,11 @@
       </c>
       <c r="C77" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77" s="12">
         <f t="shared" si="4"/>
@@ -30637,6 +30719,9 @@
       <c r="O77" s="1">
         <v>0</v>
       </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
       <c r="BB77" s="9">
         <f>'2015'!D77</f>
         <v>5</v>
@@ -30685,7 +30770,7 @@
       </c>
       <c r="C79" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="4"/>
@@ -30693,7 +30778,10 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
       </c>
       <c r="BB79" s="9">
         <f>'2015'!D79</f>
@@ -30714,11 +30802,11 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="4"/>
@@ -30730,6 +30818,9 @@
       <c r="J80" s="1">
         <v>1</v>
       </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
       <c r="BB80" s="9">
         <f>'2015'!D80</f>
         <v>7</v>
@@ -30807,7 +30898,7 @@
       </c>
       <c r="C83" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="4"/>
@@ -30815,9 +30906,12 @@
       </c>
       <c r="E83" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O83" s="1">
+        <v>1</v>
+      </c>
+      <c r="S83">
         <v>1</v>
       </c>
       <c r="BB83" s="9">
@@ -31045,11 +31139,11 @@
       </c>
       <c r="C91" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="4"/>
@@ -31061,6 +31155,9 @@
       <c r="G91" s="1">
         <v>1</v>
       </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
       <c r="BB91" s="9">
         <f>'2015'!D91</f>
         <v>4</v>
@@ -31702,7 +31799,7 @@
       </c>
       <c r="C112" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="4"/>
@@ -31710,7 +31807,10 @@
       </c>
       <c r="E112" s="17">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="W112">
+        <v>1</v>
       </c>
       <c r="BB112" s="9">
         <f>'2015'!D112</f>
@@ -31818,7 +31918,7 @@
       </c>
       <c r="C116" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" s="17">
         <f t="shared" si="4"/>
@@ -31826,12 +31926,15 @@
       </c>
       <c r="E116" s="17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
       </c>
       <c r="O116" s="1">
+        <v>1</v>
+      </c>
+      <c r="W116">
         <v>1</v>
       </c>
       <c r="BB116" s="9">
@@ -32059,15 +32162,15 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E124" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -32080,6 +32183,15 @@
       </c>
       <c r="O124" s="1">
         <v>1</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="V124">
+        <v>2</v>
+      </c>
+      <c r="W124">
+        <v>2</v>
       </c>
       <c r="BB124" s="9">
         <f>'2015'!D124</f>
@@ -32190,11 +32302,11 @@
       </c>
       <c r="C128" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" s="17">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E128" s="17">
         <f t="shared" si="4"/>
@@ -32203,6 +32315,9 @@
       <c r="G128" s="1">
         <v>1</v>
       </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
       <c r="BB128" s="9">
         <f>'2015'!D128</f>
         <v>5</v>
@@ -32571,7 +32686,7 @@
       </c>
       <c r="C140" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140" s="12">
         <f t="shared" si="7"/>
@@ -32579,13 +32694,16 @@
       </c>
       <c r="E140" s="12">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
       </c>
       <c r="J140" s="1">
         <v>3</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
       </c>
       <c r="BB140" s="9">
         <f>'2015'!D140</f>
@@ -32757,7 +32875,7 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
@@ -32765,13 +32883,13 @@
       </c>
       <c r="E146" s="7">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N146" s="1">
         <v>1</v>
       </c>
       <c r="S146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB146" s="9">
         <f>'2015'!D146</f>
@@ -32879,15 +32997,15 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -32902,6 +33020,12 @@
         <v>2</v>
       </c>
       <c r="R150">
+        <v>1</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="V150">
         <v>1</v>
       </c>
       <c r="BB150" s="9">
@@ -32923,15 +33047,21 @@
       </c>
       <c r="C151" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E151" s="7">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="S151">
+        <v>1</v>
+      </c>
+      <c r="V151">
+        <v>2</v>
       </c>
       <c r="BB151" s="9">
         <f>'2015'!D151</f>
@@ -32952,7 +33082,7 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
@@ -32960,13 +33090,16 @@
       </c>
       <c r="E152" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
       </c>
       <c r="J152" s="1">
         <v>1</v>
+      </c>
+      <c r="S152">
+        <v>2</v>
       </c>
       <c r="BB152" s="9">
         <f>'2015'!D152</f>
@@ -33019,7 +33152,7 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="7"/>
@@ -33027,9 +33160,12 @@
       </c>
       <c r="E154" s="7">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J154" s="1">
+        <v>1</v>
+      </c>
+      <c r="W154">
         <v>1</v>
       </c>
       <c r="BB154" s="9">
@@ -33109,7 +33245,7 @@
       </c>
       <c r="C157" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="7"/>
@@ -33117,12 +33253,15 @@
       </c>
       <c r="E157" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J157" s="1">
         <v>1</v>
       </c>
       <c r="O157" s="1">
+        <v>1</v>
+      </c>
+      <c r="W157">
         <v>1</v>
       </c>
       <c r="BB157" s="9">
@@ -33208,7 +33347,7 @@
       </c>
       <c r="C160" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" s="17">
         <f t="shared" si="7"/>
@@ -33216,7 +33355,10 @@
       </c>
       <c r="E160" s="17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="W160">
+        <v>1</v>
       </c>
       <c r="BB160" s="9">
         <f>'2015'!D160</f>
@@ -33353,16 +33495,19 @@
       </c>
       <c r="C165" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E165" s="7">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
       <c r="BB165" s="9">
         <f>'2015'!D165</f>
         <v>4</v>
@@ -33882,11 +34027,11 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
@@ -33901,6 +34046,9 @@
       <c r="O182" s="1">
         <v>1</v>
       </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
       <c r="BB182" s="9">
         <f>'2015'!D182</f>
         <v>11</v>
@@ -33949,11 +34097,11 @@
       </c>
       <c r="C184" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" s="7">
         <f t="shared" si="7"/>
@@ -33962,6 +34110,9 @@
       <c r="F184" s="1">
         <v>1</v>
       </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
       <c r="BB184" s="9">
         <f>'2015'!D184</f>
         <v>2</v>
@@ -34247,7 +34398,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D194" s="17">
+      <c r="D194" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -34344,7 +34495,7 @@
       </c>
       <c r="C197" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D197" s="7">
         <f t="shared" si="10"/>
@@ -34352,7 +34503,7 @@
       </c>
       <c r="E197" s="17">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G197" s="1">
         <v>1</v>
@@ -34361,6 +34512,9 @@
         <v>1</v>
       </c>
       <c r="K197" s="1">
+        <v>1</v>
+      </c>
+      <c r="S197">
         <v>1</v>
       </c>
       <c r="BB197" s="9">
@@ -34520,15 +34674,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>896</v>
+        <v>859</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1330</v>
+        <v>1294</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34562,21 +34716,21 @@
       <c r="Q203" s="13"/>
       <c r="R203" s="13">
         <f>SUM(R3:R201)</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S203" s="13">
         <f>SUM(S3:S201)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
       <c r="V203" s="13">
         <f>SUM(V3:V201)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W203" s="13">
         <f>SUM(W3:W201)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
@@ -34735,7 +34889,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2226</v>
+        <v>2153</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -34769,7 +34923,7 @@
       </c>
       <c r="S205" s="13">
         <f>SUM(R203:S203)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="T205" s="13"/>
       <c r="U205" s="13"/>
@@ -34778,7 +34932,7 @@
       </c>
       <c r="W205" s="13">
         <f>SUM(V203:W203)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>
@@ -51546,12 +51700,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51560,6 +51708,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1815" windowWidth="10515" windowHeight="5295" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="1875" windowWidth="10515" windowHeight="5235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V125" sqref="V125"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28729,11 +28729,11 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
@@ -28742,6 +28742,9 @@
       <c r="R19">
         <v>6</v>
       </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
       <c r="BB19" s="9">
         <f>'2015'!D19</f>
         <v>8</v>
@@ -29195,18 +29198,18 @@
       </c>
       <c r="C33" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB33" s="9">
         <f>'2015'!D33</f>
@@ -29294,7 +29297,7 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
@@ -29302,7 +29305,7 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -29314,6 +29317,9 @@
         <v>1</v>
       </c>
       <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="W36">
         <v>1</v>
       </c>
       <c r="BB36" s="9">
@@ -29460,7 +29466,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -29468,7 +29474,7 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -29480,6 +29486,9 @@
         <v>1</v>
       </c>
       <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
         <v>1</v>
       </c>
       <c r="BB41" s="9">
@@ -29734,11 +29743,11 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
@@ -29752,6 +29761,9 @@
       </c>
       <c r="O49" s="1">
         <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
       </c>
       <c r="W49">
         <v>1</v>
@@ -32997,7 +33009,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -33005,7 +33017,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -33027,6 +33039,9 @@
       </c>
       <c r="V150">
         <v>1</v>
+      </c>
+      <c r="W150">
+        <v>2</v>
       </c>
       <c r="BB150" s="9">
         <f>'2015'!D150</f>
@@ -33120,11 +33135,11 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E153" s="7">
         <f t="shared" si="7"/>
@@ -33133,6 +33148,9 @@
       <c r="N153" s="1">
         <v>1</v>
       </c>
+      <c r="V153">
+        <v>1</v>
+      </c>
       <c r="BB153" s="9">
         <f>'2015'!D153</f>
         <v>7</v>
@@ -33245,11 +33263,11 @@
       </c>
       <c r="C157" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E157" s="7">
         <f t="shared" si="7"/>
@@ -33261,6 +33279,9 @@
       <c r="O157" s="1">
         <v>1</v>
       </c>
+      <c r="V157">
+        <v>1</v>
+      </c>
       <c r="W157">
         <v>1</v>
       </c>
@@ -34632,7 +34653,7 @@
       </c>
       <c r="C201" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" s="7">
         <f t="shared" si="10"/>
@@ -34640,7 +34661,10 @@
       </c>
       <c r="E201" s="7">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="W201">
+        <v>1</v>
       </c>
       <c r="BB201" s="9">
         <f>'2015'!D201</f>
@@ -34674,15 +34698,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34726,11 +34750,11 @@
       <c r="U203" s="13"/>
       <c r="V203" s="13">
         <f>SUM(V3:V201)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W203" s="13">
         <f>SUM(W3:W201)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
@@ -34889,7 +34913,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2153</v>
+        <v>2142</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -34932,7 +34956,7 @@
       </c>
       <c r="W205" s="13">
         <f>SUM(V203:W203)</f>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="X111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="AA121" sqref="AA121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28211,7 +28211,7 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C66" si="0">SUM(BD3-D3-E3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(BB3-F3-J3-N3-R3-V3-Z3-AD3-AH3-AL3-AP3-AT3-AX3)</f>
@@ -28219,10 +28219,13 @@
       </c>
       <c r="E3" s="17">
         <f>SUM(BC3-G3-K3-O3-S3-W3-AA3-AE3-AI3-AM3-AQ3-AU3-AY3)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3">
         <v>3</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
       </c>
       <c r="BB3" s="9">
         <f>'2015'!D3</f>
@@ -28729,7 +28732,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
@@ -28737,13 +28740,16 @@
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R19">
         <v>6</v>
       </c>
       <c r="V19">
         <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
       </c>
       <c r="BB19" s="9">
         <f>'2015'!D19</f>
@@ -28837,11 +28843,11 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
@@ -28853,6 +28859,9 @@
       <c r="S22">
         <v>1</v>
       </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
       <c r="BB22" s="9">
         <f>'2015'!D22</f>
         <v>6</v>
@@ -28901,7 +28910,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="1"/>
@@ -28909,12 +28918,15 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
       </c>
       <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24">
         <v>1</v>
       </c>
       <c r="BB24" s="9">
@@ -29230,7 +29242,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="1"/>
@@ -29238,12 +29250,15 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
       </c>
       <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
         <v>1</v>
       </c>
       <c r="BB34" s="9">
@@ -29297,7 +29312,7 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
@@ -29305,7 +29320,7 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -29320,7 +29335,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB36" s="9">
         <f>'2015'!D36</f>
@@ -29437,7 +29452,7 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="1"/>
@@ -29445,7 +29460,10 @@
       </c>
       <c r="E40" s="17">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
       </c>
       <c r="BB40" s="9">
         <f>'2015'!D40</f>
@@ -29743,15 +29761,15 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -29763,10 +29781,10 @@
         <v>2</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB49" s="9">
         <f>'2015'!D49</f>
@@ -29895,17 +29913,20 @@
       </c>
       <c r="C53" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="V53">
         <v>1</v>
       </c>
       <c r="BB53" s="9">
@@ -30296,11 +30317,11 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D64" s="7">
+        <v>6</v>
+      </c>
+      <c r="D64" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
@@ -30315,6 +30336,9 @@
       <c r="R64">
         <v>1</v>
       </c>
+      <c r="V64">
+        <v>2</v>
+      </c>
       <c r="BB64" s="9">
         <f>'2015'!D64</f>
         <v>6</v>
@@ -30334,11 +30358,11 @@
       </c>
       <c r="C65" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
@@ -30347,6 +30371,9 @@
       <c r="F65" s="1">
         <v>1</v>
       </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
       <c r="BB65" s="9">
         <f>'2015'!D65</f>
         <v>10</v>
@@ -30590,16 +30617,19 @@
       </c>
       <c r="C73" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" s="17">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
       <c r="BB73" s="9">
         <f>'2015'!D73</f>
         <v>6</v>
@@ -31587,11 +31617,11 @@
       </c>
       <c r="C105" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105" s="7">
         <f t="shared" si="4"/>
@@ -31600,6 +31630,9 @@
       <c r="G105" s="1">
         <v>1</v>
       </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
       <c r="BB105" s="9">
         <f>'2015'!D105</f>
         <v>3</v>
@@ -32084,7 +32117,7 @@
       </c>
       <c r="C121" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="7">
         <f t="shared" si="4"/>
@@ -32092,7 +32125,10 @@
       </c>
       <c r="E121" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AA121">
+        <v>1</v>
       </c>
       <c r="BB121" s="9">
         <f>'2015'!D121</f>
@@ -32145,7 +32181,7 @@
       </c>
       <c r="C123" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="7">
         <f t="shared" si="4"/>
@@ -32153,7 +32189,10 @@
       </c>
       <c r="E123" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="W123">
+        <v>1</v>
       </c>
       <c r="BB123" s="9">
         <f>'2015'!D123</f>
@@ -32253,7 +32292,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="4"/>
@@ -32261,9 +32300,12 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K126" s="1">
+        <v>1</v>
+      </c>
+      <c r="W126">
         <v>1</v>
       </c>
       <c r="BB126" s="9">
@@ -32439,20 +32481,23 @@
       </c>
       <c r="C132" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" ref="D132:E195" si="7">SUM(BB132-F132-J132-N132-R132-V132-Z132-AD132-AH132-AL132-AP132-AT132-AX132)</f>
         <v>3</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
       </c>
       <c r="K132" s="1">
+        <v>1</v>
+      </c>
+      <c r="W132">
         <v>1</v>
       </c>
       <c r="BB132" s="9">
@@ -32564,7 +32609,7 @@
       </c>
       <c r="C136" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="7"/>
@@ -32572,7 +32617,7 @@
       </c>
       <c r="E136" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
@@ -32581,6 +32626,9 @@
         <v>1</v>
       </c>
       <c r="O136" s="1">
+        <v>1</v>
+      </c>
+      <c r="W136">
         <v>1</v>
       </c>
       <c r="BB136" s="9">
@@ -32698,7 +32746,7 @@
       </c>
       <c r="C140" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D140" s="12">
         <f t="shared" si="7"/>
@@ -32706,7 +32754,7 @@
       </c>
       <c r="E140" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -32715,6 +32763,9 @@
         <v>3</v>
       </c>
       <c r="S140">
+        <v>1</v>
+      </c>
+      <c r="W140">
         <v>1</v>
       </c>
       <c r="BB140" s="9">
@@ -32736,7 +32787,7 @@
       </c>
       <c r="C141" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" s="7">
         <f t="shared" si="7"/>
@@ -32744,9 +32795,12 @@
       </c>
       <c r="E141" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N141" s="1">
+        <v>1</v>
+      </c>
+      <c r="W141">
         <v>1</v>
       </c>
       <c r="BB141" s="9">
@@ -32768,7 +32822,7 @@
       </c>
       <c r="C142" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" s="7">
         <f t="shared" si="7"/>
@@ -32776,7 +32830,10 @@
       </c>
       <c r="E142" s="12">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="W142">
+        <v>1</v>
       </c>
       <c r="BB142" s="9">
         <f>'2015'!D142</f>
@@ -33368,7 +33425,7 @@
       </c>
       <c r="C160" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" s="17">
         <f t="shared" si="7"/>
@@ -33376,10 +33433,10 @@
       </c>
       <c r="E160" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB160" s="9">
         <f>'2015'!D160</f>
@@ -33702,7 +33759,7 @@
       </c>
       <c r="C171" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="7">
         <f t="shared" si="7"/>
@@ -33710,9 +33767,12 @@
       </c>
       <c r="E171" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J171" s="1">
+        <v>1</v>
+      </c>
+      <c r="W171">
         <v>1</v>
       </c>
       <c r="BB171" s="9">
@@ -33920,7 +33980,7 @@
       </c>
       <c r="C178" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178" s="7">
         <f t="shared" si="7"/>
@@ -33928,10 +33988,13 @@
       </c>
       <c r="E178" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N178" s="1">
         <v>1</v>
+      </c>
+      <c r="W178">
+        <v>2</v>
       </c>
       <c r="BB178" s="9">
         <f>'2015'!D178</f>
@@ -33984,7 +34047,7 @@
       </c>
       <c r="C180" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="7">
         <f t="shared" si="7"/>
@@ -33992,9 +34055,12 @@
       </c>
       <c r="E180" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R180">
+        <v>1</v>
+      </c>
+      <c r="W180">
         <v>1</v>
       </c>
       <c r="BB180" s="9">
@@ -34048,11 +34114,11 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
@@ -34070,6 +34136,9 @@
       <c r="R182">
         <v>2</v>
       </c>
+      <c r="V182">
+        <v>1</v>
+      </c>
       <c r="BB182" s="9">
         <f>'2015'!D182</f>
         <v>11</v>
@@ -34516,7 +34585,7 @@
       </c>
       <c r="C197" s="8">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D197" s="7">
         <f t="shared" si="10"/>
@@ -34524,7 +34593,7 @@
       </c>
       <c r="E197" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" s="1">
         <v>1</v>
@@ -34536,6 +34605,9 @@
         <v>1</v>
       </c>
       <c r="S197">
+        <v>1</v>
+      </c>
+      <c r="W197">
         <v>1</v>
       </c>
       <c r="BB197" s="9">
@@ -34589,11 +34661,11 @@
       </c>
       <c r="C199" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D199" s="7">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E199" s="7">
         <f t="shared" si="10"/>
@@ -34603,6 +34675,9 @@
         <v>1</v>
       </c>
       <c r="K199" s="1">
+        <v>1</v>
+      </c>
+      <c r="V199">
         <v>1</v>
       </c>
       <c r="BB199" s="9">
@@ -34698,15 +34773,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1289</v>
+        <v>1268</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34750,11 +34825,11 @@
       <c r="U203" s="13"/>
       <c r="V203" s="13">
         <f>SUM(V3:V201)</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="W203" s="13">
         <f>SUM(W3:W201)</f>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
@@ -34764,7 +34839,7 @@
       </c>
       <c r="AA203" s="13">
         <f>SUM(AA3:AA201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB203" s="13"/>
       <c r="AC203" s="13"/>
@@ -34913,7 +34988,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2142</v>
+        <v>2110</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -34956,7 +35031,7 @@
       </c>
       <c r="W205" s="13">
         <f>SUM(V203:W203)</f>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>
@@ -34965,7 +35040,7 @@
       </c>
       <c r="AA205" s="13">
         <f>SUM(Z203:AA203)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB205" s="13"/>
       <c r="AC205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="X111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA121" sqref="AA121"/>
+      <selection pane="bottomRight" activeCell="Z76" sqref="Z76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28476,11 +28476,11 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
@@ -28489,6 +28489,9 @@
       <c r="S11">
         <v>3</v>
       </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
       <c r="BB11" s="9">
         <f>'2015'!D11</f>
         <v>5</v>
@@ -28770,7 +28773,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
@@ -28778,7 +28781,7 @@
       </c>
       <c r="E20" s="17">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -28793,6 +28796,9 @@
         <v>1</v>
       </c>
       <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
       <c r="BB20" s="9">
@@ -28910,11 +28916,11 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
@@ -28929,6 +28935,9 @@
       <c r="W24">
         <v>1</v>
       </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
       <c r="BB24" s="9">
         <f>'2015'!D24</f>
         <v>5</v>
@@ -29312,11 +29321,11 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
@@ -29337,6 +29346,9 @@
       <c r="W36">
         <v>2</v>
       </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
       <c r="BB36" s="9">
         <f>'2015'!D36</f>
         <v>6</v>
@@ -29420,7 +29432,7 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" si="1"/>
@@ -29428,10 +29440,13 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
       </c>
       <c r="BB39" s="9">
         <f>'2015'!D39</f>
@@ -29630,7 +29645,7 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="1"/>
@@ -29638,7 +29653,7 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -29647,6 +29662,9 @@
         <v>1</v>
       </c>
       <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA45">
         <v>1</v>
       </c>
       <c r="BB45" s="9">
@@ -29726,7 +29744,7 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="1"/>
@@ -29734,12 +29752,15 @@
       </c>
       <c r="E48" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="1">
         <v>1</v>
       </c>
       <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
         <v>1</v>
       </c>
       <c r="BB48" s="9">
@@ -29761,11 +29782,11 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
@@ -29786,6 +29807,9 @@
       <c r="W49">
         <v>2</v>
       </c>
+      <c r="Z49">
+        <v>2</v>
+      </c>
       <c r="BB49" s="9">
         <f>'2015'!D49</f>
         <v>7</v>
@@ -30243,11 +30267,11 @@
       <c r="B63" s="19"/>
       <c r="C63" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="27">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
@@ -30279,6 +30303,9 @@
       </c>
       <c r="X63" s="21"/>
       <c r="Y63" s="22"/>
+      <c r="Z63" s="23">
+        <v>1</v>
+      </c>
       <c r="AB63" s="21"/>
       <c r="AC63" s="22"/>
       <c r="AF63" s="21"/>
@@ -30317,11 +30344,11 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
@@ -30339,6 +30366,9 @@
       <c r="V64">
         <v>2</v>
       </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
       <c r="BB64" s="9">
         <f>'2015'!D64</f>
         <v>6</v>
@@ -30678,11 +30708,11 @@
       </c>
       <c r="C75" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="4"/>
@@ -30694,6 +30724,9 @@
       <c r="W75">
         <v>1</v>
       </c>
+      <c r="Z75">
+        <v>3</v>
+      </c>
       <c r="BB75" s="9">
         <f>'2015'!D75</f>
         <v>6</v>
@@ -30713,7 +30746,7 @@
       </c>
       <c r="C76" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" si="4"/>
@@ -30721,7 +30754,10 @@
       </c>
       <c r="E76" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>2</v>
       </c>
       <c r="BB76" s="9">
         <f>'2015'!D76</f>
@@ -31004,16 +31040,19 @@
       </c>
       <c r="C85" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
       <c r="BB85" s="9">
         <f>'2015'!D85</f>
         <v>7</v>
@@ -31710,7 +31749,7 @@
       </c>
       <c r="C108" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="7">
         <f t="shared" si="4"/>
@@ -31718,9 +31757,12 @@
       </c>
       <c r="E108" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O108" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA108">
         <v>1</v>
       </c>
       <c r="BB108" s="9">
@@ -31844,11 +31886,11 @@
       </c>
       <c r="C112" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E112" s="17">
         <f t="shared" si="4"/>
@@ -31857,6 +31899,9 @@
       <c r="W112">
         <v>1</v>
       </c>
+      <c r="Z112">
+        <v>1</v>
+      </c>
       <c r="BB112" s="9">
         <f>'2015'!D112</f>
         <v>7</v>
@@ -32030,7 +32075,7 @@
       </c>
       <c r="C118" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="12">
         <f t="shared" si="4"/>
@@ -32038,7 +32083,10 @@
       </c>
       <c r="E118" s="12">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AA118">
+        <v>1</v>
       </c>
       <c r="BB118" s="9">
         <f>'2015'!D118</f>
@@ -33037,16 +33085,19 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="Z149">
+        <v>2</v>
+      </c>
       <c r="BB149" s="9">
         <f>'2015'!D149</f>
         <v>7</v>
@@ -33066,7 +33117,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -33074,7 +33125,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -33098,6 +33149,9 @@
         <v>1</v>
       </c>
       <c r="W150">
+        <v>2</v>
+      </c>
+      <c r="AA150">
         <v>2</v>
       </c>
       <c r="BB150" s="9">
@@ -33154,11 +33208,11 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152" s="7">
         <f t="shared" si="7"/>
@@ -33173,6 +33227,9 @@
       <c r="S152">
         <v>2</v>
       </c>
+      <c r="Z152">
+        <v>1</v>
+      </c>
       <c r="BB152" s="9">
         <f>'2015'!D152</f>
         <v>10</v>
@@ -33192,11 +33249,11 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E153" s="7">
         <f t="shared" si="7"/>
@@ -33208,6 +33265,9 @@
       <c r="V153">
         <v>1</v>
       </c>
+      <c r="Z153">
+        <v>1</v>
+      </c>
       <c r="BB153" s="9">
         <f>'2015'!D153</f>
         <v>7</v>
@@ -33695,11 +33755,11 @@
       </c>
       <c r="C169" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E169" s="7">
         <f t="shared" si="7"/>
@@ -33711,6 +33771,9 @@
       <c r="O169" s="1">
         <v>1</v>
       </c>
+      <c r="Z169">
+        <v>1</v>
+      </c>
       <c r="BB169" s="9">
         <f>'2015'!D169</f>
         <v>5</v>
@@ -34114,15 +34177,15 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J182" s="1">
         <v>1</v>
@@ -34138,6 +34201,12 @@
       </c>
       <c r="V182">
         <v>1</v>
+      </c>
+      <c r="Z182">
+        <v>1</v>
+      </c>
+      <c r="AA182">
+        <v>3</v>
       </c>
       <c r="BB182" s="9">
         <f>'2015'!D182</f>
@@ -34773,15 +34842,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34835,11 +34904,11 @@
       <c r="Y203" s="13"/>
       <c r="Z203" s="13">
         <f>SUM(Z3:Z201)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA203" s="13">
         <f>SUM(AA3:AA201)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AB203" s="13"/>
       <c r="AC203" s="13"/>
@@ -34988,7 +35057,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2110</v>
+        <v>2079</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35040,7 +35109,7 @@
       </c>
       <c r="AA205" s="13">
         <f>SUM(Z203:AA203)</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AB205" s="13"/>
       <c r="AC205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27944,7 +27944,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z76" sqref="Z76"/>
+      <selection pane="bottomRight" activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28319,7 +28319,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
@@ -28327,7 +28327,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -28339,6 +28339,9 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6">
         <v>1</v>
       </c>
       <c r="BB6" s="9">
@@ -29219,11 +29222,11 @@
       </c>
       <c r="C33" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
@@ -29232,6 +29235,9 @@
       <c r="V33">
         <v>2</v>
       </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
       <c r="BB33" s="9">
         <f>'2015'!D33</f>
         <v>4</v>
@@ -29251,11 +29257,11 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
@@ -29270,6 +29276,9 @@
       <c r="W34">
         <v>1</v>
       </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
       <c r="BB34" s="9">
         <f>'2015'!D34</f>
         <v>7</v>
@@ -29321,7 +29330,7 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
@@ -29329,7 +29338,7 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -29347,6 +29356,9 @@
         <v>2</v>
       </c>
       <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
         <v>1</v>
       </c>
       <c r="BB36" s="9">
@@ -30267,11 +30279,11 @@
       <c r="B63" s="19"/>
       <c r="C63" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
@@ -30304,7 +30316,7 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="22"/>
       <c r="Z63" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB63" s="21"/>
       <c r="AC63" s="22"/>
@@ -30708,11 +30720,11 @@
       </c>
       <c r="C75" s="8">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="D75" s="7">
+        <v>7</v>
+      </c>
+      <c r="D75" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="4"/>
@@ -30725,7 +30737,7 @@
         <v>1</v>
       </c>
       <c r="Z75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB75" s="9">
         <f>'2015'!D75</f>
@@ -31886,11 +31898,11 @@
       </c>
       <c r="C112" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112" s="17">
         <f t="shared" si="4"/>
@@ -31900,7 +31912,7 @@
         <v>1</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB112" s="9">
         <f>'2015'!D112</f>
@@ -32165,16 +32177,19 @@
       </c>
       <c r="C121" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E121" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
       <c r="AA121">
         <v>1</v>
       </c>
@@ -32340,11 +32355,11 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
@@ -32356,6 +32371,9 @@
       <c r="W126">
         <v>1</v>
       </c>
+      <c r="Z126">
+        <v>1</v>
+      </c>
       <c r="BB126" s="9">
         <f>'2015'!D126</f>
         <v>6</v>
@@ -34043,7 +34061,7 @@
       </c>
       <c r="C178" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D178" s="7">
         <f t="shared" si="7"/>
@@ -34051,13 +34069,16 @@
       </c>
       <c r="E178" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N178" s="1">
         <v>1</v>
       </c>
       <c r="W178">
         <v>2</v>
+      </c>
+      <c r="AA178">
+        <v>1</v>
       </c>
       <c r="BB178" s="9">
         <f>'2015'!D178</f>
@@ -34842,15 +34863,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34904,11 +34925,11 @@
       <c r="Y203" s="13"/>
       <c r="Z203" s="13">
         <f>SUM(Z3:Z201)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AA203" s="13">
         <f>SUM(AA3:AA201)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AB203" s="13"/>
       <c r="AC203" s="13"/>
@@ -35057,7 +35078,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2079</v>
+        <v>2069</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35109,7 +35130,7 @@
       </c>
       <c r="AA205" s="13">
         <f>SUM(Z203:AA203)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB205" s="13"/>
       <c r="AC205" s="13"/>
@@ -51868,6 +51889,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51876,12 +51903,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AC81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA35" sqref="AA35"/>
+      <selection pane="bottomRight" activeCell="AD85" sqref="AD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28992,11 +28992,11 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
@@ -29005,6 +29005,9 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
       <c r="BB26" s="9">
         <f>'2015'!D26</f>
         <v>4</v>
@@ -29330,11 +29333,11 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
@@ -29356,7 +29359,7 @@
         <v>2</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA36">
         <v>1</v>
@@ -29380,11 +29383,11 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
@@ -29396,6 +29399,9 @@
       <c r="R37">
         <v>1</v>
       </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
       <c r="BB37" s="9">
         <f>'2015'!D37</f>
         <v>5</v>
@@ -29511,11 +29517,11 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
@@ -29536,6 +29542,9 @@
       <c r="W41">
         <v>1</v>
       </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
       <c r="BB41" s="9">
         <f>'2015'!D41</f>
         <v>7</v>
@@ -29622,7 +29631,7 @@
       </c>
       <c r="C44" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="1"/>
@@ -29630,12 +29639,15 @@
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
       </c>
       <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
         <v>1</v>
       </c>
       <c r="BB44" s="9">
@@ -29657,11 +29669,11 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
@@ -29679,6 +29691,9 @@
       <c r="AA45">
         <v>1</v>
       </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
       <c r="BB45" s="9">
         <f>'2015'!D45</f>
         <v>5</v>
@@ -29794,7 +29809,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="1"/>
@@ -29802,7 +29817,7 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -29821,6 +29836,9 @@
       </c>
       <c r="Z49">
         <v>2</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="BB49" s="9">
         <f>'2015'!D49</f>
@@ -30356,7 +30374,7 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" s="12">
         <f t="shared" si="1"/>
@@ -30364,7 +30382,7 @@
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -30379,6 +30397,9 @@
         <v>2</v>
       </c>
       <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
         <v>1</v>
       </c>
       <c r="BB64" s="9">
@@ -31052,11 +31073,11 @@
       </c>
       <c r="C85" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="4"/>
@@ -31065,6 +31086,9 @@
       <c r="Z85">
         <v>1</v>
       </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
       <c r="BB85" s="9">
         <f>'2015'!D85</f>
         <v>7</v>
@@ -31517,7 +31541,7 @@
       </c>
       <c r="C100" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="4"/>
@@ -31525,9 +31549,12 @@
       </c>
       <c r="E100" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
         <v>1</v>
       </c>
       <c r="BB100" s="9">
@@ -31898,11 +31925,11 @@
       </c>
       <c r="C112" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E112" s="17">
         <f t="shared" si="4"/>
@@ -31912,7 +31939,10 @@
         <v>1</v>
       </c>
       <c r="Z112">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD112">
+        <v>1</v>
       </c>
       <c r="BB112" s="9">
         <f>'2015'!D112</f>
@@ -33010,7 +33040,7 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
@@ -33018,13 +33048,16 @@
       </c>
       <c r="E146" s="7">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N146" s="1">
         <v>1</v>
       </c>
       <c r="S146">
         <v>2</v>
+      </c>
+      <c r="AA146">
+        <v>1</v>
       </c>
       <c r="BB146" s="9">
         <f>'2015'!D146</f>
@@ -33045,16 +33078,19 @@
       </c>
       <c r="C147" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E147" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AD147">
+        <v>1</v>
+      </c>
       <c r="BB147" s="9">
         <f>'2015'!D147</f>
         <v>5</v>
@@ -33103,7 +33139,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -33111,10 +33147,13 @@
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z149">
         <v>2</v>
+      </c>
+      <c r="AE149">
+        <v>1</v>
       </c>
       <c r="BB149" s="9">
         <f>'2015'!D149</f>
@@ -34198,7 +34237,7 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
@@ -34206,7 +34245,7 @@
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J182" s="1">
         <v>1</v>
@@ -34228,6 +34267,9 @@
       </c>
       <c r="AA182">
         <v>3</v>
+      </c>
+      <c r="AE182">
+        <v>1</v>
       </c>
       <c r="BB182" s="9">
         <f>'2015'!D182</f>
@@ -34370,7 +34412,7 @@
       </c>
       <c r="C187" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" s="7">
         <f t="shared" si="7"/>
@@ -34378,7 +34420,10 @@
       </c>
       <c r="E187" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AA187">
+        <v>1</v>
       </c>
       <c r="BB187" s="9">
         <f>'2015'!D187</f>
@@ -34399,7 +34444,7 @@
       </c>
       <c r="C188" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" s="17">
         <f t="shared" si="7"/>
@@ -34407,7 +34452,10 @@
       </c>
       <c r="E188" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="AA188">
+        <v>1</v>
       </c>
       <c r="BB188" s="9">
         <f>'2015'!D188</f>
@@ -34863,15 +34911,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34925,21 +34973,21 @@
       <c r="Y203" s="13"/>
       <c r="Z203" s="13">
         <f>SUM(Z3:Z201)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA203" s="13">
         <f>SUM(AA3:AA201)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB203" s="13"/>
       <c r="AC203" s="13"/>
       <c r="AD203" s="13">
         <f>SUM(AD3:AD201)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE203" s="13">
         <f>SUM(AE3:AE201)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF203" s="13"/>
       <c r="AG203" s="13"/>
@@ -35078,7 +35126,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2069</v>
+        <v>2051</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35130,7 +35178,7 @@
       </c>
       <c r="AA205" s="13">
         <f>SUM(Z203:AA203)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB205" s="13"/>
       <c r="AC205" s="13"/>
@@ -35139,7 +35187,7 @@
       </c>
       <c r="AE205" s="13">
         <f>SUM(AD203:AE203)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF205" s="13"/>
       <c r="AG205" s="13"/>
@@ -51889,12 +51937,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51903,6 +51945,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AC81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD85" sqref="AD85"/>
+      <selection pane="bottomRight" activeCell="AD139" sqref="AD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28319,7 +28319,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
@@ -28327,7 +28327,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -28342,6 +28342,9 @@
         <v>1</v>
       </c>
       <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
         <v>1</v>
       </c>
       <c r="BB6" s="9">
@@ -29260,7 +29263,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="1"/>
@@ -29268,7 +29271,7 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -29280,6 +29283,9 @@
         <v>1</v>
       </c>
       <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
         <v>1</v>
       </c>
       <c r="BB34" s="9">
@@ -29333,11 +29339,11 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
@@ -29362,6 +29368,9 @@
         <v>2</v>
       </c>
       <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
         <v>1</v>
       </c>
       <c r="BB36" s="9">
@@ -30297,7 +30306,7 @@
       <c r="B63" s="19"/>
       <c r="C63" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" s="27">
         <f t="shared" si="1"/>
@@ -30305,7 +30314,7 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="30">
         <v>1</v>
@@ -30338,6 +30347,9 @@
       </c>
       <c r="AB63" s="21"/>
       <c r="AC63" s="22"/>
+      <c r="AE63" s="23">
+        <v>1</v>
+      </c>
       <c r="AF63" s="21"/>
       <c r="AG63" s="22"/>
       <c r="AJ63" s="21"/>
@@ -30913,7 +30925,7 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="4"/>
@@ -30921,7 +30933,7 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -30931,6 +30943,9 @@
       </c>
       <c r="R80">
         <v>2</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
       </c>
       <c r="BB80" s="9">
         <f>'2015'!D80</f>
@@ -32775,11 +32790,11 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
@@ -32788,6 +32803,9 @@
       <c r="F138" s="1">
         <v>1</v>
       </c>
+      <c r="AD138">
+        <v>1</v>
+      </c>
       <c r="BB138" s="9">
         <f>'2015'!D138</f>
         <v>5</v>
@@ -33139,11 +33157,11 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
@@ -33152,6 +33170,9 @@
       <c r="Z149">
         <v>2</v>
       </c>
+      <c r="AD149">
+        <v>1</v>
+      </c>
       <c r="AE149">
         <v>1</v>
       </c>
@@ -34237,11 +34258,11 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
@@ -34267,6 +34288,9 @@
       </c>
       <c r="AA182">
         <v>3</v>
+      </c>
+      <c r="AD182">
+        <v>1</v>
       </c>
       <c r="AE182">
         <v>1</v>
@@ -34911,15 +34935,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -34983,11 +35007,11 @@
       <c r="AC203" s="13"/>
       <c r="AD203" s="13">
         <f>SUM(AD3:AD201)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE203" s="13">
         <f>SUM(AE3:AE201)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF203" s="13"/>
       <c r="AG203" s="13"/>
@@ -35126,7 +35150,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2051</v>
+        <v>2043</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35187,7 +35211,7 @@
       </c>
       <c r="AE205" s="13">
         <f>SUM(AD203:AE203)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AF205" s="13"/>
       <c r="AG205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27944,7 +27944,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD139" sqref="AD139"/>
+      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31620,11 +31620,11 @@
       </c>
       <c r="C102" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102" s="7">
         <f t="shared" si="4"/>
@@ -31633,6 +31633,9 @@
       <c r="J102" s="1">
         <v>1</v>
       </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
       <c r="BB102" s="9">
         <f>'2015'!D102</f>
         <v>11</v>
@@ -31940,15 +31943,15 @@
       </c>
       <c r="C112" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W112">
         <v>1</v>
@@ -31957,6 +31960,9 @@
         <v>3</v>
       </c>
       <c r="AD112">
+        <v>2</v>
+      </c>
+      <c r="AE112">
         <v>1</v>
       </c>
       <c r="BB112" s="9">
@@ -34823,11 +34829,11 @@
       </c>
       <c r="C199" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D199" s="7">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E199" s="7">
         <f t="shared" si="10"/>
@@ -34840,6 +34846,9 @@
         <v>1</v>
       </c>
       <c r="V199">
+        <v>1</v>
+      </c>
+      <c r="AD199">
         <v>1</v>
       </c>
       <c r="BB199" s="9">
@@ -34935,15 +34944,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35007,11 +35016,11 @@
       <c r="AC203" s="13"/>
       <c r="AD203" s="13">
         <f>SUM(AD3:AD201)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE203" s="13">
         <f>SUM(AE3:AE201)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF203" s="13"/>
       <c r="AG203" s="13"/>
@@ -35150,7 +35159,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35211,7 +35220,7 @@
       </c>
       <c r="AE205" s="13">
         <f>SUM(AD203:AE203)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AF205" s="13"/>
       <c r="AG205" s="13"/>
@@ -51961,6 +51970,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51969,12 +51984,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27944,7 +27944,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomRight" activeCell="AD139" sqref="AD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28779,7 +28779,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
@@ -28787,7 +28787,7 @@
       </c>
       <c r="E20" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -28805,6 +28805,9 @@
         <v>1</v>
       </c>
       <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
         <v>1</v>
       </c>
       <c r="BB20" s="9">
@@ -28855,7 +28858,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
@@ -28863,7 +28866,7 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
@@ -28872,6 +28875,9 @@
         <v>1</v>
       </c>
       <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
         <v>1</v>
       </c>
       <c r="BB22" s="9">
@@ -29117,11 +29123,11 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
@@ -29136,6 +29142,9 @@
       <c r="R30">
         <v>1</v>
       </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
       <c r="BB30" s="9">
         <f>'2015'!D30</f>
         <v>4</v>
@@ -29608,11 +29617,11 @@
       </c>
       <c r="C43" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
@@ -29620,6 +29629,9 @@
       </c>
       <c r="W43">
         <v>3</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
       </c>
       <c r="BB43" s="9">
         <f>'2015'!D43</f>
@@ -30925,7 +30937,7 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="4"/>
@@ -30933,7 +30945,7 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -30945,7 +30957,7 @@
         <v>2</v>
       </c>
       <c r="AE80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB80" s="9">
         <f>'2015'!D80</f>
@@ -32726,11 +32738,11 @@
       </c>
       <c r="C136" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E136" s="7">
         <f t="shared" si="7"/>
@@ -32748,6 +32760,9 @@
       <c r="W136">
         <v>1</v>
       </c>
+      <c r="AD136">
+        <v>1</v>
+      </c>
       <c r="BB136" s="9">
         <f>'2015'!D136</f>
         <v>7</v>
@@ -32796,11 +32811,11 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
@@ -32810,7 +32825,7 @@
         <v>1</v>
       </c>
       <c r="AD138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB138" s="9">
         <f>'2015'!D138</f>
@@ -33035,7 +33050,7 @@
       </c>
       <c r="C145" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="7"/>
@@ -33043,7 +33058,10 @@
       </c>
       <c r="E145" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AE145">
+        <v>1</v>
       </c>
       <c r="BB145" s="9">
         <f>'2015'!D145</f>
@@ -33102,18 +33120,18 @@
       </c>
       <c r="C147" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E147" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AD147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB147" s="9">
         <f>'2015'!D147</f>
@@ -33201,7 +33219,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -33209,7 +33227,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -33237,6 +33255,9 @@
       </c>
       <c r="AA150">
         <v>2</v>
+      </c>
+      <c r="AE150">
+        <v>1</v>
       </c>
       <c r="BB150" s="9">
         <f>'2015'!D150</f>
@@ -34829,11 +34850,11 @@
       </c>
       <c r="C199" s="8">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D199" s="7">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E199" s="7">
         <f t="shared" si="10"/>
@@ -34849,7 +34870,7 @@
         <v>1</v>
       </c>
       <c r="AD199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB199" s="9">
         <f>'2015'!D199</f>
@@ -34944,15 +34965,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35016,11 +35037,11 @@
       <c r="AC203" s="13"/>
       <c r="AD203" s="13">
         <f>SUM(AD3:AD201)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE203" s="13">
         <f>SUM(AE3:AE201)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF203" s="13"/>
       <c r="AG203" s="13"/>
@@ -35159,7 +35180,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2039</v>
+        <v>2028</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35220,7 +35241,7 @@
       </c>
       <c r="AE205" s="13">
         <f>SUM(AD203:AE203)</f>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AF205" s="13"/>
       <c r="AG205" s="13"/>
@@ -51970,12 +51991,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -51984,6 +51999,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD139" sqref="AD139"/>
+      <selection pane="bottomRight" activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28246,7 +28246,7 @@
       </c>
       <c r="C4" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:E67" si="1">SUM(BB4-F4-J4-N4-R4-V4-Z4-AD4-AH4-AL4-AP4-AT4-AX4)</f>
@@ -28254,7 +28254,10 @@
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
       <c r="BB4" s="9">
         <f>'2015'!D4</f>
@@ -29272,7 +29275,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="1"/>
@@ -29280,7 +29283,7 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -29295,6 +29298,9 @@
         <v>1</v>
       </c>
       <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
         <v>1</v>
       </c>
       <c r="BB34" s="9">
@@ -29535,15 +29541,15 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -29561,6 +29567,9 @@
         <v>1</v>
       </c>
       <c r="AD41">
+        <v>2</v>
+      </c>
+      <c r="AI41">
         <v>1</v>
       </c>
       <c r="BB41" s="9">
@@ -29652,15 +29661,15 @@
       </c>
       <c r="C44" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
@@ -29668,8 +29677,11 @@
       <c r="V44">
         <v>1</v>
       </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
       <c r="AE44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB44" s="9">
         <f>'2015'!D44</f>
@@ -29690,7 +29702,7 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="1"/>
@@ -29698,7 +29710,7 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -29713,6 +29725,9 @@
         <v>1</v>
       </c>
       <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
         <v>1</v>
       </c>
       <c r="BB45" s="9">
@@ -29830,7 +29845,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="1"/>
@@ -29838,7 +29853,7 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -29859,6 +29874,9 @@
         <v>2</v>
       </c>
       <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
         <v>1</v>
       </c>
       <c r="BB49" s="9">
@@ -29880,7 +29898,7 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="1"/>
@@ -29888,7 +29906,7 @@
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -29901,6 +29919,9 @@
       </c>
       <c r="W50">
         <v>2</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
       <c r="BB50" s="9">
         <f>'2015'!D50</f>
@@ -31632,11 +31653,11 @@
       </c>
       <c r="C102" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E102" s="7">
         <f t="shared" si="4"/>
@@ -31646,7 +31667,7 @@
         <v>1</v>
       </c>
       <c r="AD102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB102" s="9">
         <f>'2015'!D102</f>
@@ -32418,11 +32439,11 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
@@ -32437,6 +32458,9 @@
       <c r="Z126">
         <v>1</v>
       </c>
+      <c r="AD126">
+        <v>1</v>
+      </c>
       <c r="BB126" s="9">
         <f>'2015'!D126</f>
         <v>6</v>
@@ -32957,7 +32981,7 @@
       </c>
       <c r="C142" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" s="7">
         <f t="shared" si="7"/>
@@ -32965,9 +32989,12 @@
       </c>
       <c r="E142" s="12">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W142">
+        <v>1</v>
+      </c>
+      <c r="AI142">
         <v>1</v>
       </c>
       <c r="BB142" s="9">
@@ -33219,7 +33246,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -33227,7 +33254,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -33257,6 +33284,9 @@
         <v>2</v>
       </c>
       <c r="AE150">
+        <v>1</v>
+      </c>
+      <c r="AI150">
         <v>1</v>
       </c>
       <c r="BB150" s="9">
@@ -33278,11 +33308,11 @@
       </c>
       <c r="C151" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151" s="7">
         <f t="shared" si="7"/>
@@ -33294,6 +33324,9 @@
       <c r="V151">
         <v>2</v>
       </c>
+      <c r="AD151">
+        <v>1</v>
+      </c>
       <c r="BB151" s="9">
         <f>'2015'!D151</f>
         <v>6</v>
@@ -33962,7 +33995,7 @@
       </c>
       <c r="C172" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="17">
         <f t="shared" si="7"/>
@@ -33970,9 +34003,12 @@
       </c>
       <c r="E172" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="AI172">
         <v>1</v>
       </c>
       <c r="BB172" s="9">
@@ -34026,7 +34062,7 @@
       </c>
       <c r="C174" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" s="7">
         <f t="shared" si="7"/>
@@ -34034,9 +34070,12 @@
       </c>
       <c r="E174" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J174" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI174">
         <v>1</v>
       </c>
       <c r="BB174" s="9">
@@ -34285,11 +34324,11 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
@@ -34317,7 +34356,7 @@
         <v>3</v>
       </c>
       <c r="AD182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE182">
         <v>1</v>
@@ -34891,7 +34930,7 @@
       </c>
       <c r="C200" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" s="7">
         <f t="shared" si="10"/>
@@ -34899,7 +34938,10 @@
       </c>
       <c r="E200" s="7">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AE200">
+        <v>1</v>
       </c>
       <c r="BB200" s="9">
         <f>'2015'!D200</f>
@@ -34965,15 +35007,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35037,11 +35079,11 @@
       <c r="AC203" s="13"/>
       <c r="AD203" s="13">
         <f>SUM(AD3:AD201)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE203" s="13">
         <f>SUM(AE3:AE201)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF203" s="13"/>
       <c r="AG203" s="13"/>
@@ -35051,7 +35093,7 @@
       </c>
       <c r="AI203" s="13">
         <f>SUM(AI3:AI201)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ203" s="13"/>
       <c r="AK203" s="13"/>
@@ -35180,7 +35222,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2028</v>
+        <v>2008</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35241,7 +35283,7 @@
       </c>
       <c r="AE205" s="13">
         <f>SUM(AD203:AE203)</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AF205" s="13"/>
       <c r="AG205" s="13"/>
@@ -35250,7 +35292,7 @@
       </c>
       <c r="AI205" s="13">
         <f>SUM(AH203:AI203)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ205" s="13"/>
       <c r="AK205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI4" sqref="AI4"/>
+      <selection pane="bottomRight" activeCell="AM51" sqref="AM51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29097,7 +29097,7 @@
       </c>
       <c r="C29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="1"/>
@@ -29105,7 +29105,10 @@
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
       <c r="BB29" s="9">
         <f>'2015'!D29</f>
@@ -29354,7 +29357,7 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
@@ -29362,7 +29365,7 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -29386,6 +29389,9 @@
         <v>1</v>
       </c>
       <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
         <v>1</v>
       </c>
       <c r="BB36" s="9">
@@ -29541,7 +29547,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -29549,7 +29555,7 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -29570,7 +29576,7 @@
         <v>2</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB41" s="9">
         <f>'2015'!D41</f>
@@ -29702,7 +29708,7 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="1"/>
@@ -29710,7 +29716,7 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -29728,6 +29734,9 @@
         <v>1</v>
       </c>
       <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>1</v>
       </c>
       <c r="BB45" s="9">
@@ -29942,7 +29951,7 @@
       </c>
       <c r="C51" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="17">
         <f t="shared" si="1"/>
@@ -29950,12 +29959,15 @@
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N51" s="1">
         <v>1</v>
       </c>
       <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>1</v>
       </c>
       <c r="BB51" s="9">
@@ -30466,7 +30478,7 @@
       </c>
       <c r="C65" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="1"/>
@@ -30474,12 +30486,15 @@
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
       </c>
       <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
         <v>1</v>
       </c>
       <c r="BB65" s="9">
@@ -31464,7 +31479,7 @@
       </c>
       <c r="C96" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" si="4"/>
@@ -31472,9 +31487,12 @@
       </c>
       <c r="E96" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI96">
         <v>1</v>
       </c>
       <c r="BB96" s="9">
@@ -32203,7 +32221,7 @@
       </c>
       <c r="C119" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" s="7">
         <f t="shared" si="4"/>
@@ -32211,7 +32229,10 @@
       </c>
       <c r="E119" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AM119">
+        <v>1</v>
       </c>
       <c r="BB119" s="9">
         <f>'2015'!D119</f>
@@ -32360,7 +32381,7 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
@@ -32368,7 +32389,7 @@
       </c>
       <c r="E124" s="7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -32390,6 +32411,9 @@
       </c>
       <c r="W124">
         <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>1</v>
       </c>
       <c r="BB124" s="9">
         <f>'2015'!D124</f>
@@ -32439,7 +32463,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="4"/>
@@ -32447,7 +32471,7 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K126" s="1">
         <v>1</v>
@@ -32459,6 +32483,9 @@
         <v>1</v>
       </c>
       <c r="AD126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>1</v>
       </c>
       <c r="BB126" s="9">
@@ -33346,7 +33373,7 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
@@ -33354,7 +33381,7 @@
       </c>
       <c r="E152" s="7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
@@ -33366,6 +33393,9 @@
         <v>2</v>
       </c>
       <c r="Z152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>1</v>
       </c>
       <c r="BB152" s="9">
@@ -33387,7 +33417,7 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
@@ -33395,7 +33425,7 @@
       </c>
       <c r="E153" s="7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N153" s="1">
         <v>1</v>
@@ -33404,6 +33434,9 @@
         <v>1</v>
       </c>
       <c r="Z153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>1</v>
       </c>
       <c r="BB153" s="9">
@@ -35007,7 +35040,7 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
@@ -35015,7 +35048,7 @@
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35093,7 +35126,7 @@
       </c>
       <c r="AI203" s="13">
         <f>SUM(AI3:AI201)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AJ203" s="13"/>
       <c r="AK203" s="13"/>
@@ -35103,7 +35136,7 @@
       </c>
       <c r="AM203" s="13">
         <f>SUM(AM3:AM201)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN203" s="13"/>
       <c r="AO203" s="13"/>
@@ -35222,7 +35255,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35292,7 +35325,7 @@
       </c>
       <c r="AI205" s="13">
         <f>SUM(AH203:AI203)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AJ205" s="13"/>
       <c r="AK205" s="13"/>
@@ -35301,7 +35334,7 @@
       </c>
       <c r="AM205" s="13">
         <f>SUM(AL203:AM203)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN205" s="13"/>
       <c r="AO205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM51" sqref="AM51"/>
+      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28246,7 +28246,7 @@
       </c>
       <c r="C4" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:E67" si="1">SUM(BB4-F4-J4-N4-R4-V4-Z4-AD4-AH4-AL4-AP4-AT4-AX4)</f>
@@ -28254,9 +28254,12 @@
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>1</v>
       </c>
       <c r="BB4" s="9">
@@ -28322,7 +28325,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
@@ -28330,7 +28333,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -28348,6 +28351,9 @@
         <v>1</v>
       </c>
       <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>1</v>
       </c>
       <c r="BB6" s="9">
@@ -29278,11 +29284,11 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
@@ -29306,6 +29312,9 @@
       <c r="AI34">
         <v>1</v>
       </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
       <c r="BB34" s="9">
         <f>'2015'!D34</f>
         <v>7</v>
@@ -29547,15 +29556,15 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -29577,6 +29586,12 @@
       </c>
       <c r="AI41">
         <v>2</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
       </c>
       <c r="BB41" s="9">
         <f>'2015'!D41</f>
@@ -29708,11 +29723,11 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
@@ -29734,6 +29749,9 @@
         <v>1</v>
       </c>
       <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
@@ -30094,7 +30112,7 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
@@ -30102,12 +30120,15 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V55">
         <v>1</v>
       </c>
       <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>1</v>
       </c>
       <c r="BB55" s="9">
@@ -30580,7 +30601,7 @@
       </c>
       <c r="C68" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ref="D68:E131" si="4">SUM(BB68-F68-J68-N68-R68-V68-Z68-AD68-AH68-AL68-AP68-AT68-AX68)</f>
@@ -30588,7 +30609,10 @@
       </c>
       <c r="E68" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
       </c>
       <c r="BB68" s="9">
         <f>'2015'!D68</f>
@@ -31043,7 +31067,7 @@
       </c>
       <c r="C82" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" si="4"/>
@@ -31051,7 +31075,10 @@
       </c>
       <c r="E82" s="12">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AM82">
+        <v>1</v>
       </c>
       <c r="BB82" s="9">
         <f>'2015'!D82</f>
@@ -31171,16 +31198,19 @@
       </c>
       <c r="C86" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
       <c r="BB86" s="9">
         <f>'2015'!D86</f>
         <v>6</v>
@@ -31607,7 +31637,7 @@
       </c>
       <c r="C100" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="4"/>
@@ -31615,12 +31645,15 @@
       </c>
       <c r="E100" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S100">
         <v>1</v>
       </c>
       <c r="AE100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>1</v>
       </c>
       <c r="BB100" s="9">
@@ -32897,7 +32930,7 @@
       </c>
       <c r="C139" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" s="17">
         <f t="shared" si="7"/>
@@ -32905,13 +32938,16 @@
       </c>
       <c r="E139" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J139" s="1">
         <v>2</v>
       </c>
       <c r="O139" s="1">
         <v>2</v>
+      </c>
+      <c r="AM139">
+        <v>1</v>
       </c>
       <c r="BB139" s="9">
         <f>'2015'!D139</f>
@@ -33104,7 +33140,7 @@
       </c>
       <c r="C145" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="7"/>
@@ -33112,9 +33148,12 @@
       </c>
       <c r="E145" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>1</v>
       </c>
       <c r="BB145" s="9">
@@ -33273,7 +33312,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -33281,7 +33320,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -33314,6 +33353,9 @@
         <v>1</v>
       </c>
       <c r="AI150">
+        <v>1</v>
+      </c>
+      <c r="AQ150">
         <v>1</v>
       </c>
       <c r="BB150" s="9">
@@ -34290,7 +34332,7 @@
       </c>
       <c r="C180" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180" s="7">
         <f t="shared" si="7"/>
@@ -34298,12 +34340,15 @@
       </c>
       <c r="E180" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R180">
         <v>1</v>
       </c>
       <c r="W180">
+        <v>1</v>
+      </c>
+      <c r="AM180">
         <v>1</v>
       </c>
       <c r="BB180" s="9">
@@ -34357,7 +34402,7 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
@@ -34365,7 +34410,7 @@
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J182" s="1">
         <v>1</v>
@@ -34392,6 +34437,12 @@
         <v>2</v>
       </c>
       <c r="AE182">
+        <v>1</v>
+      </c>
+      <c r="AM182">
+        <v>1</v>
+      </c>
+      <c r="AQ182">
         <v>1</v>
       </c>
       <c r="BB182" s="9">
@@ -34442,7 +34493,7 @@
       </c>
       <c r="C184" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184" s="12">
         <f t="shared" si="7"/>
@@ -34450,12 +34501,15 @@
       </c>
       <c r="E184" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F184" s="1">
         <v>1</v>
       </c>
       <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="AM184">
         <v>1</v>
       </c>
       <c r="BB184" s="9">
@@ -34922,11 +34976,11 @@
       </c>
       <c r="C199" s="8">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="D199" s="7">
+        <v>6</v>
+      </c>
+      <c r="D199" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" s="7">
         <f t="shared" si="10"/>
@@ -34943,6 +34997,9 @@
       </c>
       <c r="AD199">
         <v>2</v>
+      </c>
+      <c r="AL199">
+        <v>1</v>
       </c>
       <c r="BB199" s="9">
         <f>'2015'!D199</f>
@@ -35040,15 +35097,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35132,21 +35189,21 @@
       <c r="AK203" s="13"/>
       <c r="AL203" s="13">
         <f>SUM(AL3:AL201)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM203" s="13">
         <f>SUM(AM3:AM201)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AN203" s="13"/>
       <c r="AO203" s="13"/>
       <c r="AP203" s="13">
         <f>SUM(AP3:AP201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ203" s="13">
         <f>SUM(AQ3:AQ201)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR203" s="13"/>
       <c r="AS203" s="13"/>
@@ -35255,7 +35312,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1996</v>
+        <v>1977</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35334,7 +35391,7 @@
       </c>
       <c r="AM205" s="13">
         <f>SUM(AL203:AM203)</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AN205" s="13"/>
       <c r="AO205" s="13"/>
@@ -35343,7 +35400,7 @@
       </c>
       <c r="AQ205" s="13">
         <f>SUM(AP203:AQ203)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR205" s="13"/>
       <c r="AS205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
+      <selection pane="bottomRight" activeCell="AQ169" sqref="AQ169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28211,7 +28211,7 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C66" si="0">SUM(BD3-D3-E3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(BB3-F3-J3-N3-R3-V3-Z3-AD3-AH3-AL3-AP3-AT3-AX3)</f>
@@ -28219,12 +28219,15 @@
       </c>
       <c r="E3" s="17">
         <f>SUM(BC3-G3-K3-O3-S3-W3-AA3-AE3-AI3-AM3-AQ3-AU3-AY3)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
         <v>1</v>
       </c>
       <c r="BB3" s="9">
@@ -29045,7 +29048,7 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="1"/>
@@ -29053,7 +29056,10 @@
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
       </c>
       <c r="BB27" s="9">
         <f>'2015'!D27</f>
@@ -29284,15 +29290,15 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -29313,6 +29319,9 @@
         <v>1</v>
       </c>
       <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
         <v>1</v>
       </c>
       <c r="BB34" s="9">
@@ -29524,11 +29533,11 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="17">
         <f t="shared" si="1"/>
@@ -29537,6 +29546,9 @@
       <c r="W40">
         <v>1</v>
       </c>
+      <c r="AP40">
+        <v>2</v>
+      </c>
       <c r="BB40" s="9">
         <f>'2015'!D40</f>
         <v>5</v>
@@ -30007,7 +30019,7 @@
       </c>
       <c r="C52" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="17">
         <f t="shared" si="1"/>
@@ -30015,9 +30027,12 @@
       </c>
       <c r="E52" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
         <v>1</v>
       </c>
       <c r="BB52" s="9">
@@ -30112,11 +30127,11 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
@@ -30129,6 +30144,9 @@
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
         <v>1</v>
       </c>
       <c r="BB55" s="9">
@@ -30452,7 +30470,7 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="12">
         <f t="shared" si="1"/>
@@ -30460,7 +30478,7 @@
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -30478,6 +30496,9 @@
         <v>1</v>
       </c>
       <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
         <v>1</v>
       </c>
       <c r="BB64" s="9">
@@ -30499,11 +30520,11 @@
       </c>
       <c r="C65" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
@@ -30518,6 +30539,9 @@
       <c r="AI65">
         <v>1</v>
       </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
       <c r="BB65" s="9">
         <f>'2015'!D65</f>
         <v>10</v>
@@ -30601,7 +30625,7 @@
       </c>
       <c r="C68" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ref="D68:E131" si="4">SUM(BB68-F68-J68-N68-R68-V68-Z68-AD68-AH68-AL68-AP68-AT68-AX68)</f>
@@ -30609,9 +30633,12 @@
       </c>
       <c r="E68" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
         <v>1</v>
       </c>
       <c r="BB68" s="9">
@@ -30936,16 +30963,19 @@
       </c>
       <c r="C78" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="AP78">
+        <v>2</v>
+      </c>
       <c r="BB78" s="9">
         <f>'2015'!D78</f>
         <v>4</v>
@@ -31198,11 +31228,11 @@
       </c>
       <c r="C86" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="4"/>
@@ -31211,6 +31241,9 @@
       <c r="AL86">
         <v>1</v>
       </c>
+      <c r="AP86">
+        <v>2</v>
+      </c>
       <c r="BB86" s="9">
         <f>'2015'!D86</f>
         <v>6</v>
@@ -31349,11 +31382,11 @@
       </c>
       <c r="C91" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="4"/>
@@ -31368,6 +31401,9 @@
       <c r="V91">
         <v>1</v>
       </c>
+      <c r="AP91">
+        <v>1</v>
+      </c>
       <c r="BB91" s="9">
         <f>'2015'!D91</f>
         <v>4</v>
@@ -31445,7 +31481,7 @@
       </c>
       <c r="C94" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="4"/>
@@ -31453,9 +31489,12 @@
       </c>
       <c r="E94" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
         <v>1</v>
       </c>
       <c r="BB94" s="9">
@@ -31832,16 +31871,19 @@
       </c>
       <c r="C106" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E106" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
       <c r="BB106" s="9">
         <f>'2015'!D106</f>
         <v>6</v>
@@ -32496,15 +32538,15 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K126" s="1">
         <v>1</v>
@@ -32519,6 +32561,12 @@
         <v>1</v>
       </c>
       <c r="AM126">
+        <v>1</v>
+      </c>
+      <c r="AP126">
+        <v>1</v>
+      </c>
+      <c r="AQ126">
         <v>1</v>
       </c>
       <c r="BB126" s="9">
@@ -32866,16 +32914,19 @@
       </c>
       <c r="C137" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E137" s="17">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
+      <c r="AP137">
+        <v>1</v>
+      </c>
       <c r="BB137" s="9">
         <f>'2015'!D137</f>
         <v>7</v>
@@ -32895,11 +32946,11 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D138" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
@@ -32911,6 +32962,9 @@
       <c r="AD138">
         <v>2</v>
       </c>
+      <c r="AP138">
+        <v>1</v>
+      </c>
       <c r="BB138" s="9">
         <f>'2015'!D138</f>
         <v>5</v>
@@ -33312,7 +33366,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -33320,7 +33374,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -33356,7 +33410,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB150" s="9">
         <f>'2015'!D150</f>
@@ -33968,7 +34022,7 @@
       </c>
       <c r="C169" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="7"/>
@@ -33976,7 +34030,7 @@
       </c>
       <c r="E169" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" s="1">
         <v>1</v>
@@ -33985,6 +34039,9 @@
         <v>1</v>
       </c>
       <c r="Z169">
+        <v>1</v>
+      </c>
+      <c r="AQ169">
         <v>1</v>
       </c>
       <c r="BB169" s="9">
@@ -34402,11 +34459,11 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
@@ -34440,6 +34497,9 @@
         <v>1</v>
       </c>
       <c r="AM182">
+        <v>1</v>
+      </c>
+      <c r="AP182">
         <v>1</v>
       </c>
       <c r="AQ182">
@@ -34493,7 +34553,7 @@
       </c>
       <c r="C184" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D184" s="12">
         <f t="shared" si="7"/>
@@ -34501,7 +34561,7 @@
       </c>
       <c r="E184" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="1">
         <v>1</v>
@@ -34510,6 +34570,9 @@
         <v>1</v>
       </c>
       <c r="AM184">
+        <v>1</v>
+      </c>
+      <c r="AQ184">
         <v>1</v>
       </c>
       <c r="BB184" s="9">
@@ -34589,7 +34652,7 @@
       </c>
       <c r="C187" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" s="7">
         <f t="shared" si="7"/>
@@ -34597,9 +34660,12 @@
       </c>
       <c r="E187" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA187">
+        <v>1</v>
+      </c>
+      <c r="AQ187">
         <v>1</v>
       </c>
       <c r="BB187" s="9">
@@ -34653,7 +34719,7 @@
       </c>
       <c r="C189" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" s="17">
         <f t="shared" si="7"/>
@@ -34661,9 +34727,12 @@
       </c>
       <c r="E189" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G189" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ189">
         <v>1</v>
       </c>
       <c r="BB189" s="9">
@@ -34976,7 +35045,7 @@
       </c>
       <c r="C199" s="8">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D199" s="12">
         <f t="shared" si="10"/>
@@ -34984,7 +35053,7 @@
       </c>
       <c r="E199" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F199" s="1">
         <v>1</v>
@@ -34999,6 +35068,9 @@
         <v>2</v>
       </c>
       <c r="AL199">
+        <v>1</v>
+      </c>
+      <c r="AQ199">
         <v>1</v>
       </c>
       <c r="BB199" s="9">
@@ -35097,15 +35169,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35199,11 +35271,11 @@
       <c r="AO203" s="13"/>
       <c r="AP203" s="13">
         <f>SUM(AP3:AP201)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AQ203" s="13">
         <f>SUM(AQ3:AQ201)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AR203" s="13"/>
       <c r="AS203" s="13"/>
@@ -35312,7 +35384,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1977</v>
+        <v>1947</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35400,7 +35472,7 @@
       </c>
       <c r="AQ205" s="13">
         <f>SUM(AP203:AQ203)</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AR205" s="13"/>
       <c r="AS205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ169" sqref="AQ169"/>
+      <selection pane="bottomRight" activeCell="AT134" sqref="AT134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28328,7 +28328,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
@@ -28336,7 +28336,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -28357,6 +28357,9 @@
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
         <v>1</v>
       </c>
       <c r="BB6" s="9">
@@ -28465,7 +28468,7 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
@@ -28473,7 +28476,10 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
       </c>
       <c r="BB10" s="9">
         <f>'2015'!D10</f>
@@ -28911,16 +28917,19 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
       <c r="BB23" s="9">
         <f>'2015'!D23</f>
         <v>4</v>
@@ -29290,11 +29299,11 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D34" s="7">
+        <v>11</v>
+      </c>
+      <c r="D34" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
@@ -29322,6 +29331,9 @@
         <v>3</v>
       </c>
       <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AT34">
         <v>1</v>
       </c>
       <c r="BB34" s="9">
@@ -30127,11 +30139,11 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
@@ -30147,7 +30159,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB55" s="9">
         <f>'2015'!D55</f>
@@ -30625,11 +30637,11 @@
       </c>
       <c r="C68" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ref="D68:E131" si="4">SUM(BB68-F68-J68-N68-R68-V68-Z68-AD68-AH68-AL68-AP68-AT68-AX68)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" si="4"/>
@@ -30641,6 +30653,9 @@
       <c r="AQ68">
         <v>1</v>
       </c>
+      <c r="AT68">
+        <v>1</v>
+      </c>
       <c r="BB68" s="9">
         <f>'2015'!D68</f>
         <v>4</v>
@@ -31382,11 +31397,11 @@
       </c>
       <c r="C91" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="4"/>
@@ -31404,6 +31419,9 @@
       <c r="AP91">
         <v>1</v>
       </c>
+      <c r="AT91">
+        <v>1</v>
+      </c>
       <c r="BB91" s="9">
         <f>'2015'!D91</f>
         <v>4</v>
@@ -31452,7 +31470,7 @@
       </c>
       <c r="C93" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" si="4"/>
@@ -31460,7 +31478,10 @@
       </c>
       <c r="E93" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AU93">
+        <v>1</v>
       </c>
       <c r="BB93" s="9">
         <f>'2015'!D93</f>
@@ -32538,11 +32559,11 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
@@ -32569,6 +32590,9 @@
       <c r="AQ126">
         <v>1</v>
       </c>
+      <c r="AT126">
+        <v>1</v>
+      </c>
       <c r="BB126" s="9">
         <f>'2015'!D126</f>
         <v>6</v>
@@ -32841,16 +32865,19 @@
       </c>
       <c r="C135" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" s="7">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
+      <c r="AT135">
+        <v>1</v>
+      </c>
       <c r="BB135" s="9">
         <f>'2015'!D135</f>
         <v>7</v>
@@ -32946,11 +32973,11 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D138" s="7">
+        <v>5</v>
+      </c>
+      <c r="D138" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
@@ -32965,6 +32992,9 @@
       <c r="AP138">
         <v>1</v>
       </c>
+      <c r="AT138">
+        <v>1</v>
+      </c>
       <c r="BB138" s="9">
         <f>'2015'!D138</f>
         <v>5</v>
@@ -33366,7 +33396,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -33374,7 +33404,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -33411,6 +33441,9 @@
       </c>
       <c r="AQ150">
         <v>2</v>
+      </c>
+      <c r="AU150">
+        <v>1</v>
       </c>
       <c r="BB150" s="9">
         <f>'2015'!D150</f>
@@ -33647,7 +33680,7 @@
       </c>
       <c r="C157" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="7"/>
@@ -33655,7 +33688,7 @@
       </c>
       <c r="E157" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J157" s="1">
         <v>1</v>
@@ -33667,6 +33700,9 @@
         <v>1</v>
       </c>
       <c r="W157">
+        <v>1</v>
+      </c>
+      <c r="AU157">
         <v>1</v>
       </c>
       <c r="BB157" s="9">
@@ -34389,7 +34425,7 @@
       </c>
       <c r="C180" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" s="7">
         <f t="shared" si="7"/>
@@ -34397,7 +34433,7 @@
       </c>
       <c r="E180" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R180">
         <v>1</v>
@@ -34406,6 +34442,9 @@
         <v>1</v>
       </c>
       <c r="AM180">
+        <v>1</v>
+      </c>
+      <c r="AU180">
         <v>1</v>
       </c>
       <c r="BB180" s="9">
@@ -34459,11 +34498,11 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="D182" s="7">
+        <v>18</v>
+      </c>
+      <c r="D182" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
@@ -34500,7 +34539,7 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ182">
         <v>1</v>
@@ -34652,7 +34691,7 @@
       </c>
       <c r="C187" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D187" s="7">
         <f t="shared" si="7"/>
@@ -34660,12 +34699,15 @@
       </c>
       <c r="E187" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA187">
         <v>1</v>
       </c>
       <c r="AQ187">
+        <v>1</v>
+      </c>
+      <c r="AU187">
         <v>1</v>
       </c>
       <c r="BB187" s="9">
@@ -35169,15 +35211,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35271,7 +35313,7 @@
       <c r="AO203" s="13"/>
       <c r="AP203" s="13">
         <f>SUM(AP3:AP201)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ203" s="13">
         <f>SUM(AQ3:AQ201)</f>
@@ -35281,11 +35323,11 @@
       <c r="AS203" s="13"/>
       <c r="AT203" s="13">
         <f>SUM(AT3:AT201)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU203" s="13">
         <f>SUM(AU3:AU201)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV203" s="13"/>
       <c r="AW203" s="13"/>
@@ -35384,7 +35426,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1947</v>
+        <v>1930</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35472,7 +35514,7 @@
       </c>
       <c r="AQ205" s="13">
         <f>SUM(AP203:AQ203)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AR205" s="13"/>
       <c r="AS205" s="13"/>
@@ -35481,7 +35523,7 @@
       </c>
       <c r="AU205" s="13">
         <f>SUM(AT203:AU203)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AV205" s="13"/>
       <c r="AW205" s="13"/>
@@ -52195,6 +52237,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52203,12 +52251,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27941,10 +27941,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT134" sqref="AT134"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28328,7 +28328,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
@@ -28336,7 +28336,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -28360,6 +28360,9 @@
         <v>1</v>
       </c>
       <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
         <v>1</v>
       </c>
       <c r="BB6" s="9">
@@ -28468,7 +28471,7 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
@@ -28476,10 +28479,10 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB10" s="9">
         <f>'2015'!D10</f>
@@ -28654,15 +28657,15 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -28674,6 +28677,12 @@
         <v>1</v>
       </c>
       <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
         <v>1</v>
       </c>
       <c r="BB16" s="9">
@@ -29299,11 +29308,11 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
@@ -29334,7 +29343,7 @@
         <v>1</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB34" s="9">
         <f>'2015'!D34</f>
@@ -29481,7 +29490,7 @@
       </c>
       <c r="C38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
         <f t="shared" si="1"/>
@@ -29489,7 +29498,10 @@
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="AU38">
+        <v>2</v>
       </c>
       <c r="BB38" s="9">
         <f>'2015'!D38</f>
@@ -29580,7 +29592,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -29588,7 +29600,7 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -29615,6 +29627,9 @@
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AU41">
         <v>1</v>
       </c>
       <c r="BB41" s="9">
@@ -29896,11 +29911,11 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D49" s="7">
+        <v>14</v>
+      </c>
+      <c r="D49" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
@@ -29928,6 +29943,9 @@
         <v>1</v>
       </c>
       <c r="AI49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
         <v>1</v>
       </c>
       <c r="BB49" s="9">
@@ -30482,7 +30500,7 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" s="12">
         <f t="shared" si="1"/>
@@ -30490,7 +30508,7 @@
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -30511,6 +30529,9 @@
         <v>1</v>
       </c>
       <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AU64">
         <v>1</v>
       </c>
       <c r="BB64" s="9">
@@ -30637,7 +30658,7 @@
       </c>
       <c r="C68" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ref="D68:E131" si="4">SUM(BB68-F68-J68-N68-R68-V68-Z68-AD68-AH68-AL68-AP68-AT68-AX68)</f>
@@ -30645,7 +30666,7 @@
       </c>
       <c r="E68" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM68">
         <v>1</v>
@@ -30654,6 +30675,9 @@
         <v>1</v>
       </c>
       <c r="AT68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
         <v>1</v>
       </c>
       <c r="BB68" s="9">
@@ -30707,11 +30731,11 @@
       </c>
       <c r="C70" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="4"/>
@@ -30720,6 +30744,12 @@
       <c r="G70" s="1">
         <v>1</v>
       </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
+      <c r="AX70">
+        <v>1</v>
+      </c>
       <c r="BB70" s="9">
         <f>'2015'!D70</f>
         <v>5</v>
@@ -31010,7 +31040,7 @@
       </c>
       <c r="C79" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="4"/>
@@ -31018,9 +31048,12 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="AU79">
         <v>1</v>
       </c>
       <c r="BB79" s="9">
@@ -31857,11 +31890,11 @@
       </c>
       <c r="C105" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D105" s="7">
+        <v>3</v>
+      </c>
+      <c r="D105" s="12">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="7">
         <f t="shared" si="4"/>
@@ -31873,6 +31906,9 @@
       <c r="V105">
         <v>1</v>
       </c>
+      <c r="AX105">
+        <v>1</v>
+      </c>
       <c r="BB105" s="9">
         <f>'2015'!D105</f>
         <v>3</v>
@@ -32530,7 +32566,7 @@
       </c>
       <c r="C125" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="7">
         <f t="shared" si="4"/>
@@ -32538,7 +32574,10 @@
       </c>
       <c r="E125" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>1</v>
       </c>
       <c r="BB125" s="9">
         <f>'2015'!D125</f>
@@ -32559,15 +32598,15 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="D126" s="7">
+        <v>11</v>
+      </c>
+      <c r="D126" s="12">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K126" s="1">
         <v>1</v>
@@ -32591,6 +32630,12 @@
         <v>1</v>
       </c>
       <c r="AT126">
+        <v>2</v>
+      </c>
+      <c r="AX126">
+        <v>1</v>
+      </c>
+      <c r="AY126">
         <v>1</v>
       </c>
       <c r="BB126" s="9">
@@ -32836,7 +32881,7 @@
       </c>
       <c r="C134" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" s="7">
         <f t="shared" si="7"/>
@@ -32844,7 +32889,10 @@
       </c>
       <c r="E134" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AU134">
+        <v>1</v>
       </c>
       <c r="BB134" s="9">
         <f>'2015'!D134</f>
@@ -32865,18 +32913,18 @@
       </c>
       <c r="C135" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E135" s="7">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AT135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB135" s="9">
         <f>'2015'!D135</f>
@@ -32941,17 +32989,23 @@
       </c>
       <c r="C137" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E137" s="17">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP137">
+        <v>1</v>
+      </c>
+      <c r="AU137">
+        <v>1</v>
+      </c>
+      <c r="AX137">
         <v>1</v>
       </c>
       <c r="BB137" s="9">
@@ -33358,11 +33412,11 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
@@ -33377,6 +33431,9 @@
       <c r="AE149">
         <v>1</v>
       </c>
+      <c r="AT149">
+        <v>2</v>
+      </c>
       <c r="BB149" s="9">
         <f>'2015'!D149</f>
         <v>7</v>
@@ -33464,11 +33521,11 @@
       </c>
       <c r="C151" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E151" s="7">
         <f t="shared" si="7"/>
@@ -33483,6 +33540,9 @@
       <c r="AD151">
         <v>1</v>
       </c>
+      <c r="AT151">
+        <v>1</v>
+      </c>
       <c r="BB151" s="9">
         <f>'2015'!D151</f>
         <v>6</v>
@@ -33546,7 +33606,7 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
@@ -33554,7 +33614,7 @@
       </c>
       <c r="E153" s="7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N153" s="1">
         <v>1</v>
@@ -33566,6 +33626,12 @@
         <v>1</v>
       </c>
       <c r="AM153">
+        <v>1</v>
+      </c>
+      <c r="AU153">
+        <v>1</v>
+      </c>
+      <c r="AY153">
         <v>1</v>
       </c>
       <c r="BB153" s="9">
@@ -33587,7 +33653,7 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="7"/>
@@ -33595,12 +33661,15 @@
       </c>
       <c r="E154" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J154" s="1">
         <v>1</v>
       </c>
       <c r="W154">
+        <v>1</v>
+      </c>
+      <c r="AY154">
         <v>1</v>
       </c>
       <c r="BB154" s="9">
@@ -34498,7 +34567,7 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D182" s="12">
         <f t="shared" si="7"/>
@@ -34506,7 +34575,7 @@
       </c>
       <c r="E182" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J182" s="1">
         <v>1</v>
@@ -34543,6 +34612,9 @@
       </c>
       <c r="AQ182">
         <v>1</v>
+      </c>
+      <c r="AU182">
+        <v>2</v>
       </c>
       <c r="BB182" s="9">
         <f>'2015'!D182</f>
@@ -34761,7 +34833,7 @@
       </c>
       <c r="C189" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D189" s="17">
         <f t="shared" si="7"/>
@@ -34769,12 +34841,15 @@
       </c>
       <c r="E189" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" s="1">
         <v>1</v>
       </c>
       <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AY189">
         <v>1</v>
       </c>
       <c r="BB189" s="9">
@@ -35166,17 +35241,20 @@
       </c>
       <c r="C201" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" s="7">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E201" s="12">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W201">
+        <v>1</v>
+      </c>
+      <c r="AY201">
         <v>1</v>
       </c>
       <c r="BB201" s="9">
@@ -35211,15 +35289,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1172</v>
+        <v>1152</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35323,21 +35401,21 @@
       <c r="AS203" s="13"/>
       <c r="AT203" s="13">
         <f>SUM(AT3:AT201)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AU203" s="13">
         <f>SUM(AU3:AU201)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AV203" s="13"/>
       <c r="AW203" s="13"/>
       <c r="AX203" s="13">
         <f>SUM(AX3:AX201)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY203" s="13">
         <f>SUM(AY3:AY201)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ203" s="13"/>
       <c r="BA203" s="13"/>
@@ -35426,7 +35504,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1930</v>
+        <v>1897</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35523,7 +35601,7 @@
       </c>
       <c r="AU205" s="13">
         <f>SUM(AT203:AU203)</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AV205" s="13"/>
       <c r="AW205" s="13"/>
@@ -35532,7 +35610,7 @@
       </c>
       <c r="AY205" s="13">
         <f>SUM(AX203:AY203)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AZ205" s="13"/>
       <c r="BA205" s="13"/>
@@ -52237,12 +52315,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52251,6 +52323,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,12 +52322,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52336,6 +52330,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52347,7 +52347,7 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53229,7 +53229,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="1"/>
@@ -53237,7 +53237,10 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
       </c>
       <c r="BB24" s="9">
         <f>'2016'!D24</f>
@@ -54658,7 +54661,7 @@
       </c>
       <c r="C72" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="17">
         <f t="shared" si="4"/>
@@ -54666,7 +54669,10 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G72" s="20">
+        <v>1</v>
       </c>
       <c r="BB72" s="9">
         <f>'2016'!D72</f>
@@ -54890,7 +54896,7 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="4"/>
@@ -54898,7 +54904,10 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
       </c>
       <c r="BB80" s="9">
         <f>'2016'!D80</f>
@@ -56578,7 +56587,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56586,7 +56595,10 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1</v>
       </c>
       <c r="BB138" s="9">
         <f>'2016'!D138</f>
@@ -56964,7 +56976,7 @@
       </c>
       <c r="C151" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="7"/>
@@ -56972,9 +56984,12 @@
       </c>
       <c r="E151" s="7">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" s="1">
         <v>1</v>
       </c>
       <c r="BB151" s="9">
@@ -58420,18 +58435,18 @@
       </c>
       <c r="C201" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D201" s="7">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E201" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F201" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G201" s="1">
         <v>1</v>
@@ -58468,23 +58483,23 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G203" s="15">
         <f>SUM(G3:G201)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
@@ -58683,14 +58698,14 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G205" s="15">
         <f>SUM(F203:G203)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
@@ -75494,6 +75509,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75502,13 +75523,8 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,6 +52322,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52330,12 +52336,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52347,7 +52347,7 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53110,7 +53110,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
@@ -53118,7 +53118,10 @@
       </c>
       <c r="E20" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
       </c>
       <c r="BB20" s="9">
         <f>'2016'!D20</f>
@@ -53609,7 +53612,7 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="1"/>
@@ -53617,7 +53620,10 @@
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
       </c>
       <c r="BB37" s="9">
         <f>'2016'!D37</f>
@@ -54693,7 +54699,7 @@
       </c>
       <c r="C73" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="4"/>
@@ -54701,7 +54707,10 @@
       </c>
       <c r="E73" s="17">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
       </c>
       <c r="BB73" s="9">
         <f>'2016'!D73</f>
@@ -54896,7 +54905,7 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="4"/>
@@ -54904,10 +54913,10 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G80" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB80" s="9">
         <f>'2016'!D80</f>
@@ -56796,7 +56805,7 @@
       </c>
       <c r="C145" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="7"/>
@@ -56804,7 +56813,10 @@
       </c>
       <c r="E145" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
       </c>
       <c r="BB145" s="9">
         <f>'2016'!D145</f>
@@ -58483,7 +58495,7 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
@@ -58491,7 +58503,7 @@
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58499,7 +58511,7 @@
       </c>
       <c r="G203" s="15">
         <f>SUM(G3:G201)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
@@ -58698,14 +58710,14 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G205" s="15">
         <f>SUM(F203:G203)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
@@ -75509,12 +75521,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75523,6 +75529,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52347,7 +52347,7 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53702,7 +53702,7 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="1"/>
@@ -53710,7 +53710,10 @@
       </c>
       <c r="E40" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
       </c>
       <c r="BB40" s="9">
         <f>'2016'!D40</f>
@@ -54580,7 +54583,7 @@
       </c>
       <c r="C69" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="4"/>
@@ -54588,7 +54591,10 @@
       </c>
       <c r="E69" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
       </c>
       <c r="BB69" s="9">
         <f>'2016'!D69</f>
@@ -56538,16 +56544,19 @@
       </c>
       <c r="C136" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="J136" s="1">
+        <v>1</v>
+      </c>
       <c r="BB136" s="9">
         <f>'2016'!D136</f>
         <v>4</v>
@@ -56628,16 +56637,19 @@
       </c>
       <c r="C139" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139" s="17">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="J139" s="1">
+        <v>1</v>
+      </c>
       <c r="BB139" s="9">
         <f>'2016'!D139</f>
         <v>8</v>
@@ -56956,7 +56968,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -56964,9 +56976,12 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G150" s="1">
+        <v>1</v>
+      </c>
+      <c r="K150" s="1">
         <v>1</v>
       </c>
       <c r="BB150" s="9">
@@ -57023,7 +57038,7 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
@@ -57031,7 +57046,10 @@
       </c>
       <c r="E152" s="7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="K152" s="1">
+        <v>1</v>
       </c>
       <c r="BB152" s="9">
         <f>'2016'!D152</f>
@@ -58495,15 +58513,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58517,11 +58535,11 @@
       <c r="I203" s="13"/>
       <c r="J203" s="15">
         <f>SUM(J3:J201)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K203" s="15">
         <f>SUM(K3:K201)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L203" s="13"/>
       <c r="M203" s="13"/>
@@ -58710,7 +58728,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58726,7 +58744,7 @@
       </c>
       <c r="K205" s="15">
         <f>SUM(J203:K203)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,12 +52322,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52336,6 +52330,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -75539,6 +75539,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75547,12 +75553,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,6 +52322,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52330,12 +52336,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52347,7 +52347,7 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54140,16 +54140,19 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
       <c r="BB55" s="9">
         <f>'2016'!D55</f>
         <v>2</v>
@@ -54169,7 +54172,7 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="1"/>
@@ -54177,7 +54180,10 @@
       </c>
       <c r="E56" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
       </c>
       <c r="BB56" s="9">
         <f>'2016'!D56</f>
@@ -56370,16 +56376,19 @@
       </c>
       <c r="C130" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E130" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="J130" s="1">
+        <v>1</v>
+      </c>
       <c r="BB130" s="9">
         <f>'2016'!D130</f>
         <v>6</v>
@@ -57003,11 +57012,11 @@
       </c>
       <c r="C151" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" s="7">
         <f t="shared" si="7"/>
@@ -57019,6 +57028,9 @@
       <c r="G151" s="1">
         <v>1</v>
       </c>
+      <c r="J151" s="1">
+        <v>1</v>
+      </c>
       <c r="BB151" s="9">
         <f>'2016'!D151</f>
         <v>2</v>
@@ -58349,15 +58361,18 @@
       </c>
       <c r="C197" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" s="7">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E197" s="17">
         <f t="shared" si="10"/>
         <v>0</v>
+      </c>
+      <c r="J197" s="1">
+        <v>1</v>
       </c>
       <c r="BB197" s="9">
         <f>'2016'!D197</f>
@@ -58513,15 +58528,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58535,11 +58550,11 @@
       <c r="I203" s="13"/>
       <c r="J203" s="15">
         <f>SUM(J3:J201)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K203" s="15">
         <f>SUM(K3:K201)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L203" s="13"/>
       <c r="M203" s="13"/>
@@ -58728,7 +58743,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58744,7 +58759,7 @@
       </c>
       <c r="K205" s="15">
         <f>SUM(J203:K203)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>
@@ -75539,12 +75554,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75553,6 +75562,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52347,7 +52347,7 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J198" sqref="J198"/>
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53612,11 +53612,11 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
@@ -53625,6 +53625,9 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="BB37" s="9">
         <f>'2016'!D37</f>
         <v>2</v>
@@ -54172,15 +54175,18 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
@@ -54679,11 +54685,11 @@
       </c>
       <c r="C72" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="17">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="4"/>
@@ -54692,6 +54698,9 @@
       <c r="G72" s="20">
         <v>1</v>
       </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
       <c r="BB72" s="9">
         <f>'2016'!D72</f>
         <v>4</v>
@@ -56945,11 +56954,11 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
@@ -56958,6 +56967,9 @@
       <c r="G149" s="1">
         <v>1</v>
       </c>
+      <c r="N149" s="1">
+        <v>1</v>
+      </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
         <v>2</v>
@@ -57111,17 +57123,20 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E154" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="G154" s="1">
+        <v>1</v>
+      </c>
+      <c r="J154" s="1">
         <v>1</v>
       </c>
       <c r="BB154" s="9">
@@ -58528,11 +58543,11 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
@@ -58550,7 +58565,7 @@
       <c r="I203" s="13"/>
       <c r="J203" s="15">
         <f>SUM(J3:J201)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K203" s="15">
         <f>SUM(K3:K201)</f>
@@ -58560,7 +58575,7 @@
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
@@ -58743,7 +58758,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1858</v>
+        <v>1853</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58759,7 +58774,7 @@
       </c>
       <c r="K205" s="15">
         <f>SUM(J203:K203)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>
@@ -58768,7 +58783,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,12 +52322,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52336,6 +52330,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52347,7 +52347,7 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53737,7 +53737,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -53745,7 +53745,10 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
       </c>
       <c r="BB41" s="9">
         <f>'2016'!D41</f>
@@ -54175,11 +54178,11 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="17">
         <f t="shared" si="1"/>
@@ -54189,6 +54192,9 @@
         <v>1</v>
       </c>
       <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
         <v>1</v>
       </c>
       <c r="BB56" s="9">
@@ -57024,7 +57030,7 @@
       </c>
       <c r="C151" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="7"/>
@@ -57032,7 +57038,7 @@
       </c>
       <c r="E151" s="7">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -57041,6 +57047,9 @@
         <v>1</v>
       </c>
       <c r="J151" s="1">
+        <v>1</v>
+      </c>
+      <c r="O151" s="1">
         <v>1</v>
       </c>
       <c r="BB151" s="9">
@@ -58543,15 +58552,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58575,11 +58584,11 @@
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P203" s="13"/>
       <c r="Q203" s="13"/>
@@ -58758,7 +58767,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58783,7 +58792,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>
@@ -75569,6 +75578,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75577,12 +75592,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52347,7 +52347,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53409,7 +53412,7 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="1"/>
@@ -53417,7 +53420,10 @@
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
       </c>
       <c r="BB30" s="9">
         <f>'2016'!D30</f>
@@ -53647,7 +53653,7 @@
       </c>
       <c r="C38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
         <f t="shared" si="1"/>
@@ -53655,7 +53661,10 @@
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
       </c>
       <c r="BB38" s="9">
         <f>'2016'!D38</f>
@@ -53798,7 +53807,7 @@
       </c>
       <c r="C43" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="1"/>
@@ -53806,7 +53815,10 @@
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
       </c>
       <c r="BB43" s="9">
         <f>'2016'!D43</f>
@@ -54178,7 +54190,7 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="1"/>
@@ -54186,7 +54198,7 @@
       </c>
       <c r="E56" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -54195,6 +54207,9 @@
         <v>1</v>
       </c>
       <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
         <v>1</v>
       </c>
       <c r="BB56" s="9">
@@ -54601,7 +54616,7 @@
       </c>
       <c r="C69" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="4"/>
@@ -54609,9 +54624,12 @@
       </c>
       <c r="E69" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
         <v>1</v>
       </c>
       <c r="BB69" s="9">
@@ -54787,7 +54805,7 @@
       </c>
       <c r="C75" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="12">
         <f t="shared" si="4"/>
@@ -54795,7 +54813,10 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
       </c>
       <c r="BB75" s="9">
         <f>'2016'!D75</f>
@@ -55022,16 +55043,19 @@
       </c>
       <c r="C83" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
       <c r="BB83" s="9">
         <f>'2016'!D83</f>
         <v>2</v>
@@ -56214,7 +56238,7 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
@@ -56222,9 +56246,12 @@
       </c>
       <c r="E124" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="O124" s="1">
         <v>1</v>
       </c>
       <c r="BB124" s="9">
@@ -56722,7 +56749,7 @@
       </c>
       <c r="C141" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" s="7">
         <f t="shared" si="7"/>
@@ -56730,7 +56757,10 @@
       </c>
       <c r="E141" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O141" s="1">
+        <v>1</v>
       </c>
       <c r="BB141" s="9">
         <f>'2016'!D141</f>
@@ -57071,17 +57101,20 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152" s="7">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="K152" s="1">
+        <v>1</v>
+      </c>
+      <c r="N152" s="1">
         <v>1</v>
       </c>
       <c r="BB152" s="9">
@@ -58552,15 +58585,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58584,11 +58617,11 @@
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P203" s="13"/>
       <c r="Q203" s="13"/>
@@ -58767,7 +58800,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58792,7 +58825,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,6 +52322,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52330,12 +52336,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52350,7 +52350,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomRight" activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55542,7 +55542,7 @@
       </c>
       <c r="C100" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="4"/>
@@ -55550,7 +55550,10 @@
       </c>
       <c r="E100" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1</v>
       </c>
       <c r="BB100" s="9">
         <f>'2016'!D100</f>
@@ -56006,15 +56009,18 @@
       </c>
       <c r="C116" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" s="17">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E116" s="17">
         <f t="shared" si="4"/>
         <v>5</v>
+      </c>
+      <c r="N116" s="1">
+        <v>1</v>
       </c>
       <c r="BB116" s="9">
         <f>'2016'!D116</f>
@@ -56238,7 +56244,7 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
@@ -56246,13 +56252,13 @@
       </c>
       <c r="E124" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
       </c>
       <c r="O124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB124" s="9">
         <f>'2016'!D124</f>
@@ -56302,7 +56308,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" s="12">
         <f t="shared" si="4"/>
@@ -56310,7 +56316,10 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="O126" s="1">
+        <v>1</v>
       </c>
       <c r="BB126" s="9">
         <f>'2016'!D126</f>
@@ -56566,7 +56575,7 @@
       </c>
       <c r="C135" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" si="7"/>
@@ -56574,7 +56583,10 @@
       </c>
       <c r="E135" s="7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="O135" s="1">
+        <v>1</v>
       </c>
       <c r="BB135" s="9">
         <f>'2016'!D135</f>
@@ -56627,16 +56639,19 @@
       </c>
       <c r="C137" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E137" s="17">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
+      <c r="N137" s="1">
+        <v>1</v>
+      </c>
       <c r="BB137" s="9">
         <f>'2016'!D137</f>
         <v>5</v>
@@ -56656,7 +56671,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56664,9 +56679,12 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G138" s="1">
+        <v>1</v>
+      </c>
+      <c r="O138" s="1">
         <v>1</v>
       </c>
       <c r="BB138" s="9">
@@ -56990,11 +57008,11 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
@@ -57004,7 +57022,7 @@
         <v>1</v>
       </c>
       <c r="N149" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
@@ -58244,7 +58262,7 @@
       </c>
       <c r="C191" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" s="7">
         <f t="shared" si="7"/>
@@ -58252,7 +58270,10 @@
       </c>
       <c r="E191" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O191" s="1">
+        <v>1</v>
       </c>
       <c r="BB191" s="9">
         <f>'2016'!D191</f>
@@ -58585,15 +58606,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58617,11 +58638,11 @@
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P203" s="13"/>
       <c r="Q203" s="13"/>
@@ -58800,7 +58821,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1840</v>
+        <v>1831</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58825,7 +58846,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>
@@ -75611,12 +75632,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75625,6 +75640,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52350,7 +52350,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O125" sqref="O125"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53444,16 +53444,19 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
       <c r="BB31" s="9">
         <f>'2016'!D31</f>
         <v>2</v>
@@ -54071,16 +54074,19 @@
       </c>
       <c r="C52" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="N52" s="1">
+        <v>1</v>
+      </c>
       <c r="BB52" s="9">
         <f>'2016'!D52</f>
         <v>4</v>
@@ -54158,7 +54164,7 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
@@ -54166,9 +54172,12 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
         <v>1</v>
       </c>
       <c r="BB55" s="9">
@@ -54376,7 +54385,7 @@
       </c>
       <c r="C62" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="12">
         <f t="shared" si="1"/>
@@ -54384,7 +54393,10 @@
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
       </c>
       <c r="BB62" s="9">
         <f>'2016'!D62</f>
@@ -54709,7 +54721,7 @@
       </c>
       <c r="C72" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="17">
         <f t="shared" si="4"/>
@@ -54717,12 +54729,15 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G72" s="20">
         <v>1</v>
       </c>
       <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="S72">
         <v>1</v>
       </c>
       <c r="BB72" s="9">
@@ -54924,16 +54939,19 @@
       </c>
       <c r="C79" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
       <c r="BB79" s="9">
         <f>'2016'!D79</f>
         <v>5</v>
@@ -55542,18 +55560,18 @@
       </c>
       <c r="C100" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB100" s="9">
         <f>'2016'!D100</f>
@@ -56308,7 +56326,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="12">
         <f t="shared" si="4"/>
@@ -56316,10 +56334,10 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O126" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB126" s="9">
         <f>'2016'!D126</f>
@@ -56575,16 +56593,19 @@
       </c>
       <c r="C135" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E135" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="N135" s="1">
+        <v>1</v>
+      </c>
       <c r="O135" s="1">
         <v>1</v>
       </c>
@@ -56767,16 +56788,19 @@
       </c>
       <c r="C141" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E141" s="7">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
+      <c r="N141" s="1">
+        <v>1</v>
+      </c>
       <c r="O141" s="1">
         <v>1</v>
       </c>
@@ -57043,7 +57067,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -57051,12 +57075,15 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
       </c>
       <c r="K150" s="1">
+        <v>1</v>
+      </c>
+      <c r="S150">
         <v>1</v>
       </c>
       <c r="BB150" s="9">
@@ -57154,16 +57181,19 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E153" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="N153" s="1">
+        <v>2</v>
+      </c>
       <c r="BB153" s="9">
         <f>'2016'!D153</f>
         <v>4</v>
@@ -57183,11 +57213,11 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E154" s="7">
         <f t="shared" si="7"/>
@@ -57199,6 +57229,9 @@
       <c r="J154" s="1">
         <v>1</v>
       </c>
+      <c r="N154" s="1">
+        <v>1</v>
+      </c>
       <c r="BB154" s="9">
         <f>'2016'!D154</f>
         <v>7</v>
@@ -58529,7 +58562,7 @@
       </c>
       <c r="C200" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" s="7">
         <f t="shared" si="10"/>
@@ -58537,7 +58570,10 @@
       </c>
       <c r="E200" s="7">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O200" s="1">
+        <v>1</v>
       </c>
       <c r="BB200" s="9">
         <f>'2016'!D200</f>
@@ -58606,15 +58642,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58638,21 +58674,21 @@
       <c r="M203" s="13"/>
       <c r="N203" s="15">
         <f>SUM(N3:N201)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O203" s="15">
         <f>SUM(O3:O201)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P203" s="13"/>
       <c r="Q203" s="13"/>
       <c r="R203" s="13">
         <f>SUM(R3:R201)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S203" s="13">
         <f>SUM(S3:S201)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
@@ -58821,7 +58857,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58846,7 +58882,7 @@
       </c>
       <c r="O205" s="15">
         <f>SUM(N203:O203)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="P205" s="13"/>
       <c r="Q205" s="13"/>
@@ -58855,7 +58891,7 @@
       </c>
       <c r="S205" s="13">
         <f>SUM(R203:S203)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T205" s="13"/>
       <c r="U205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,12 +52322,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52336,6 +52330,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52347,10 +52347,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54939,7 +54939,7 @@
       </c>
       <c r="C79" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="4"/>
@@ -54947,9 +54947,12 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="S79">
         <v>1</v>
       </c>
       <c r="BB79" s="9">
@@ -57032,7 +57035,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57040,13 +57043,16 @@
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
       </c>
       <c r="N149" s="1">
         <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
       </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
@@ -57213,7 +57219,7 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="7"/>
@@ -57221,7 +57227,7 @@
       </c>
       <c r="E154" s="7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G154" s="1">
         <v>1</v>
@@ -57230,6 +57236,9 @@
         <v>1</v>
       </c>
       <c r="N154" s="1">
+        <v>1</v>
+      </c>
+      <c r="S154">
         <v>1</v>
       </c>
       <c r="BB154" s="9">
@@ -58642,7 +58651,7 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
@@ -58650,7 +58659,7 @@
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58688,7 +58697,7 @@
       </c>
       <c r="S203" s="13">
         <f>SUM(S3:S201)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
@@ -58857,7 +58866,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58891,7 +58900,7 @@
       </c>
       <c r="S205" s="13">
         <f>SUM(R203:S203)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T205" s="13"/>
       <c r="U205" s="13"/>
@@ -75668,6 +75677,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75676,12 +75691,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52350,7 +52350,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="S86" sqref="S86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52849,7 +52849,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
@@ -52857,7 +52857,10 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
       </c>
       <c r="BB11" s="9">
         <f>'2016'!D11</f>
@@ -53444,7 +53447,7 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="1"/>
@@ -53452,10 +53455,13 @@
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R31">
         <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
       </c>
       <c r="BB31" s="9">
         <f>'2016'!D31</f>
@@ -53563,16 +53569,19 @@
       </c>
       <c r="C35" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
       <c r="BB35" s="9">
         <f>'2016'!D35</f>
         <v>3</v>
@@ -53749,11 +53758,11 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
@@ -53762,6 +53771,9 @@
       <c r="O41" s="1">
         <v>1</v>
       </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
       <c r="BB41" s="9">
         <f>'2016'!D41</f>
         <v>2</v>
@@ -54164,7 +54176,7 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
@@ -54172,12 +54184,15 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
       </c>
       <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="S55">
         <v>1</v>
       </c>
       <c r="BB55" s="9">
@@ -54512,7 +54527,7 @@
       </c>
       <c r="C65" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="1"/>
@@ -54520,7 +54535,10 @@
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
       </c>
       <c r="BB65" s="9">
         <f>'2016'!D65</f>
@@ -54599,7 +54617,7 @@
       </c>
       <c r="C68" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ref="D68:E131" si="4">SUM(BB68-F68-J68-N68-R68-V68-Z68-AD68-AH68-AL68-AP68-AT68-AX68)</f>
@@ -54607,7 +54625,10 @@
       </c>
       <c r="E68" s="7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
       </c>
       <c r="BB68" s="9">
         <f>'2016'!D68</f>
@@ -54910,16 +54931,19 @@
       </c>
       <c r="C78" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
       <c r="BB78" s="9">
         <f>'2016'!D78</f>
         <v>2</v>
@@ -55505,7 +55529,7 @@
       </c>
       <c r="C98" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" si="4"/>
@@ -55513,7 +55537,10 @@
       </c>
       <c r="E98" s="7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
       </c>
       <c r="BB98" s="9">
         <f>'2016'!D98</f>
@@ -56329,7 +56356,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D126" s="12">
         <f t="shared" si="4"/>
@@ -56337,9 +56364,12 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O126" s="1">
+        <v>2</v>
+      </c>
+      <c r="S126">
         <v>2</v>
       </c>
       <c r="BB126" s="9">
@@ -56730,17 +56760,23 @@
       </c>
       <c r="C139" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D139" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E139" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J139" s="1">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
         <v>1</v>
       </c>
       <c r="BB139" s="9">
@@ -57869,7 +57905,7 @@
       </c>
       <c r="C176" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" s="17">
         <f t="shared" si="7"/>
@@ -57877,7 +57913,10 @@
       </c>
       <c r="E176" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="S176">
+        <v>1</v>
       </c>
       <c r="BB176" s="9">
         <f>'2016'!D176</f>
@@ -58651,15 +58690,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58693,11 +58732,11 @@
       <c r="Q203" s="13"/>
       <c r="R203" s="13">
         <f>SUM(R3:R201)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S203" s="13">
         <f>SUM(S3:S201)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
@@ -58866,7 +58905,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1812</v>
+        <v>1797</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58900,7 +58939,7 @@
       </c>
       <c r="S205" s="13">
         <f>SUM(R203:S203)</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="T205" s="13"/>
       <c r="U205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,6 +52322,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52330,12 +52336,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52350,7 +52350,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S86" sqref="S86"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54963,7 +54963,7 @@
       </c>
       <c r="C79" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="4"/>
@@ -54971,13 +54971,13 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="S79">
         <v>2</v>
-      </c>
-      <c r="N79" s="1">
-        <v>1</v>
-      </c>
-      <c r="S79">
-        <v>1</v>
       </c>
       <c r="BB79" s="9">
         <f>'2016'!D79</f>
@@ -58690,7 +58690,7 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
@@ -58698,7 +58698,7 @@
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58736,7 +58736,7 @@
       </c>
       <c r="S203" s="13">
         <f>SUM(S3:S201)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
@@ -58905,7 +58905,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58939,7 +58939,7 @@
       </c>
       <c r="S205" s="13">
         <f>SUM(R203:S203)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T205" s="13"/>
       <c r="U205" s="13"/>
@@ -75716,12 +75716,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75730,6 +75724,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -616,10 +616,10 @@
   <dimension ref="A1:BM470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="M90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C197" sqref="C197"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27945,7 +27945,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52350,7 +52350,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53116,7 +53116,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
@@ -53124,9 +53124,12 @@
       </c>
       <c r="E20" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <v>1</v>
       </c>
       <c r="BB20" s="9">
@@ -53511,16 +53514,19 @@
       </c>
       <c r="C33" s="8">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
       <c r="BB33" s="9">
         <f>'2016'!D33</f>
         <v>1</v>
@@ -53726,11 +53732,11 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="17">
         <f t="shared" si="1"/>
@@ -53739,6 +53745,9 @@
       <c r="K40" s="1">
         <v>1</v>
       </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
       <c r="BB40" s="9">
         <f>'2016'!D40</f>
         <v>3</v>
@@ -53758,7 +53767,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -53766,13 +53775,16 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
       </c>
       <c r="R41">
         <v>2</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
       </c>
       <c r="BB41" s="9">
         <f>'2016'!D41</f>
@@ -54176,7 +54188,7 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
@@ -54184,7 +54196,7 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -54193,6 +54205,9 @@
         <v>1</v>
       </c>
       <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="W55">
         <v>1</v>
       </c>
       <c r="BB55" s="9">
@@ -55149,11 +55164,11 @@
       </c>
       <c r="C85" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="4"/>
@@ -55162,6 +55177,9 @@
       <c r="F85" s="1">
         <v>1</v>
       </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
       <c r="BB85" s="9">
         <f>'2016'!D85</f>
         <v>5</v>
@@ -56626,11 +56644,11 @@
       </c>
       <c r="C135" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E135" s="7">
         <f t="shared" si="7"/>
@@ -56642,6 +56660,9 @@
       <c r="O135" s="1">
         <v>1</v>
       </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
       <c r="BB135" s="9">
         <f>'2016'!D135</f>
         <v>5</v>
@@ -56725,7 +56746,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56733,12 +56754,15 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
       </c>
       <c r="O138" s="1">
+        <v>1</v>
+      </c>
+      <c r="S138">
         <v>1</v>
       </c>
       <c r="BB138" s="9">
@@ -56923,7 +56947,7 @@
       </c>
       <c r="C144" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" s="7">
         <f t="shared" si="7"/>
@@ -56931,7 +56955,10 @@
       </c>
       <c r="E144" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
       </c>
       <c r="BB144" s="9">
         <f>'2016'!D144</f>
@@ -57071,7 +57098,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57079,7 +57106,7 @@
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -57088,7 +57115,7 @@
         <v>2</v>
       </c>
       <c r="S149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
@@ -57109,7 +57136,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -57117,7 +57144,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -57126,7 +57153,7 @@
         <v>1</v>
       </c>
       <c r="S150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB150" s="9">
         <f>'2016'!D150</f>
@@ -57188,7 +57215,7 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
@@ -57196,12 +57223,15 @@
       </c>
       <c r="E152" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K152" s="1">
         <v>1</v>
       </c>
       <c r="N152" s="1">
+        <v>1</v>
+      </c>
+      <c r="W152">
         <v>1</v>
       </c>
       <c r="BB152" s="9">
@@ -58690,15 +58720,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58732,11 +58762,11 @@
       <c r="Q203" s="13"/>
       <c r="R203" s="13">
         <f>SUM(R3:R201)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S203" s="13">
         <f>SUM(S3:S201)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
@@ -58746,7 +58776,7 @@
       </c>
       <c r="W203" s="13">
         <f>SUM(W3:W201)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
@@ -58905,7 +58935,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1796</v>
+        <v>1782</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58939,7 +58969,7 @@
       </c>
       <c r="S205" s="13">
         <f>SUM(R203:S203)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T205" s="13"/>
       <c r="U205" s="13"/>
@@ -58948,7 +58978,7 @@
       </c>
       <c r="W205" s="13">
         <f>SUM(V203:W203)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,12 +52322,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52336,6 +52330,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52350,7 +52350,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53671,7 +53671,7 @@
       </c>
       <c r="C38" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
         <f t="shared" si="1"/>
@@ -53679,9 +53679,12 @@
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="W38">
         <v>1</v>
       </c>
       <c r="BB38" s="9">
@@ -56784,11 +56787,11 @@
       </c>
       <c r="C139" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D139" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E139" s="17">
         <f t="shared" si="7"/>
@@ -56801,6 +56804,9 @@
         <v>1</v>
       </c>
       <c r="S139">
+        <v>1</v>
+      </c>
+      <c r="V139">
         <v>1</v>
       </c>
       <c r="BB139" s="9">
@@ -58640,7 +58646,7 @@
       </c>
       <c r="C200" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" s="7">
         <f t="shared" si="10"/>
@@ -58648,9 +58654,12 @@
       </c>
       <c r="E200" s="7">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O200" s="1">
+        <v>1</v>
+      </c>
+      <c r="W200">
         <v>1</v>
       </c>
       <c r="BB200" s="9">
@@ -58720,15 +58729,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58772,11 +58781,11 @@
       <c r="U203" s="13"/>
       <c r="V203" s="13">
         <f>SUM(V3:V201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W203" s="13">
         <f>SUM(W3:W201)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
@@ -58935,7 +58944,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58978,7 +58987,7 @@
       </c>
       <c r="W205" s="13">
         <f>SUM(V203:W203)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>
@@ -75746,6 +75755,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75754,12 +75769,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,6 +52322,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52330,12 +52336,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52347,10 +52347,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53360,7 +53360,7 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="1"/>
@@ -53368,7 +53368,10 @@
       </c>
       <c r="E28" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
       </c>
       <c r="BB28" s="9">
         <f>'2016'!D28</f>
@@ -53418,17 +53421,20 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30">
         <v>1</v>
       </c>
       <c r="BB30" s="9">
@@ -55759,16 +55765,19 @@
       </c>
       <c r="C105" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
       <c r="BB105" s="9">
         <f>'2016'!D105</f>
         <v>1</v>
@@ -56412,16 +56421,19 @@
       </c>
       <c r="C127" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" s="17">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" s="17">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="V127">
+        <v>1</v>
+      </c>
       <c r="BB127" s="9">
         <f>'2016'!D127</f>
         <v>5</v>
@@ -56717,11 +56729,11 @@
       </c>
       <c r="C137" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E137" s="17">
         <f t="shared" si="7"/>
@@ -56730,6 +56742,9 @@
       <c r="N137" s="1">
         <v>1</v>
       </c>
+      <c r="V137">
+        <v>1</v>
+      </c>
       <c r="BB137" s="9">
         <f>'2016'!D137</f>
         <v>5</v>
@@ -56985,17 +57000,20 @@
       </c>
       <c r="C145" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E145" s="7">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="V145">
         <v>1</v>
       </c>
       <c r="BB145" s="9">
@@ -57104,7 +57122,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57112,7 +57130,7 @@
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -57121,6 +57139,9 @@
         <v>2</v>
       </c>
       <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="W149">
         <v>2</v>
       </c>
       <c r="BB149" s="9">
@@ -57291,11 +57312,11 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E154" s="7">
         <f t="shared" si="7"/>
@@ -57313,6 +57334,9 @@
       <c r="S154">
         <v>1</v>
       </c>
+      <c r="V154">
+        <v>1</v>
+      </c>
       <c r="BB154" s="9">
         <f>'2016'!D154</f>
         <v>7</v>
@@ -57738,7 +57762,7 @@
       </c>
       <c r="C169" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="7"/>
@@ -57746,6 +57770,9 @@
       </c>
       <c r="E169" s="7">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W169">
         <v>1</v>
       </c>
       <c r="BB169" s="9">
@@ -58263,7 +58290,7 @@
       </c>
       <c r="C187" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" s="7">
         <f t="shared" si="7"/>
@@ -58271,7 +58298,10 @@
       </c>
       <c r="E187" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W187">
+        <v>1</v>
       </c>
       <c r="BB187" s="9">
         <f>'2016'!D187</f>
@@ -58729,15 +58759,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58781,11 +58811,11 @@
       <c r="U203" s="13"/>
       <c r="V203" s="13">
         <f>SUM(V3:V201)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W203" s="13">
         <f>SUM(W3:W201)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
@@ -58944,7 +58974,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1779</v>
+        <v>1768</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -58987,7 +59017,7 @@
       </c>
       <c r="W205" s="13">
         <f>SUM(V203:W203)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>
@@ -75755,12 +75785,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75769,6 +75793,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52322,12 +52322,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52336,6 +52330,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52350,7 +52350,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="W89" sqref="W89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53180,7 +53180,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
@@ -53188,9 +53188,12 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>1</v>
       </c>
       <c r="BB22" s="9">
@@ -54955,11 +54958,11 @@
       </c>
       <c r="C78" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="4"/>
@@ -54968,6 +54971,9 @@
       <c r="R78">
         <v>1</v>
       </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
       <c r="BB78" s="9">
         <f>'2016'!D78</f>
         <v>2</v>
@@ -56322,11 +56328,11 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" s="7">
         <f t="shared" si="4"/>
@@ -56338,6 +56344,9 @@
       <c r="O124" s="1">
         <v>2</v>
       </c>
+      <c r="Z124">
+        <v>1</v>
+      </c>
       <c r="BB124" s="9">
         <f>'2016'!D124</f>
         <v>2</v>
@@ -56421,18 +56430,18 @@
       </c>
       <c r="C127" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" s="17">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E127" s="17">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="V127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB127" s="9">
         <f>'2016'!D127</f>
@@ -56453,7 +56462,7 @@
       </c>
       <c r="C128" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="17">
         <f t="shared" si="4"/>
@@ -56461,7 +56470,10 @@
       </c>
       <c r="E128" s="17">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W128">
+        <v>1</v>
       </c>
       <c r="BB128" s="9">
         <f>'2016'!D128</f>
@@ -57093,7 +57105,7 @@
       </c>
       <c r="C148" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" s="7">
         <f t="shared" si="7"/>
@@ -57101,7 +57113,10 @@
       </c>
       <c r="E148" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="W148">
+        <v>1</v>
       </c>
       <c r="BB148" s="9">
         <f>'2016'!D148</f>
@@ -57122,7 +57137,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57130,7 +57145,7 @@
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -57142,7 +57157,7 @@
         <v>2</v>
       </c>
       <c r="W149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
@@ -57312,11 +57327,11 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E154" s="7">
         <f t="shared" si="7"/>
@@ -57335,7 +57350,7 @@
         <v>1</v>
       </c>
       <c r="V154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB154" s="9">
         <f>'2016'!D154</f>
@@ -58759,15 +58774,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58811,17 +58826,17 @@
       <c r="U203" s="13"/>
       <c r="V203" s="13">
         <f>SUM(V3:V201)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W203" s="13">
         <f>SUM(W3:W201)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
       <c r="Z203" s="13">
         <f>SUM(Z3:Z201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA203" s="13">
         <f>SUM(AA3:AA201)</f>
@@ -58974,7 +58989,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59017,7 +59032,7 @@
       </c>
       <c r="W205" s="13">
         <f>SUM(V203:W203)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>
@@ -59026,7 +59041,7 @@
       </c>
       <c r="AA205" s="13">
         <f>SUM(Z203:AA203)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB205" s="13"/>
       <c r="AC205" s="13"/>
@@ -75785,6 +75800,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75793,12 +75814,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52347,10 +52347,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W89" sqref="W89"/>
+      <selection pane="bottomRight" activeCell="Z142" sqref="Z142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53055,7 +53055,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
@@ -53063,7 +53063,10 @@
       </c>
       <c r="E18" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
       </c>
       <c r="BB18" s="9">
         <f>'2016'!D18</f>
@@ -54081,15 +54084,18 @@
       </c>
       <c r="C51" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
       </c>
       <c r="BB51" s="9">
         <f>'2016'!D51</f>
@@ -54868,7 +54874,7 @@
       </c>
       <c r="C75" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" s="12">
         <f t="shared" si="4"/>
@@ -54876,10 +54882,13 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>2</v>
       </c>
       <c r="BB75" s="9">
         <f>'2016'!D75</f>
@@ -54900,7 +54909,7 @@
       </c>
       <c r="C76" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" si="4"/>
@@ -54908,6 +54917,9 @@
       </c>
       <c r="E76" s="7">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA76">
         <v>1</v>
       </c>
       <c r="BB76" s="9">
@@ -54971,7 +54983,7 @@
       <c r="R78">
         <v>1</v>
       </c>
-      <c r="V78">
+      <c r="Z78">
         <v>1</v>
       </c>
       <c r="BB78" s="9">
@@ -55243,16 +55255,19 @@
       </c>
       <c r="C87" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
       <c r="BB87" s="9">
         <f>'2016'!D87</f>
         <v>6</v>
@@ -55359,7 +55374,7 @@
       </c>
       <c r="C91" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="4"/>
@@ -55367,7 +55382,10 @@
       </c>
       <c r="E91" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AA91">
+        <v>1</v>
       </c>
       <c r="BB91" s="9">
         <f>'2016'!D91</f>
@@ -56430,18 +56448,24 @@
       </c>
       <c r="C127" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D127" s="17">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127" s="17">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V127">
         <v>2</v>
+      </c>
+      <c r="Z127">
+        <v>1</v>
+      </c>
+      <c r="AA127">
+        <v>1</v>
       </c>
       <c r="BB127" s="9">
         <f>'2016'!D127</f>
@@ -56741,11 +56765,11 @@
       </c>
       <c r="C137" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E137" s="17">
         <f t="shared" si="7"/>
@@ -56757,6 +56781,9 @@
       <c r="V137">
         <v>1</v>
       </c>
+      <c r="Z137">
+        <v>1</v>
+      </c>
       <c r="BB137" s="9">
         <f>'2016'!D137</f>
         <v>5</v>
@@ -56776,7 +56803,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56784,7 +56811,7 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -56794,6 +56821,9 @@
       </c>
       <c r="S138">
         <v>1</v>
+      </c>
+      <c r="AA138">
+        <v>3</v>
       </c>
       <c r="BB138" s="9">
         <f>'2016'!D138</f>
@@ -56919,17 +56949,20 @@
       </c>
       <c r="C142" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z142">
         <v>1</v>
       </c>
       <c r="BB142" s="9">
@@ -57012,11 +57045,11 @@
       </c>
       <c r="C145" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145" s="7">
         <f t="shared" si="7"/>
@@ -57026,6 +57059,9 @@
         <v>1</v>
       </c>
       <c r="V145">
+        <v>1</v>
+      </c>
+      <c r="Z145">
         <v>1</v>
       </c>
       <c r="BB145" s="9">
@@ -57047,7 +57083,7 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
@@ -57055,7 +57091,10 @@
       </c>
       <c r="E146" s="7">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="AA146">
+        <v>2</v>
       </c>
       <c r="BB146" s="9">
         <f>'2016'!D146</f>
@@ -57137,7 +57176,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57145,7 +57184,7 @@
       </c>
       <c r="E149" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -57158,6 +57197,9 @@
       </c>
       <c r="W149">
         <v>3</v>
+      </c>
+      <c r="AA149">
+        <v>1</v>
       </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
@@ -57216,7 +57258,7 @@
       </c>
       <c r="C151" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="7"/>
@@ -57224,7 +57266,7 @@
       </c>
       <c r="E151" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -57236,6 +57278,9 @@
         <v>1</v>
       </c>
       <c r="O151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA151">
         <v>1</v>
       </c>
       <c r="BB151" s="9">
@@ -57257,7 +57302,7 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
@@ -57265,7 +57310,7 @@
       </c>
       <c r="E152" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K152" s="1">
         <v>1</v>
@@ -57275,6 +57320,9 @@
       </c>
       <c r="W152">
         <v>1</v>
+      </c>
+      <c r="AA152">
+        <v>2</v>
       </c>
       <c r="BB152" s="9">
         <f>'2016'!D152</f>
@@ -57295,7 +57343,7 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
@@ -57303,10 +57351,13 @@
       </c>
       <c r="E153" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N153" s="1">
         <v>2</v>
+      </c>
+      <c r="AA153">
+        <v>1</v>
       </c>
       <c r="BB153" s="9">
         <f>'2016'!D153</f>
@@ -57327,7 +57378,7 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="7"/>
@@ -57335,7 +57386,7 @@
       </c>
       <c r="E154" s="7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G154" s="1">
         <v>1</v>
@@ -57351,6 +57402,9 @@
       </c>
       <c r="V154">
         <v>2</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
       </c>
       <c r="BB154" s="9">
         <f>'2016'!D154</f>
@@ -58726,11 +58780,11 @@
       </c>
       <c r="C201" s="8">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D201" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" s="12">
         <f t="shared" si="10"/>
@@ -58740,6 +58794,9 @@
         <v>4</v>
       </c>
       <c r="G201" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z201">
         <v>1</v>
       </c>
       <c r="BB201" s="9">
@@ -58774,15 +58831,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58826,7 +58883,7 @@
       <c r="U203" s="13"/>
       <c r="V203" s="13">
         <f>SUM(V3:V201)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W203" s="13">
         <f>SUM(W3:W201)</f>
@@ -58836,11 +58893,11 @@
       <c r="Y203" s="13"/>
       <c r="Z203" s="13">
         <f>SUM(Z3:Z201)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA203" s="13">
         <f>SUM(AA3:AA201)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB203" s="13"/>
       <c r="AC203" s="13"/>
@@ -58989,7 +59046,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>1760</v>
+        <v>1736</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59032,7 +59089,7 @@
       </c>
       <c r="W205" s="13">
         <f>SUM(V203:W203)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>
@@ -59041,7 +59098,7 @@
       </c>
       <c r="AA205" s="13">
         <f>SUM(Z203:AA203)</f>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AB205" s="13"/>
       <c r="AC205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="35">
   <si>
     <t>No clip</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>order 2017</t>
+  </si>
+  <si>
+    <t>resend</t>
   </si>
 </sst>
 </file>
@@ -52253,6 +52256,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52261,12 +52270,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52278,10 +52281,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D201" sqref="D201"/>
+      <selection pane="bottomRight" activeCell="AE150" sqref="AE150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52606,7 +52609,7 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="1"/>
@@ -52614,9 +52617,12 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
         <v>1</v>
       </c>
       <c r="BB5" s="9">
@@ -52818,7 +52824,7 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
@@ -52826,9 +52832,12 @@
       </c>
       <c r="E12" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
         <v>1</v>
       </c>
       <c r="BB12" s="9">
@@ -53856,7 +53865,7 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="1"/>
@@ -53864,7 +53873,10 @@
       </c>
       <c r="E45" s="17">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="BB45" s="9">
         <f>'2016'!D45</f>
@@ -54094,7 +54106,7 @@
       </c>
       <c r="C53" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="17">
         <f t="shared" si="1"/>
@@ -54102,7 +54114,10 @@
       </c>
       <c r="E53" s="17">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="BB53" s="9">
         <f>'2016'!D53</f>
@@ -56563,16 +56578,19 @@
       </c>
       <c r="C132" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" ref="D132:E195" si="7">SUM(BB132-F132-J132-N132-R132-V132-Z132-AD132-AH132-AL132-AP132-AT132-AX132)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E132" s="17">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AD132">
+        <v>1</v>
+      </c>
       <c r="BB132" s="9">
         <f>'2016'!D132</f>
         <v>3</v>
@@ -56621,7 +56639,7 @@
       </c>
       <c r="C134" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" s="7">
         <f t="shared" si="7"/>
@@ -56629,7 +56647,10 @@
       </c>
       <c r="E134" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE134">
+        <v>1</v>
       </c>
       <c r="BB134" s="9">
         <f>'2016'!D134</f>
@@ -56758,7 +56779,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56766,7 +56787,7 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -56779,6 +56800,9 @@
       </c>
       <c r="AA138">
         <v>4</v>
+      </c>
+      <c r="AE138">
+        <v>1</v>
       </c>
       <c r="BB138" s="9">
         <f>'2016'!D138</f>
@@ -57102,7 +57126,7 @@
       </c>
       <c r="C148" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="7">
         <f t="shared" si="7"/>
@@ -57110,10 +57134,16 @@
       </c>
       <c r="E148" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W148">
         <v>1</v>
+      </c>
+      <c r="AA148" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB148" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="BB148" s="9">
         <f>'2016'!D148</f>
@@ -57134,7 +57164,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57142,7 +57172,7 @@
       </c>
       <c r="E149" s="17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -57157,6 +57187,9 @@
         <v>3</v>
       </c>
       <c r="AA149">
+        <v>1</v>
+      </c>
+      <c r="AE149">
         <v>1</v>
       </c>
       <c r="BB149" s="9">
@@ -57260,11 +57293,11 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E152" s="17">
         <f t="shared" si="7"/>
@@ -57279,6 +57312,9 @@
       <c r="W152">
         <v>1</v>
       </c>
+      <c r="Z152">
+        <v>1</v>
+      </c>
       <c r="AA152">
         <v>2</v>
       </c>
@@ -57850,7 +57886,7 @@
       </c>
       <c r="C171" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" s="7">
         <f t="shared" si="7"/>
@@ -57858,7 +57894,10 @@
       </c>
       <c r="E171" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AA171">
+        <v>1</v>
       </c>
       <c r="BB171" s="9">
         <f>'2016'!D171</f>
@@ -58288,16 +58327,19 @@
       </c>
       <c r="C186" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E186" s="17">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="Z186">
+        <v>1</v>
+      </c>
       <c r="BB186" s="9">
         <f>'2016'!D186</f>
         <v>5</v>
@@ -58378,7 +58420,7 @@
       </c>
       <c r="C189" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" s="17">
         <f t="shared" si="7"/>
@@ -58386,7 +58428,10 @@
       </c>
       <c r="E189" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="AE189">
+        <v>1</v>
       </c>
       <c r="BB189" s="9">
         <f>'2016'!D189</f>
@@ -58407,15 +58452,18 @@
       </c>
       <c r="C190" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E190" s="17">
         <f t="shared" si="7"/>
         <v>5</v>
+      </c>
+      <c r="AD190">
+        <v>1</v>
       </c>
       <c r="BB190" s="9">
         <f>'2016'!D190</f>
@@ -58798,15 +58846,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58860,21 +58908,21 @@
       <c r="Y203" s="13"/>
       <c r="Z203" s="13">
         <f>SUM(Z3:Z201)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA203" s="13">
         <f>SUM(AA3:AA201)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB203" s="13"/>
       <c r="AC203" s="13"/>
       <c r="AD203" s="13">
         <f>SUM(AD3:AD201)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE203" s="13">
         <f>SUM(AE3:AE201)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF203" s="13"/>
       <c r="AG203" s="13"/>
@@ -59013,7 +59061,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2401</v>
+        <v>2387</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59065,7 +59113,7 @@
       </c>
       <c r="AA205" s="13">
         <f>SUM(Z203:AA203)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB205" s="13"/>
       <c r="AC205" s="13"/>
@@ -59074,7 +59122,7 @@
       </c>
       <c r="AE205" s="13">
         <f>SUM(AD203:AE203)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF205" s="13"/>
       <c r="AG205" s="13"/>
@@ -75824,12 +75872,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75838,6 +75880,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52256,12 +52256,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52270,6 +52264,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52284,7 +52284,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE150" sqref="AE150"/>
+      <selection pane="bottomRight" activeCell="AE80" sqref="AE80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53004,7 +53004,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
@@ -53012,9 +53012,12 @@
       </c>
       <c r="E18" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
         <v>1</v>
       </c>
       <c r="BB18" s="9">
@@ -54211,7 +54214,7 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="1"/>
@@ -54219,7 +54222,7 @@
       </c>
       <c r="E56" s="17">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -54231,6 +54234,9 @@
         <v>1</v>
       </c>
       <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE56">
         <v>1</v>
       </c>
       <c r="BB56" s="9">
@@ -55004,7 +55010,7 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="4"/>
@@ -55012,10 +55018,13 @@
       </c>
       <c r="E80" s="17">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" s="1">
         <v>4</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
       </c>
       <c r="BB80" s="9">
         <f>'2016'!D80</f>
@@ -55875,16 +55884,19 @@
       </c>
       <c r="C109" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" s="17">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="AD109">
+        <v>1</v>
+      </c>
       <c r="BB109" s="9">
         <f>'2016'!D109</f>
         <v>1</v>
@@ -56578,18 +56590,18 @@
       </c>
       <c r="C132" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" ref="D132:E195" si="7">SUM(BB132-F132-J132-N132-R132-V132-Z132-AD132-AH132-AL132-AP132-AT132-AX132)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" s="17">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AD132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB132" s="9">
         <f>'2016'!D132</f>
@@ -57164,7 +57176,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57172,7 +57184,7 @@
       </c>
       <c r="E149" s="17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -57190,7 +57202,7 @@
         <v>1</v>
       </c>
       <c r="AE149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
@@ -58211,7 +58223,7 @@
       </c>
       <c r="C182" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" s="12">
         <f t="shared" si="7"/>
@@ -58219,7 +58231,10 @@
       </c>
       <c r="E182" s="17">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AE182">
+        <v>1</v>
       </c>
       <c r="BB182" s="9">
         <f>'2016'!D182</f>
@@ -58327,7 +58342,7 @@
       </c>
       <c r="C186" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" s="7">
         <f t="shared" si="7"/>
@@ -58335,9 +58350,12 @@
       </c>
       <c r="E186" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z186">
+        <v>1</v>
+      </c>
+      <c r="AE186">
         <v>1</v>
       </c>
       <c r="BB186" s="9">
@@ -58635,7 +58653,7 @@
       </c>
       <c r="C196" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" s="12">
         <f t="shared" ref="D196:E201" si="10">SUM(BB196-F196-J196-N196-R196-V196-Z196-AD196-AH196-AL196-AP196-AT196-AX196)</f>
@@ -58643,9 +58661,12 @@
       </c>
       <c r="E196" s="17">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA196">
+        <v>1</v>
+      </c>
+      <c r="AE196">
         <v>1</v>
       </c>
       <c r="BB196" s="9">
@@ -58699,7 +58720,7 @@
       </c>
       <c r="C198" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D198" s="12">
         <f t="shared" si="10"/>
@@ -58707,10 +58728,13 @@
       </c>
       <c r="E198" s="17">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z198">
         <v>2</v>
+      </c>
+      <c r="AE198">
+        <v>1</v>
       </c>
       <c r="BB198" s="9">
         <f>'2016'!D198</f>
@@ -58846,15 +58870,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58918,11 +58942,11 @@
       <c r="AC203" s="13"/>
       <c r="AD203" s="13">
         <f>SUM(AD3:AD201)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE203" s="13">
         <f>SUM(AE3:AE201)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AF203" s="13"/>
       <c r="AG203" s="13"/>
@@ -59061,7 +59085,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2387</v>
+        <v>2377</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59122,7 +59146,7 @@
       </c>
       <c r="AE205" s="13">
         <f>SUM(AD203:AE203)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF205" s="13"/>
       <c r="AG205" s="13"/>
@@ -75872,6 +75896,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75880,12 +75910,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52256,6 +52256,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52264,12 +52270,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52281,10 +52281,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE80" sqref="AE80"/>
+      <selection pane="bottomRight" activeCell="AH152" sqref="AH152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52551,7 +52551,7 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C66" si="0">SUM(BD3-D3-E3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(BB3-F3-J3-N3-R3-V3-Z3-AD3-AH3-AL3-AP3-AT3-AX3)</f>
@@ -52559,7 +52559,10 @@
       </c>
       <c r="E3" s="17">
         <f>SUM(BC3-G3-K3-O3-S3-W3-AA3-AE3-AI3-AM3-AQ3-AU3-AY3)</f>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="BB3" s="9">
         <f>'2016'!D3</f>
@@ -52609,7 +52612,7 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="1"/>
@@ -52617,12 +52620,15 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
         <v>1</v>
       </c>
       <c r="BB5" s="9">
@@ -52888,16 +52894,19 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
       <c r="BB14" s="9">
         <f>'2016'!D14</f>
         <v>1</v>
@@ -53958,7 +53967,7 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="1"/>
@@ -53966,7 +53975,10 @@
       </c>
       <c r="E48" s="17">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
       <c r="BB48" s="9">
         <f>'2016'!D48</f>
@@ -54016,7 +54028,7 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="1"/>
@@ -54024,7 +54036,10 @@
       </c>
       <c r="E50" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="BB50" s="9">
         <f>'2016'!D50</f>
@@ -54844,7 +54859,7 @@
       </c>
       <c r="C75" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" s="12">
         <f t="shared" si="4"/>
@@ -54852,13 +54867,16 @@
       </c>
       <c r="E75" s="17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
       </c>
       <c r="AA75">
         <v>2</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="BB75" s="9">
         <f>'2016'!D75</f>
@@ -55010,11 +55028,11 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" s="17">
         <f t="shared" si="4"/>
@@ -55026,6 +55044,9 @@
       <c r="AE80">
         <v>1</v>
       </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
       <c r="BB80" s="9">
         <f>'2016'!D80</f>
         <v>3</v>
@@ -55916,7 +55937,7 @@
       </c>
       <c r="C110" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="4"/>
@@ -55924,7 +55945,10 @@
       </c>
       <c r="E110" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="AI110">
+        <v>1</v>
       </c>
       <c r="BB110" s="9">
         <f>'2016'!D110</f>
@@ -56035,7 +56059,7 @@
       </c>
       <c r="C114" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="7">
         <f t="shared" si="4"/>
@@ -56043,7 +56067,10 @@
       </c>
       <c r="E114" s="17">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AI114">
+        <v>1</v>
       </c>
       <c r="BB114" s="9">
         <f>'2016'!D114</f>
@@ -56791,7 +56818,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56799,7 +56826,7 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -56814,6 +56841,9 @@
         <v>4</v>
       </c>
       <c r="AE138">
+        <v>1</v>
+      </c>
+      <c r="AI138">
         <v>1</v>
       </c>
       <c r="BB138" s="9">
@@ -57077,11 +57107,11 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E146" s="17">
         <f t="shared" si="7"/>
@@ -57090,6 +57120,9 @@
       <c r="AA146">
         <v>2</v>
       </c>
+      <c r="AH146">
+        <v>1</v>
+      </c>
       <c r="BB146" s="9">
         <f>'2016'!D146</f>
         <v>10</v>
@@ -57176,7 +57209,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57184,7 +57217,7 @@
       </c>
       <c r="E149" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -57202,7 +57235,7 @@
         <v>1</v>
       </c>
       <c r="AE149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
@@ -57305,11 +57338,11 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E152" s="17">
         <f t="shared" si="7"/>
@@ -57330,6 +57363,9 @@
       <c r="AA152">
         <v>2</v>
       </c>
+      <c r="AH152">
+        <v>1</v>
+      </c>
       <c r="BB152" s="9">
         <f>'2016'!D152</f>
         <v>8</v>
@@ -58342,20 +58378,26 @@
       </c>
       <c r="C186" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D186" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E186" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z186">
         <v>1</v>
       </c>
       <c r="AE186">
+        <v>1</v>
+      </c>
+      <c r="AH186">
+        <v>1</v>
+      </c>
+      <c r="AI186">
         <v>1</v>
       </c>
       <c r="BB186" s="9">
@@ -58870,15 +58912,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58946,17 +58988,17 @@
       </c>
       <c r="AE203" s="13">
         <f>SUM(AE3:AE201)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AF203" s="13"/>
       <c r="AG203" s="13"/>
       <c r="AH203" s="13">
         <f>SUM(AH3:AH201)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI203" s="13">
         <f>SUM(AI3:AI201)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ203" s="13"/>
       <c r="AK203" s="13"/>
@@ -59085,7 +59127,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2377</v>
+        <v>2362</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59146,7 +59188,7 @@
       </c>
       <c r="AE205" s="13">
         <f>SUM(AD203:AE203)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF205" s="13"/>
       <c r="AG205" s="13"/>
@@ -59155,7 +59197,7 @@
       </c>
       <c r="AI205" s="13">
         <f>SUM(AH203:AI203)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ205" s="13"/>
       <c r="AK205" s="13"/>
@@ -75896,12 +75938,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75910,6 +75946,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -27876,7 +27876,7 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
@@ -52284,7 +52284,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH152" sqref="AH152"/>
+      <selection pane="bottomRight" activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52679,7 +52679,7 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="1"/>
@@ -52687,9 +52687,12 @@
       </c>
       <c r="E7" s="17">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
         <v>1</v>
       </c>
       <c r="BB7" s="9">
@@ -53211,11 +53214,11 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="17">
         <f t="shared" si="1"/>
@@ -53227,6 +53230,9 @@
       <c r="Z24">
         <v>1</v>
       </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
       <c r="BB24" s="9">
         <f>'2016'!D24</f>
         <v>2</v>
@@ -53554,11 +53560,11 @@
       </c>
       <c r="C35" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="1"/>
@@ -53567,6 +53573,9 @@
       <c r="R35">
         <v>1</v>
       </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
       <c r="BB35" s="9">
         <f>'2016'!D35</f>
         <v>3</v>
@@ -53714,7 +53723,7 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="1"/>
@@ -53722,12 +53731,15 @@
       </c>
       <c r="E40" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
         <v>1</v>
       </c>
       <c r="BB40" s="9">
@@ -54124,7 +54136,7 @@
       </c>
       <c r="C53" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="17">
         <f t="shared" si="1"/>
@@ -54132,9 +54144,12 @@
       </c>
       <c r="E53" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
         <v>1</v>
       </c>
       <c r="BB53" s="9">
@@ -54360,7 +54375,7 @@
       </c>
       <c r="C60" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="1"/>
@@ -54368,7 +54383,10 @@
       </c>
       <c r="E60" s="17">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
       </c>
       <c r="BB60" s="9">
         <f>'2016'!D60</f>
@@ -54731,7 +54749,7 @@
       </c>
       <c r="C71" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="12">
         <f t="shared" si="4"/>
@@ -54739,7 +54757,10 @@
       </c>
       <c r="E71" s="17">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
       <c r="BB71" s="9">
         <f>'2016'!D71</f>
@@ -54929,16 +54950,19 @@
       </c>
       <c r="C77" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" s="17">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="AH77">
+        <v>2</v>
+      </c>
       <c r="BB77" s="9">
         <f>'2016'!D77</f>
         <v>3</v>
@@ -56649,7 +56673,7 @@
       </c>
       <c r="C133" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" s="17">
         <f t="shared" si="7"/>
@@ -56657,7 +56681,10 @@
       </c>
       <c r="E133" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AI133">
+        <v>1</v>
       </c>
       <c r="BB133" s="9">
         <f>'2016'!D133</f>
@@ -57209,7 +57236,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="7"/>
@@ -57217,7 +57244,7 @@
       </c>
       <c r="E149" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -57236,6 +57263,9 @@
       </c>
       <c r="AE149">
         <v>3</v>
+      </c>
+      <c r="AI149">
+        <v>1</v>
       </c>
       <c r="BB149" s="9">
         <f>'2016'!D149</f>
@@ -57873,11 +57903,11 @@
       </c>
       <c r="C169" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E169" s="17">
         <f t="shared" si="7"/>
@@ -57886,6 +57916,9 @@
       <c r="W169">
         <v>1</v>
       </c>
+      <c r="AH169">
+        <v>1</v>
+      </c>
       <c r="BB169" s="9">
         <f>'2016'!D169</f>
         <v>3</v>
@@ -58378,11 +58411,11 @@
       </c>
       <c r="C186" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D186" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E186" s="17">
         <f t="shared" si="7"/>
@@ -58394,8 +58427,8 @@
       <c r="AE186">
         <v>1</v>
       </c>
-      <c r="AH186">
-        <v>1</v>
+      <c r="AH186" s="23">
+        <v>4</v>
       </c>
       <c r="AI186">
         <v>1</v>
@@ -58419,7 +58452,7 @@
       </c>
       <c r="C187" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" s="7">
         <f t="shared" si="7"/>
@@ -58427,9 +58460,12 @@
       </c>
       <c r="E187" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W187">
+        <v>1</v>
+      </c>
+      <c r="AI187">
         <v>1</v>
       </c>
       <c r="BB187" s="9">
@@ -58695,7 +58731,7 @@
       </c>
       <c r="C196" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D196" s="12">
         <f t="shared" ref="D196:E201" si="10">SUM(BB196-F196-J196-N196-R196-V196-Z196-AD196-AH196-AL196-AP196-AT196-AX196)</f>
@@ -58703,12 +58739,15 @@
       </c>
       <c r="E196" s="17">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA196">
         <v>1</v>
       </c>
       <c r="AE196">
+        <v>1</v>
+      </c>
+      <c r="AI196">
         <v>1</v>
       </c>
       <c r="BB196" s="9">
@@ -58912,15 +58951,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -58994,11 +59033,11 @@
       <c r="AG203" s="13"/>
       <c r="AH203" s="13">
         <f>SUM(AH3:AH201)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AI203" s="13">
         <f>SUM(AI3:AI201)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ203" s="13"/>
       <c r="AK203" s="13"/>
@@ -59127,7 +59166,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2362</v>
+        <v>2344</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59197,7 +59236,7 @@
       </c>
       <c r="AI205" s="13">
         <f>SUM(AH203:AI203)</f>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ205" s="13"/>
       <c r="AK205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52256,12 +52256,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52270,6 +52264,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52281,10 +52281,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH27" sqref="AH27"/>
+      <selection pane="bottomRight" activeCell="AM42" sqref="AM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52612,7 +52612,7 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="1"/>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -52629,7 +52629,10 @@
         <v>1</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
       </c>
       <c r="BB5" s="9">
         <f>'2016'!D5</f>
@@ -52833,11 +52836,11 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" si="1"/>
@@ -52849,6 +52852,9 @@
       <c r="AE12">
         <v>1</v>
       </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
       <c r="BB12" s="9">
         <f>'2016'!D12</f>
         <v>5</v>
@@ -53150,7 +53156,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
@@ -53158,12 +53164,15 @@
       </c>
       <c r="E22" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
         <v>1</v>
       </c>
       <c r="BB22" s="9">
@@ -53694,16 +53703,19 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="17">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
       <c r="BB39" s="9">
         <f>'2016'!D39</f>
         <v>3</v>
@@ -53723,7 +53735,7 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="1"/>
@@ -53731,7 +53743,7 @@
       </c>
       <c r="E40" s="17">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
@@ -53740,6 +53752,9 @@
         <v>1</v>
       </c>
       <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>1</v>
       </c>
       <c r="BB40" s="9">
@@ -53761,7 +53776,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -53769,7 +53784,7 @@
       </c>
       <c r="E41" s="17">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -53778,6 +53793,9 @@
         <v>2</v>
       </c>
       <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
         <v>1</v>
       </c>
       <c r="BB41" s="9">
@@ -54136,7 +54154,7 @@
       </c>
       <c r="C53" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="17">
         <f t="shared" si="1"/>
@@ -54144,12 +54162,15 @@
       </c>
       <c r="E53" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE53">
         <v>1</v>
       </c>
       <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>1</v>
       </c>
       <c r="BB53" s="9">
@@ -54534,7 +54555,7 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="12">
         <f t="shared" si="1"/>
@@ -54542,7 +54563,10 @@
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AM64">
+        <v>1</v>
       </c>
       <c r="BB64" s="9">
         <f>'2016'!D64</f>
@@ -54749,7 +54773,7 @@
       </c>
       <c r="C71" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="12">
         <f t="shared" si="4"/>
@@ -54757,10 +54781,10 @@
       </c>
       <c r="E71" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB71" s="9">
         <f>'2016'!D71</f>
@@ -56612,16 +56636,19 @@
       </c>
       <c r="C131" s="8">
         <f t="shared" ref="C131:C194" si="6">SUM(BD131-D131-E131)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" s="17">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E131" s="17">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
       <c r="BB131" s="9">
         <f>'2016'!D131</f>
         <v>5</v>
@@ -56845,7 +56872,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56853,7 +56880,7 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -56871,6 +56898,9 @@
         <v>1</v>
       </c>
       <c r="AI138">
+        <v>2</v>
+      </c>
+      <c r="AM138">
         <v>1</v>
       </c>
       <c r="BB138" s="9">
@@ -57286,7 +57316,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -57294,7 +57324,7 @@
       </c>
       <c r="E150" s="17">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -57304,6 +57334,9 @@
       </c>
       <c r="S150">
         <v>3</v>
+      </c>
+      <c r="AM150">
+        <v>2</v>
       </c>
       <c r="BB150" s="9">
         <f>'2016'!D150</f>
@@ -57415,7 +57448,7 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
@@ -57423,12 +57456,15 @@
       </c>
       <c r="E153" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N153" s="1">
         <v>2</v>
       </c>
       <c r="AA153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>1</v>
       </c>
       <c r="BB153" s="9">
@@ -58411,7 +58447,7 @@
       </c>
       <c r="C186" s="8">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D186" s="7">
         <f t="shared" si="7"/>
@@ -58419,7 +58455,7 @@
       </c>
       <c r="E186" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z186">
         <v>1</v>
@@ -58431,7 +58467,7 @@
         <v>4</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB186" s="9">
         <f>'2016'!D186</f>
@@ -58836,7 +58872,7 @@
       </c>
       <c r="C199" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" s="12">
         <f t="shared" si="10"/>
@@ -58844,7 +58880,10 @@
       </c>
       <c r="E199" s="17">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AM199">
+        <v>1</v>
       </c>
       <c r="BB199" s="9">
         <f>'2016'!D199</f>
@@ -58951,15 +58990,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59033,21 +59072,21 @@
       <c r="AG203" s="13"/>
       <c r="AH203" s="13">
         <f>SUM(AH3:AH201)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI203" s="13">
         <f>SUM(AI3:AI201)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AJ203" s="13"/>
       <c r="AK203" s="13"/>
       <c r="AL203" s="13">
         <f>SUM(AL3:AL201)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM203" s="13">
         <f>SUM(AM3:AM201)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN203" s="13"/>
       <c r="AO203" s="13"/>
@@ -59166,7 +59205,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2344</v>
+        <v>2325</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59236,7 +59275,7 @@
       </c>
       <c r="AI205" s="13">
         <f>SUM(AH203:AI203)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AJ205" s="13"/>
       <c r="AK205" s="13"/>
@@ -59245,7 +59284,7 @@
       </c>
       <c r="AM205" s="13">
         <f>SUM(AL203:AM203)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN205" s="13"/>
       <c r="AO205" s="13"/>
@@ -75977,6 +76016,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -75985,12 +76030,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52284,7 +52284,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM42" sqref="AM42"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53776,7 +53776,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -53784,7 +53784,7 @@
       </c>
       <c r="E41" s="17">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -53796,6 +53796,9 @@
         <v>1</v>
       </c>
       <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>1</v>
       </c>
       <c r="BB41" s="9">
@@ -53997,7 +54000,7 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="1"/>
@@ -54005,9 +54008,12 @@
       </c>
       <c r="E48" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>1</v>
       </c>
       <c r="BB48" s="9">
@@ -55300,7 +55306,7 @@
       </c>
       <c r="C87" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" si="4"/>
@@ -55308,9 +55314,12 @@
       </c>
       <c r="E87" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>1</v>
       </c>
       <c r="BB87" s="9">
@@ -57939,11 +57948,11 @@
       </c>
       <c r="C169" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" s="17">
         <f t="shared" si="7"/>
@@ -57955,6 +57964,9 @@
       <c r="AH169">
         <v>1</v>
       </c>
+      <c r="AL169" s="23">
+        <v>1</v>
+      </c>
       <c r="BB169" s="9">
         <f>'2016'!D169</f>
         <v>3</v>
@@ -58767,7 +58779,7 @@
       </c>
       <c r="C196" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D196" s="12">
         <f t="shared" ref="D196:E201" si="10">SUM(BB196-F196-J196-N196-R196-V196-Z196-AD196-AH196-AL196-AP196-AT196-AX196)</f>
@@ -58775,7 +58787,7 @@
       </c>
       <c r="E196" s="17">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA196">
         <v>1</v>
@@ -58784,6 +58796,9 @@
         <v>1</v>
       </c>
       <c r="AI196">
+        <v>1</v>
+      </c>
+      <c r="AM196">
         <v>1</v>
       </c>
       <c r="BB196" s="9">
@@ -58805,17 +58820,20 @@
       </c>
       <c r="C197" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" s="7">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" s="17">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J197" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL197">
         <v>1</v>
       </c>
       <c r="BB197" s="9">
@@ -58990,15 +59008,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59082,11 +59100,11 @@
       <c r="AK203" s="13"/>
       <c r="AL203" s="13">
         <f>SUM(AL3:AL201)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM203" s="13">
         <f>SUM(AM3:AM201)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AN203" s="13"/>
       <c r="AO203" s="13"/>
@@ -59205,7 +59223,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59284,7 +59302,7 @@
       </c>
       <c r="AM205" s="13">
         <f>SUM(AL203:AM203)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AN205" s="13"/>
       <c r="AO205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52284,7 +52284,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AM1"/>
+      <selection pane="bottomRight" activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53604,16 +53604,19 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="17">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
       <c r="BB36" s="9">
         <f>'2016'!D36</f>
         <v>2</v>
@@ -53633,7 +53636,7 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="1"/>
@@ -53641,12 +53644,15 @@
       </c>
       <c r="E37" s="17">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>1</v>
       </c>
       <c r="BB37" s="9">
@@ -57325,7 +57331,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -57333,7 +57339,7 @@
       </c>
       <c r="E150" s="17">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -57345,7 +57351,7 @@
         <v>3</v>
       </c>
       <c r="AM150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB150" s="9">
         <f>'2016'!D150</f>
@@ -58820,17 +58826,20 @@
       </c>
       <c r="C197" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D197" s="7">
+        <v>3</v>
+      </c>
+      <c r="D197" s="12">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197" s="17">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J197" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH197" s="23">
         <v>1</v>
       </c>
       <c r="AL197">
@@ -59008,15 +59017,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59090,7 +59099,7 @@
       <c r="AG203" s="13"/>
       <c r="AH203" s="13">
         <f>SUM(AH3:AH201)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI203" s="13">
         <f>SUM(AI3:AI201)</f>
@@ -59100,11 +59109,11 @@
       <c r="AK203" s="13"/>
       <c r="AL203" s="13">
         <f>SUM(AL3:AL201)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM203" s="13">
         <f>SUM(AM3:AM201)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN203" s="13"/>
       <c r="AO203" s="13"/>
@@ -59223,7 +59232,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59293,7 +59302,7 @@
       </c>
       <c r="AI205" s="13">
         <f>SUM(AH203:AI203)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ205" s="13"/>
       <c r="AK205" s="13"/>
@@ -59302,7 +59311,7 @@
       </c>
       <c r="AM205" s="13">
         <f>SUM(AL203:AM203)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AN205" s="13"/>
       <c r="AO205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52284,7 +52284,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL36" sqref="AL36"/>
+      <selection pane="bottomRight" activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53057,7 +53057,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
@@ -53065,9 +53065,12 @@
       </c>
       <c r="E19" s="17">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
         <v>1</v>
       </c>
       <c r="BB19" s="9">
@@ -53156,7 +53159,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
@@ -53164,7 +53167,7 @@
       </c>
       <c r="E22" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -53173,6 +53176,9 @@
         <v>1</v>
       </c>
       <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
         <v>1</v>
       </c>
       <c r="BB22" s="9">
@@ -53948,15 +53954,18 @@
       </c>
       <c r="C46" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="17">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
       </c>
       <c r="BB46" s="9">
         <f>'2016'!D46</f>
@@ -54166,7 +54175,7 @@
       </c>
       <c r="C53" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="17">
         <f t="shared" si="1"/>
@@ -54174,7 +54183,7 @@
       </c>
       <c r="E53" s="17">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE53">
         <v>1</v>
@@ -54183,7 +54192,7 @@
         <v>1</v>
       </c>
       <c r="AM53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB53" s="9">
         <f>'2016'!D53</f>
@@ -54277,7 +54286,7 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="1"/>
@@ -54285,7 +54294,7 @@
       </c>
       <c r="E56" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -54300,6 +54309,9 @@
         <v>1</v>
       </c>
       <c r="AE56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
         <v>1</v>
       </c>
       <c r="BB56" s="9">
@@ -54502,11 +54514,11 @@
       <c r="B63" s="19"/>
       <c r="C63" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="17">
         <f t="shared" si="1"/>
@@ -54535,6 +54547,9 @@
       <c r="AG63" s="22"/>
       <c r="AJ63" s="21"/>
       <c r="AK63" s="22"/>
+      <c r="AL63" s="31">
+        <v>1</v>
+      </c>
       <c r="AN63" s="21"/>
       <c r="AO63" s="22"/>
       <c r="AR63" s="21"/>
@@ -54567,7 +54582,7 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="12">
         <f t="shared" si="1"/>
@@ -54575,10 +54590,10 @@
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB64" s="9">
         <f>'2016'!D64</f>
@@ -55088,7 +55103,7 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="4"/>
@@ -55096,7 +55111,7 @@
       </c>
       <c r="E80" s="17">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" s="1">
         <v>4</v>
@@ -55105,6 +55120,9 @@
         <v>1</v>
       </c>
       <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>1</v>
       </c>
       <c r="BB80" s="9">
@@ -56485,7 +56503,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" s="12">
         <f t="shared" si="4"/>
@@ -56493,13 +56511,16 @@
       </c>
       <c r="E126" s="17">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O126" s="1">
         <v>2</v>
       </c>
       <c r="S126">
         <v>2</v>
+      </c>
+      <c r="AM126">
+        <v>1</v>
       </c>
       <c r="BB126" s="9">
         <f>'2016'!D126</f>
@@ -56520,11 +56541,11 @@
       </c>
       <c r="C127" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D127" s="17">
+        <v>6</v>
+      </c>
+      <c r="D127" s="12">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E127" s="17">
         <f t="shared" si="4"/>
@@ -56539,6 +56560,9 @@
       <c r="AA127">
         <v>1</v>
       </c>
+      <c r="AL127" s="31">
+        <v>2</v>
+      </c>
       <c r="BB127" s="9">
         <f>'2016'!D127</f>
         <v>5</v>
@@ -56817,11 +56841,11 @@
       </c>
       <c r="C136" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136" s="17">
         <f t="shared" si="7"/>
@@ -56830,6 +56854,9 @@
       <c r="J136" s="1">
         <v>1</v>
       </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
       <c r="BB136" s="9">
         <f>'2016'!D136</f>
         <v>4</v>
@@ -57179,7 +57206,7 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
@@ -57187,12 +57214,15 @@
       </c>
       <c r="E146" s="17">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA146">
         <v>2</v>
       </c>
       <c r="AH146">
+        <v>1</v>
+      </c>
+      <c r="AQ146">
         <v>1</v>
       </c>
       <c r="BB146" s="9">
@@ -57331,7 +57361,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D150" s="12">
         <f t="shared" si="7"/>
@@ -57339,7 +57369,7 @@
       </c>
       <c r="E150" s="17">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -57351,7 +57381,10 @@
         <v>3</v>
       </c>
       <c r="AM150">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
       </c>
       <c r="BB150" s="9">
         <f>'2016'!D150</f>
@@ -59017,15 +59050,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59109,11 +59142,11 @@
       <c r="AK203" s="13"/>
       <c r="AL203" s="13">
         <f>SUM(AL3:AL201)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AM203" s="13">
         <f>SUM(AM3:AM201)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AN203" s="13"/>
       <c r="AO203" s="13"/>
@@ -59123,7 +59156,7 @@
       </c>
       <c r="AQ203" s="13">
         <f>SUM(AQ3:AQ201)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR203" s="13"/>
       <c r="AS203" s="13"/>
@@ -59232,7 +59265,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2315</v>
+        <v>2300</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59311,7 +59344,7 @@
       </c>
       <c r="AM205" s="13">
         <f>SUM(AL203:AM203)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AN205" s="13"/>
       <c r="AO205" s="13"/>
@@ -59320,7 +59353,7 @@
       </c>
       <c r="AQ205" s="13">
         <f>SUM(AP203:AQ203)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR205" s="13"/>
       <c r="AS205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52256,6 +52256,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52264,12 +52270,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52281,10 +52281,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AK162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ18" sqref="AQ18"/>
+      <selection pane="bottomRight" activeCell="AL127" sqref="AL127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54015,7 +54015,7 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="1"/>
@@ -54023,12 +54023,15 @@
       </c>
       <c r="E48" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
         <v>1</v>
       </c>
       <c r="BB48" s="9">
@@ -54050,7 +54053,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="12">
         <f t="shared" si="1"/>
@@ -54058,7 +54061,10 @@
       </c>
       <c r="E49" s="17">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="AQ49">
+        <v>2</v>
       </c>
       <c r="BB49" s="9">
         <f>'2016'!D49</f>
@@ -54079,7 +54085,7 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="1"/>
@@ -54087,9 +54093,12 @@
       </c>
       <c r="E50" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
         <v>1</v>
       </c>
       <c r="BB50" s="9">
@@ -54736,11 +54745,11 @@
       </c>
       <c r="C69" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" s="17">
         <f t="shared" si="4"/>
@@ -54752,6 +54761,9 @@
       <c r="O69" s="1">
         <v>1</v>
       </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
       <c r="BB69" s="9">
         <f>'2016'!D69</f>
         <v>3</v>
@@ -55001,11 +55013,11 @@
       </c>
       <c r="C77" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D77" s="7">
+        <v>3</v>
+      </c>
+      <c r="D77" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="17">
         <f t="shared" si="4"/>
@@ -55014,6 +55026,9 @@
       <c r="AH77">
         <v>2</v>
       </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
       <c r="BB77" s="9">
         <f>'2016'!D77</f>
         <v>3</v>
@@ -55035,7 +55050,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -56707,11 +56722,11 @@
       </c>
       <c r="C132" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D132" s="7">
+        <v>3</v>
+      </c>
+      <c r="D132" s="12">
         <f t="shared" ref="D132:E195" si="7">SUM(BB132-F132-J132-N132-R132-V132-Z132-AD132-AH132-AL132-AP132-AT132-AX132)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" s="17">
         <f t="shared" si="7"/>
@@ -56720,6 +56735,9 @@
       <c r="AD132">
         <v>2</v>
       </c>
+      <c r="AP132">
+        <v>1</v>
+      </c>
       <c r="BB132" s="9">
         <f>'2016'!D132</f>
         <v>3</v>
@@ -56964,7 +56982,7 @@
       </c>
       <c r="C139" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" s="17">
         <f t="shared" si="7"/>
@@ -56972,7 +56990,7 @@
       </c>
       <c r="E139" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J139" s="1">
         <v>1</v>
@@ -56984,6 +57002,9 @@
         <v>1</v>
       </c>
       <c r="V139">
+        <v>1</v>
+      </c>
+      <c r="AQ139">
         <v>1</v>
       </c>
       <c r="BB139" s="9">
@@ -58350,7 +58371,7 @@
       </c>
       <c r="C181" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" s="7">
         <f t="shared" si="7"/>
@@ -58358,7 +58379,10 @@
       </c>
       <c r="E181" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AQ181">
+        <v>1</v>
       </c>
       <c r="BB181" s="9">
         <f>'2016'!D181</f>
@@ -59050,15 +59074,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59152,11 +59176,11 @@
       <c r="AO203" s="13"/>
       <c r="AP203" s="13">
         <f>SUM(AP3:AP201)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ203" s="13">
         <f>SUM(AQ3:AQ201)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AR203" s="13"/>
       <c r="AS203" s="13"/>
@@ -59265,7 +59289,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2300</v>
+        <v>2291</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59353,7 +59377,7 @@
       </c>
       <c r="AQ205" s="13">
         <f>SUM(AP203:AQ203)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AR205" s="13"/>
       <c r="AS205" s="13"/>
@@ -76076,12 +76100,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -76090,6 +76108,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52281,10 +52281,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AK162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL127" sqref="AL127"/>
+      <selection pane="bottomRight" activeCell="AU125" sqref="AU125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52612,15 +52612,15 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D5" s="17">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -52632,6 +52632,9 @@
         <v>2</v>
       </c>
       <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AQ5">
         <v>2</v>
       </c>
       <c r="BB5" s="9">
@@ -53788,7 +53791,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="1"/>
@@ -53796,7 +53799,7 @@
       </c>
       <c r="E41" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -53811,6 +53814,9 @@
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
         <v>1</v>
       </c>
       <c r="BB41" s="9">
@@ -54523,11 +54529,11 @@
       <c r="B63" s="19"/>
       <c r="C63" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="17">
         <f t="shared" si="1"/>
@@ -54561,6 +54567,9 @@
       </c>
       <c r="AN63" s="21"/>
       <c r="AO63" s="22"/>
+      <c r="AP63" s="23">
+        <v>1</v>
+      </c>
       <c r="AR63" s="21"/>
       <c r="AS63" s="22"/>
       <c r="AV63" s="21"/>
@@ -56216,7 +56225,7 @@
       </c>
       <c r="C116" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="17">
         <f t="shared" si="4"/>
@@ -56224,9 +56233,12 @@
       </c>
       <c r="E116" s="17">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N116" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ116">
         <v>1</v>
       </c>
       <c r="BB116" s="9">
@@ -56451,7 +56463,7 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
@@ -56459,7 +56471,7 @@
       </c>
       <c r="E124" s="17">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -56468,6 +56480,9 @@
         <v>2</v>
       </c>
       <c r="Z124">
+        <v>1</v>
+      </c>
+      <c r="AU124">
         <v>1</v>
       </c>
       <c r="BB124" s="9">
@@ -56556,7 +56571,7 @@
       </c>
       <c r="C127" s="8">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D127" s="12">
         <f t="shared" si="4"/>
@@ -56564,7 +56579,7 @@
       </c>
       <c r="E127" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V127">
         <v>2</v>
@@ -56577,6 +56592,9 @@
       </c>
       <c r="AL127" s="31">
         <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>1</v>
       </c>
       <c r="BB127" s="9">
         <f>'2016'!D127</f>
@@ -57660,7 +57678,7 @@
       </c>
       <c r="C157" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="7"/>
@@ -57668,7 +57686,10 @@
       </c>
       <c r="E157" s="17">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
       </c>
       <c r="BB157" s="9">
         <f>'2016'!D157</f>
@@ -58522,7 +58543,7 @@
       </c>
       <c r="C186" s="8">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" s="7">
         <f t="shared" si="7"/>
@@ -58530,7 +58551,7 @@
       </c>
       <c r="E186" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z186">
         <v>1</v>
@@ -58543,6 +58564,9 @@
       </c>
       <c r="AI186">
         <v>2</v>
+      </c>
+      <c r="AQ186">
+        <v>1</v>
       </c>
       <c r="BB186" s="9">
         <f>'2016'!D186</f>
@@ -58627,11 +58651,11 @@
       </c>
       <c r="C189" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" s="17">
         <f t="shared" si="7"/>
@@ -58640,6 +58664,9 @@
       <c r="AE189">
         <v>1</v>
       </c>
+      <c r="AP189">
+        <v>1</v>
+      </c>
       <c r="BB189" s="9">
         <f>'2016'!D189</f>
         <v>2</v>
@@ -58781,7 +58808,7 @@
       </c>
       <c r="C194" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" s="12">
         <f t="shared" si="7"/>
@@ -58789,9 +58816,12 @@
       </c>
       <c r="E194" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z194">
+        <v>1</v>
+      </c>
+      <c r="AQ194">
         <v>1</v>
       </c>
       <c r="BB194" s="9">
@@ -58842,7 +58872,7 @@
       </c>
       <c r="C196" s="8">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D196" s="12">
         <f t="shared" ref="D196:E201" si="10">SUM(BB196-F196-J196-N196-R196-V196-Z196-AD196-AH196-AL196-AP196-AT196-AX196)</f>
@@ -58850,7 +58880,7 @@
       </c>
       <c r="E196" s="17">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA196">
         <v>1</v>
@@ -58862,6 +58892,9 @@
         <v>1</v>
       </c>
       <c r="AM196">
+        <v>1</v>
+      </c>
+      <c r="AQ196">
         <v>1</v>
       </c>
       <c r="BB196" s="9">
@@ -59074,15 +59107,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59176,11 +59209,11 @@
       <c r="AO203" s="13"/>
       <c r="AP203" s="13">
         <f>SUM(AP3:AP201)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ203" s="13">
         <f>SUM(AQ3:AQ201)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AR203" s="13"/>
       <c r="AS203" s="13"/>
@@ -59190,7 +59223,7 @@
       </c>
       <c r="AU203" s="13">
         <f>SUM(AU3:AU201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV203" s="13"/>
       <c r="AW203" s="13"/>
@@ -59289,7 +59322,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2291</v>
+        <v>2279</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59377,7 +59410,7 @@
       </c>
       <c r="AQ205" s="13">
         <f>SUM(AP203:AQ203)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AR205" s="13"/>
       <c r="AS205" s="13"/>
@@ -59386,7 +59419,7 @@
       </c>
       <c r="AU205" s="13">
         <f>SUM(AT203:AU203)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV205" s="13"/>
       <c r="AW205" s="13"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52256,12 +52256,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52270,6 +52264,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52284,7 +52284,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU125" sqref="AU125"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52612,15 +52612,15 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -52636,6 +52636,9 @@
       </c>
       <c r="AQ5">
         <v>2</v>
+      </c>
+      <c r="AU5">
+        <v>3</v>
       </c>
       <c r="BB5" s="9">
         <f>'2016'!D5</f>
@@ -53549,7 +53552,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="1"/>
@@ -53557,7 +53560,10 @@
       </c>
       <c r="E34" s="17">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
       </c>
       <c r="BB34" s="9">
         <f>'2016'!D34</f>
@@ -54021,7 +54027,7 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="1"/>
@@ -54029,7 +54035,7 @@
       </c>
       <c r="E48" s="17">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI48">
         <v>1</v>
@@ -54038,6 +54044,9 @@
         <v>1</v>
       </c>
       <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AU48">
         <v>1</v>
       </c>
       <c r="BB48" s="9">
@@ -56463,7 +56472,7 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
@@ -56471,7 +56480,7 @@
       </c>
       <c r="E124" s="17">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -56483,7 +56492,7 @@
         <v>1</v>
       </c>
       <c r="AU124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB124" s="9">
         <f>'2016'!D124</f>
@@ -56912,7 +56921,7 @@
       </c>
       <c r="C137" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137" s="17">
         <f t="shared" si="7"/>
@@ -56920,7 +56929,7 @@
       </c>
       <c r="E137" s="17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N137" s="1">
         <v>1</v>
@@ -56929,6 +56938,9 @@
         <v>1</v>
       </c>
       <c r="Z137">
+        <v>1</v>
+      </c>
+      <c r="AQ137">
         <v>1</v>
       </c>
       <c r="BB137" s="9">
@@ -59107,7 +59119,7 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
@@ -59115,7 +59127,7 @@
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59213,7 +59225,7 @@
       </c>
       <c r="AQ203" s="13">
         <f>SUM(AQ3:AQ201)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR203" s="13"/>
       <c r="AS203" s="13"/>
@@ -59223,7 +59235,7 @@
       </c>
       <c r="AU203" s="13">
         <f>SUM(AU3:AU201)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AV203" s="13"/>
       <c r="AW203" s="13"/>
@@ -59322,7 +59334,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59410,7 +59422,7 @@
       </c>
       <c r="AQ205" s="13">
         <f>SUM(AP203:AQ203)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR205" s="13"/>
       <c r="AS205" s="13"/>
@@ -59419,7 +59431,7 @@
       </c>
       <c r="AU205" s="13">
         <f>SUM(AT203:AU203)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AV205" s="13"/>
       <c r="AW205" s="13"/>
@@ -76133,6 +76145,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -76141,12 +76159,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52256,6 +52256,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52264,12 +52270,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52281,10 +52281,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53552,7 +53552,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="1"/>
@@ -53560,10 +53560,10 @@
       </c>
       <c r="E34" s="17">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AQ34">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="AU34">
+        <v>2</v>
       </c>
       <c r="BB34" s="9">
         <f>'2016'!D34</f>
@@ -53799,7 +53799,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -53844,16 +53844,19 @@
       </c>
       <c r="C42" s="8">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="D42" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="E42" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="AT42">
+        <v>1</v>
+      </c>
       <c r="BB42" s="9">
         <f>'2016'!D42</f>
         <v>1</v>
@@ -54199,7 +54202,7 @@
       </c>
       <c r="C53" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D53" s="17">
         <f t="shared" si="1"/>
@@ -54207,7 +54210,7 @@
       </c>
       <c r="E53" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE53">
         <v>1</v>
@@ -54216,6 +54219,9 @@
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>2</v>
+      </c>
+      <c r="AU53">
         <v>2</v>
       </c>
       <c r="BB53" s="9">
@@ -56962,7 +56968,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56970,7 +56976,7 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -56991,6 +56997,9 @@
         <v>2</v>
       </c>
       <c r="AM138">
+        <v>1</v>
+      </c>
+      <c r="AU138">
         <v>1</v>
       </c>
       <c r="BB138" s="9">
@@ -57257,7 +57266,7 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
@@ -57265,7 +57274,7 @@
       </c>
       <c r="E146" s="17">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA146">
         <v>2</v>
@@ -57274,6 +57283,9 @@
         <v>1</v>
       </c>
       <c r="AQ146">
+        <v>1</v>
+      </c>
+      <c r="AU146">
         <v>1</v>
       </c>
       <c r="BB146" s="9">
@@ -58820,7 +58832,7 @@
       </c>
       <c r="C194" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194" s="12">
         <f t="shared" si="7"/>
@@ -58828,12 +58840,15 @@
       </c>
       <c r="E194" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z194">
         <v>1</v>
       </c>
       <c r="AQ194">
+        <v>1</v>
+      </c>
+      <c r="AU194">
         <v>1</v>
       </c>
       <c r="BB194" s="9">
@@ -58928,7 +58943,7 @@
       </c>
       <c r="C197" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D197" s="12">
         <f t="shared" si="10"/>
@@ -58936,7 +58951,7 @@
       </c>
       <c r="E197" s="17">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J197" s="1">
         <v>1</v>
@@ -58945,6 +58960,9 @@
         <v>1</v>
       </c>
       <c r="AL197">
+        <v>1</v>
+      </c>
+      <c r="AU197">
         <v>1</v>
       </c>
       <c r="BB197" s="9">
@@ -59119,15 +59137,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59225,17 +59243,17 @@
       </c>
       <c r="AQ203" s="13">
         <f>SUM(AQ3:AQ201)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR203" s="13"/>
       <c r="AS203" s="13"/>
       <c r="AT203" s="13">
         <f>SUM(AT3:AT201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU203" s="13">
         <f>SUM(AU3:AU201)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AV203" s="13"/>
       <c r="AW203" s="13"/>
@@ -59334,7 +59352,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2272</v>
+        <v>2264</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59422,7 +59440,7 @@
       </c>
       <c r="AQ205" s="13">
         <f>SUM(AP203:AQ203)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR205" s="13"/>
       <c r="AS205" s="13"/>
@@ -59431,7 +59449,7 @@
       </c>
       <c r="AU205" s="13">
         <f>SUM(AT203:AU203)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AV205" s="13"/>
       <c r="AW205" s="13"/>
@@ -76145,12 +76163,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -76159,6 +76171,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="36">
   <si>
     <t>No clip</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>resend</t>
+  </si>
+  <si>
+    <t>50 от алиекспрес</t>
   </si>
 </sst>
 </file>
@@ -616,13 +619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN470"/>
+  <dimension ref="A1:BO470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AN72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BN109" sqref="BN109"/>
+      <selection pane="bottomRight" activeCell="BO5" sqref="BO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,7 +672,7 @@
     <col min="66" max="66" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="4" customFormat="1">
+    <row r="1" spans="1:67" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -774,7 +777,7 @@
       <c r="BL1" s="7"/>
       <c r="BN1" s="7"/>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:67">
       <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
@@ -908,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:67">
       <c r="A3" s="2">
         <v>10001</v>
       </c>
@@ -955,7 +958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:67">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
@@ -993,7 +996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:67">
       <c r="A5" s="2">
         <v>10003</v>
       </c>
@@ -1007,7 +1010,7 @@
       </c>
       <c r="E5" s="7">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1045,11 +1048,11 @@
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BE5" s="1">
         <v>5</v>
@@ -1064,10 +1067,13 @@
         <v>25</v>
       </c>
       <c r="BN5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66">
+        <v>150</v>
+      </c>
+      <c r="BO5" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67">
       <c r="A6" s="25">
         <v>10004</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:67">
       <c r="A7" s="2">
         <v>10005</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:67">
       <c r="A8" s="2">
         <v>10006</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:67">
       <c r="A9" s="2">
         <v>10007</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:67">
       <c r="A10" s="2">
         <v>10008</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:67">
       <c r="A11" s="2">
         <v>10009</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:67">
       <c r="A12" s="19">
         <v>10010</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:67">
       <c r="A13" s="25">
         <v>10011</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:67">
       <c r="A14" s="2">
         <v>10012</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:67">
       <c r="A15" s="2">
         <v>10013</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:66">
+    <row r="16" spans="1:67">
       <c r="A16" s="2">
         <v>10014</v>
       </c>
@@ -11091,7 +11097,7 @@
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>2100</v>
+        <v>2105</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -11290,7 +11296,7 @@
       </c>
       <c r="BN204" s="2">
         <f>SUM(BN3:BN201)</f>
-        <v>6800</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="205" spans="1:66">
@@ -11302,7 +11308,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>3096</v>
+        <v>3101</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -11416,7 +11422,7 @@
       <c r="BC205" s="15"/>
       <c r="BD205" s="15">
         <f>SUM(BD3:BD201)</f>
-        <v>4300</v>
+        <v>4305</v>
       </c>
       <c r="BE205" s="15"/>
       <c r="BG205" s="15"/>
@@ -27867,7 +27873,7 @@
     <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28230,7 +28236,7 @@
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -28253,11 +28259,11 @@
       </c>
       <c r="BC5" s="9">
         <f>'2015'!E5</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -35238,7 +35244,7 @@
       </c>
       <c r="E203" s="15">
         <f>SUM(E3:E201)</f>
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -35445,7 +35451,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15">
         <f>SUM(D203+E203)</f>
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -35559,7 +35565,7 @@
       <c r="BC205" s="15"/>
       <c r="BD205" s="15">
         <f>SUM(BD3:BD201)</f>
-        <v>3096</v>
+        <v>3101</v>
       </c>
       <c r="BE205" s="15"/>
       <c r="BG205" s="15"/>
@@ -52256,12 +52262,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52270,6 +52270,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52281,10 +52287,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ34" sqref="AQ34"/>
+      <selection pane="bottomRight" activeCell="AY124" sqref="AY124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52553,7 +52559,7 @@
         <f t="shared" ref="C3:C66" si="0">SUM(BD3-D3-E3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="12">
         <f>SUM(BB3-F3-J3-N3-R3-V3-Z3-AD3-AH3-AL3-AP3-AT3-AX3)</f>
         <v>0</v>
       </c>
@@ -52612,7 +52618,7 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
@@ -52620,7 +52626,7 @@
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -52638,7 +52644,7 @@
         <v>2</v>
       </c>
       <c r="AU5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB5" s="9">
         <f>'2016'!D5</f>
@@ -52646,11 +52652,11 @@
       </c>
       <c r="BC5" s="9">
         <f>'2016'!E5</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -52941,7 +52947,7 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
@@ -52949,7 +52955,10 @@
       </c>
       <c r="E15" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
       </c>
       <c r="BB15" s="9">
         <f>'2016'!D15</f>
@@ -53065,7 +53074,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -53165,7 +53174,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
@@ -53173,7 +53182,7 @@
       </c>
       <c r="E22" s="17">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -53185,6 +53194,9 @@
         <v>1</v>
       </c>
       <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
         <v>1</v>
       </c>
       <c r="BB22" s="9">
@@ -53423,7 +53435,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -53651,7 +53663,7 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="1"/>
@@ -53659,7 +53671,7 @@
       </c>
       <c r="E37" s="17">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -53668,6 +53680,9 @@
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AU37">
         <v>1</v>
       </c>
       <c r="BB37" s="9">
@@ -54071,7 +54086,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" s="12">
         <f t="shared" si="1"/>
@@ -54079,9 +54094,12 @@
       </c>
       <c r="E49" s="17">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ49">
+        <v>2</v>
+      </c>
+      <c r="AY49">
         <v>2</v>
       </c>
       <c r="BB49" s="9">
@@ -54103,7 +54121,7 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="1"/>
@@ -54111,12 +54129,15 @@
       </c>
       <c r="E50" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE50">
         <v>1</v>
       </c>
       <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AU50">
         <v>1</v>
       </c>
       <c r="BB50" s="9">
@@ -54243,7 +54264,7 @@
       </c>
       <c r="C54" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" s="12">
         <f t="shared" si="1"/>
@@ -54251,7 +54272,13 @@
       </c>
       <c r="E54" s="17">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="AU54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>1</v>
       </c>
       <c r="BB54" s="9">
         <f>'2016'!D54</f>
@@ -54316,7 +54343,7 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="1"/>
@@ -54324,7 +54351,7 @@
       </c>
       <c r="E56" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -54342,6 +54369,9 @@
         <v>1</v>
       </c>
       <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AY56">
         <v>1</v>
       </c>
       <c r="BB56" s="9">
@@ -54511,7 +54541,7 @@
       </c>
       <c r="C62" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="12">
         <f t="shared" si="1"/>
@@ -54519,9 +54549,12 @@
       </c>
       <c r="E62" s="17">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY62">
         <v>1</v>
       </c>
       <c r="BB62" s="9">
@@ -54737,7 +54770,7 @@
       </c>
       <c r="C68" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ref="D68:E131" si="4">SUM(BB68-F68-J68-N68-R68-V68-Z68-AD68-AH68-AL68-AP68-AT68-AX68)</f>
@@ -54745,9 +54778,12 @@
       </c>
       <c r="E68" s="17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
         <v>1</v>
       </c>
       <c r="BB68" s="9">
@@ -54836,7 +54872,7 @@
       </c>
       <c r="C71" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="12">
         <f t="shared" si="4"/>
@@ -54844,10 +54880,13 @@
       </c>
       <c r="E71" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI71">
         <v>2</v>
+      </c>
+      <c r="AU71">
+        <v>1</v>
       </c>
       <c r="BB71" s="9">
         <f>'2016'!D71</f>
@@ -55037,7 +55076,7 @@
       </c>
       <c r="C77" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" s="12">
         <f t="shared" si="4"/>
@@ -55045,12 +55084,15 @@
       </c>
       <c r="E77" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH77">
         <v>2</v>
       </c>
       <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AY77">
         <v>1</v>
       </c>
       <c r="BB77" s="9">
@@ -56420,7 +56462,7 @@
       </c>
       <c r="C122" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="7">
         <f t="shared" si="4"/>
@@ -56428,7 +56470,10 @@
       </c>
       <c r="E122" s="17">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="AU122">
+        <v>1</v>
       </c>
       <c r="BB122" s="9">
         <f>'2016'!D122</f>
@@ -56478,7 +56523,7 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="4"/>
@@ -56486,7 +56531,7 @@
       </c>
       <c r="E124" s="17">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -56498,6 +56543,9 @@
         <v>1</v>
       </c>
       <c r="AU124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
         <v>2</v>
       </c>
       <c r="BB124" s="9">
@@ -56548,7 +56596,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126" s="12">
         <f t="shared" si="4"/>
@@ -56556,7 +56604,7 @@
       </c>
       <c r="E126" s="17">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O126" s="1">
         <v>2</v>
@@ -56565,6 +56613,9 @@
         <v>2</v>
       </c>
       <c r="AM126">
+        <v>1</v>
+      </c>
+      <c r="AY126">
         <v>1</v>
       </c>
       <c r="BB126" s="9">
@@ -56586,7 +56637,7 @@
       </c>
       <c r="C127" s="8">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D127" s="12">
         <f t="shared" si="4"/>
@@ -56594,7 +56645,7 @@
       </c>
       <c r="E127" s="17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V127">
         <v>2</v>
@@ -56610,6 +56661,9 @@
       </c>
       <c r="AQ127">
         <v>1</v>
+      </c>
+      <c r="AU127">
+        <v>2</v>
       </c>
       <c r="BB127" s="9">
         <f>'2016'!D127</f>
@@ -56723,7 +56777,7 @@
       </c>
       <c r="C131" s="8">
         <f t="shared" ref="C131:C194" si="6">SUM(BD131-D131-E131)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" s="17">
         <f t="shared" si="4"/>
@@ -56731,9 +56785,12 @@
       </c>
       <c r="E131" s="17">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AY131">
         <v>1</v>
       </c>
       <c r="BB131" s="9">
@@ -56822,7 +56879,7 @@
       </c>
       <c r="C134" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" s="7">
         <f t="shared" si="7"/>
@@ -56830,9 +56887,12 @@
       </c>
       <c r="E134" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE134">
+        <v>1</v>
+      </c>
+      <c r="AU134">
         <v>1</v>
       </c>
       <c r="BB134" s="9">
@@ -56968,7 +57028,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="7"/>
@@ -56976,7 +57036,7 @@
       </c>
       <c r="E138" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -57000,7 +57060,7 @@
         <v>1</v>
       </c>
       <c r="AU138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB138" s="9">
         <f>'2016'!D138</f>
@@ -57021,11 +57081,11 @@
       </c>
       <c r="C139" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D139" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E139" s="17">
         <f t="shared" si="7"/>
@@ -57046,6 +57106,9 @@
       <c r="AQ139">
         <v>1</v>
       </c>
+      <c r="AX139">
+        <v>1</v>
+      </c>
       <c r="BB139" s="9">
         <f>'2016'!D139</f>
         <v>8</v>
@@ -57266,11 +57329,11 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E146" s="17">
         <f t="shared" si="7"/>
@@ -57285,6 +57348,9 @@
       <c r="AQ146">
         <v>1</v>
       </c>
+      <c r="AT146">
+        <v>1</v>
+      </c>
       <c r="AU146">
         <v>1</v>
       </c>
@@ -57376,7 +57442,7 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -57470,7 +57536,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -57559,7 +57625,7 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
@@ -57567,7 +57633,7 @@
       </c>
       <c r="E153" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N153" s="1">
         <v>2</v>
@@ -57577,6 +57643,9 @@
       </c>
       <c r="AM153">
         <v>1</v>
+      </c>
+      <c r="AU153">
+        <v>2</v>
       </c>
       <c r="BB153" s="9">
         <f>'2016'!D153</f>
@@ -57792,7 +57861,7 @@
       </c>
       <c r="C160" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" s="17">
         <f t="shared" si="7"/>
@@ -57800,7 +57869,10 @@
       </c>
       <c r="E160" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="AY160">
+        <v>1</v>
       </c>
       <c r="BB160" s="9">
         <f>'2016'!D160</f>
@@ -58152,7 +58224,7 @@
       </c>
       <c r="C172" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" s="17">
         <f t="shared" si="7"/>
@@ -58160,7 +58232,10 @@
       </c>
       <c r="E172" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="AY172">
+        <v>1</v>
       </c>
       <c r="BB172" s="9">
         <f>'2016'!D172</f>
@@ -58329,7 +58404,7 @@
       </c>
       <c r="C178" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" s="7">
         <f t="shared" si="7"/>
@@ -58337,7 +58412,10 @@
       </c>
       <c r="E178" s="17">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AY178">
+        <v>1</v>
       </c>
       <c r="BB178" s="9">
         <f>'2016'!D178</f>
@@ -58569,7 +58647,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -58832,7 +58910,7 @@
       </c>
       <c r="C194" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D194" s="12">
         <f t="shared" si="7"/>
@@ -58840,7 +58918,7 @@
       </c>
       <c r="E194" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z194">
         <v>1</v>
@@ -58849,7 +58927,7 @@
         <v>1</v>
       </c>
       <c r="AU194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB194" s="9">
         <f>'2016'!D194</f>
@@ -58899,7 +58977,7 @@
       </c>
       <c r="C196" s="8">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D196" s="12">
         <f t="shared" ref="D196:E201" si="10">SUM(BB196-F196-J196-N196-R196-V196-Z196-AD196-AH196-AL196-AP196-AT196-AX196)</f>
@@ -58907,7 +58985,7 @@
       </c>
       <c r="E196" s="17">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA196">
         <v>1</v>
@@ -58922,6 +59000,12 @@
         <v>1</v>
       </c>
       <c r="AQ196">
+        <v>1</v>
+      </c>
+      <c r="AU196">
+        <v>1</v>
+      </c>
+      <c r="AY196">
         <v>1</v>
       </c>
       <c r="BB196" s="9">
@@ -59137,15 +59221,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1623</v>
+        <v>1595</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59249,21 +59333,21 @@
       <c r="AS203" s="13"/>
       <c r="AT203" s="13">
         <f>SUM(AT3:AT201)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU203" s="13">
         <f>SUM(AU3:AU201)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AV203" s="13"/>
       <c r="AW203" s="13"/>
       <c r="AX203" s="13">
         <f>SUM(AX3:AX201)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY203" s="13">
         <f>SUM(AY3:AY201)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AZ203" s="13"/>
       <c r="BA203" s="13"/>
@@ -59352,7 +59436,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2264</v>
+        <v>2234</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59449,7 +59533,7 @@
       </c>
       <c r="AU205" s="13">
         <f>SUM(AT203:AU203)</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AV205" s="13"/>
       <c r="AW205" s="13"/>
@@ -59458,7 +59542,7 @@
       </c>
       <c r="AY205" s="13">
         <f>SUM(AX203:AY203)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AZ205" s="13"/>
       <c r="BA205" s="13"/>
@@ -59466,7 +59550,7 @@
       <c r="BC205" s="15"/>
       <c r="BD205" s="15">
         <f>SUM(BD3:BD201)</f>
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="BE205" s="15"/>
       <c r="BG205" s="15"/>
@@ -76163,6 +76247,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -76171,12 +76261,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clips_Inventory_16.xlsx
+++ b/Clips_Inventory_16.xlsx
@@ -52262,6 +52262,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -52270,12 +52276,6 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52287,10 +52287,10 @@
   <dimension ref="A1:BL470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AU163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY124" sqref="AY124"/>
+      <selection pane="bottomRight" activeCell="AY198" sqref="AY198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52618,7 +52618,7 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
@@ -52626,7 +52626,7 @@
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -52645,6 +52645,9 @@
       </c>
       <c r="AU5">
         <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
       </c>
       <c r="BB5" s="9">
         <f>'2016'!D5</f>
@@ -54086,7 +54089,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="12">
         <f t="shared" si="1"/>
@@ -54094,13 +54097,13 @@
       </c>
       <c r="E49" s="17">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ49">
         <v>2</v>
       </c>
       <c r="AY49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB49" s="9">
         <f>'2016'!D49</f>
@@ -56596,7 +56599,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D126" s="12">
         <f t="shared" si="4"/>
@@ -56604,7 +56607,7 @@
       </c>
       <c r="E126" s="17">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O126" s="1">
         <v>2</v>
@@ -56616,7 +56619,7 @@
         <v>1</v>
       </c>
       <c r="AY126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB126" s="9">
         <f>'2016'!D126</f>
@@ -56987,15 +56990,15 @@
       </c>
       <c r="C137" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D137" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137" s="17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N137" s="1">
         <v>1</v>
@@ -57007,6 +57010,12 @@
         <v>1</v>
       </c>
       <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+      <c r="AY137">
         <v>1</v>
       </c>
       <c r="BB137" s="9">
@@ -57192,7 +57201,7 @@
       </c>
       <c r="C142" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142" s="7">
         <f t="shared" si="7"/>
@@ -57200,12 +57209,15 @@
       </c>
       <c r="E142" s="17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
       </c>
       <c r="Z142">
+        <v>1</v>
+      </c>
+      <c r="AY142">
         <v>1</v>
       </c>
       <c r="BB142" s="9">
@@ -57625,11 +57637,11 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" s="17">
         <f t="shared" si="7"/>
@@ -57647,6 +57659,9 @@
       <c r="AU153">
         <v>2</v>
       </c>
+      <c r="AX153">
+        <v>1</v>
+      </c>
       <c r="BB153" s="9">
         <f>'2016'!D153</f>
         <v>4</v>
@@ -59068,7 +59083,7 @@
       </c>
       <c r="C198" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D198" s="12">
         <f t="shared" si="10"/>
@@ -59076,13 +59091,16 @@
       </c>
       <c r="E198" s="17">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z198">
         <v>2</v>
       </c>
       <c r="AE198">
         <v>1</v>
+      </c>
+      <c r="AY198">
+        <v>2</v>
       </c>
       <c r="BB198" s="9">
         <f>'2016'!D198</f>
@@ -59170,7 +59188,7 @@
       </c>
       <c r="C201" s="8">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D201" s="12">
         <f t="shared" si="10"/>
@@ -59178,7 +59196,7 @@
       </c>
       <c r="E201" s="17">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F201" s="1">
         <v>4</v>
@@ -59187,6 +59205,9 @@
         <v>1</v>
       </c>
       <c r="Z201">
+        <v>1</v>
+      </c>
+      <c r="AY201">
         <v>1</v>
       </c>
       <c r="BB201" s="9">
@@ -59221,15 +59242,15 @@
       <c r="B203" s="13"/>
       <c r="C203" s="14">
         <f>SUM(C3:C201)</f>
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D203" s="15">
         <f>SUM(D3:D201)</f>
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E203" s="14">
         <f>SUM(E3:E201)</f>
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="F203" s="15">
         <f>SUM(F3:F201)</f>
@@ -59343,11 +59364,11 @@
       <c r="AW203" s="13"/>
       <c r="AX203" s="13">
         <f>SUM(AX3:AX201)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY203" s="13">
         <f>SUM(AY3:AY201)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ203" s="13"/>
       <c r="BA203" s="13"/>
@@ -59436,7 +59457,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="14">
         <f>SUM(D203+E203)</f>
-        <v>2234</v>
+        <v>2223</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>4</v>
@@ -59542,7 +59563,7 @@
       </c>
       <c r="AY205" s="13">
         <f>SUM(AX203:AY203)</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ205" s="13"/>
       <c r="BA205" s="13"/>
@@ -76247,12 +76268,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -76261,6 +76276,12 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
